--- a/DatosIng1/EP1213.xlsx
+++ b/DatosIng1/EP1213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="142">
   <si>
     <t>Div</t>
   </si>
@@ -1262,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR307"/>
+  <dimension ref="A1:BR317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316:XFD317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66336,6 +66336,2126 @@
         <v>1.66</v>
       </c>
     </row>
+    <row r="308" spans="1:70">
+      <c r="A308" t="s">
+        <v>70</v>
+      </c>
+      <c r="B308" s="1">
+        <v>41429</v>
+      </c>
+      <c r="C308" t="s">
+        <v>76</v>
+      </c>
+      <c r="D308" t="s">
+        <v>81</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="G308" t="s">
+        <v>74</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308" t="s">
+        <v>74</v>
+      </c>
+      <c r="K308">
+        <v>12</v>
+      </c>
+      <c r="L308">
+        <v>16</v>
+      </c>
+      <c r="M308">
+        <v>9</v>
+      </c>
+      <c r="N308">
+        <v>9</v>
+      </c>
+      <c r="O308">
+        <v>8</v>
+      </c>
+      <c r="P308">
+        <v>16</v>
+      </c>
+      <c r="Q308">
+        <v>2</v>
+      </c>
+      <c r="R308">
+        <v>5</v>
+      </c>
+      <c r="S308">
+        <v>5</v>
+      </c>
+      <c r="T308">
+        <v>3</v>
+      </c>
+      <c r="U308">
+        <v>0</v>
+      </c>
+      <c r="V308">
+        <v>0</v>
+      </c>
+      <c r="W308">
+        <v>2.63</v>
+      </c>
+      <c r="X308">
+        <v>3.3</v>
+      </c>
+      <c r="Y308">
+        <v>2.9</v>
+      </c>
+      <c r="Z308">
+        <v>2.6</v>
+      </c>
+      <c r="AA308">
+        <v>3.1</v>
+      </c>
+      <c r="AB308">
+        <v>2.8</v>
+      </c>
+      <c r="AC308">
+        <v>2.6</v>
+      </c>
+      <c r="AD308">
+        <v>3.1</v>
+      </c>
+      <c r="AE308">
+        <v>2.8</v>
+      </c>
+      <c r="AF308">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG308">
+        <v>3.3</v>
+      </c>
+      <c r="AH308">
+        <v>2.9</v>
+      </c>
+      <c r="AI308">
+        <v>2.5</v>
+      </c>
+      <c r="AJ308">
+        <v>3.2</v>
+      </c>
+      <c r="AK308">
+        <v>2.8</v>
+      </c>
+      <c r="AL308">
+        <v>2.67</v>
+      </c>
+      <c r="AM308">
+        <v>3.33</v>
+      </c>
+      <c r="AN308">
+        <v>2.9</v>
+      </c>
+      <c r="AO308">
+        <v>2.7</v>
+      </c>
+      <c r="AP308">
+        <v>3.1</v>
+      </c>
+      <c r="AQ308">
+        <v>2.7</v>
+      </c>
+      <c r="AR308">
+        <v>2.5</v>
+      </c>
+      <c r="AS308">
+        <v>3.3</v>
+      </c>
+      <c r="AT308">
+        <v>2.88</v>
+      </c>
+      <c r="AU308">
+        <v>2.7</v>
+      </c>
+      <c r="AV308">
+        <v>3.3</v>
+      </c>
+      <c r="AW308">
+        <v>2.8</v>
+      </c>
+      <c r="AX308">
+        <v>2.4</v>
+      </c>
+      <c r="AY308">
+        <v>3.2</v>
+      </c>
+      <c r="AZ308">
+        <v>3</v>
+      </c>
+      <c r="BA308">
+        <v>39</v>
+      </c>
+      <c r="BB308">
+        <v>2.7</v>
+      </c>
+      <c r="BC308">
+        <v>2.56</v>
+      </c>
+      <c r="BD308">
+        <v>3.4</v>
+      </c>
+      <c r="BE308">
+        <v>3.25</v>
+      </c>
+      <c r="BF308">
+        <v>2.91</v>
+      </c>
+      <c r="BG308">
+        <v>2.78</v>
+      </c>
+      <c r="BH308">
+        <v>36</v>
+      </c>
+      <c r="BI308">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BJ308">
+        <v>2.06</v>
+      </c>
+      <c r="BK308">
+        <v>1.81</v>
+      </c>
+      <c r="BL308">
+        <v>1.76</v>
+      </c>
+      <c r="BM308">
+        <v>23</v>
+      </c>
+      <c r="BN308">
+        <v>-0.25</v>
+      </c>
+      <c r="BO308">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BP308">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="BQ308">
+        <v>1.74</v>
+      </c>
+      <c r="BR308">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="309" spans="1:70">
+      <c r="A309" t="s">
+        <v>70</v>
+      </c>
+      <c r="B309" s="1">
+        <v>41429</v>
+      </c>
+      <c r="C309" t="s">
+        <v>83</v>
+      </c>
+      <c r="D309" t="s">
+        <v>91</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+      <c r="G309" t="s">
+        <v>82</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309" t="s">
+        <v>82</v>
+      </c>
+      <c r="K309">
+        <v>8</v>
+      </c>
+      <c r="L309">
+        <v>12</v>
+      </c>
+      <c r="M309">
+        <v>3</v>
+      </c>
+      <c r="N309">
+        <v>4</v>
+      </c>
+      <c r="O309">
+        <v>5</v>
+      </c>
+      <c r="P309">
+        <v>11</v>
+      </c>
+      <c r="Q309">
+        <v>8</v>
+      </c>
+      <c r="R309">
+        <v>4</v>
+      </c>
+      <c r="S309">
+        <v>0</v>
+      </c>
+      <c r="T309">
+        <v>0</v>
+      </c>
+      <c r="U309">
+        <v>0</v>
+      </c>
+      <c r="V309">
+        <v>0</v>
+      </c>
+      <c r="W309">
+        <v>3.3</v>
+      </c>
+      <c r="X309">
+        <v>3.6</v>
+      </c>
+      <c r="Y309">
+        <v>2.25</v>
+      </c>
+      <c r="Z309">
+        <v>3.3</v>
+      </c>
+      <c r="AA309">
+        <v>3.4</v>
+      </c>
+      <c r="AB309">
+        <v>2.15</v>
+      </c>
+      <c r="AC309">
+        <v>3.3</v>
+      </c>
+      <c r="AD309">
+        <v>3.4</v>
+      </c>
+      <c r="AE309">
+        <v>2.15</v>
+      </c>
+      <c r="AF309">
+        <v>3.1</v>
+      </c>
+      <c r="AG309">
+        <v>3.3</v>
+      </c>
+      <c r="AH309">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI309">
+        <v>3</v>
+      </c>
+      <c r="AJ309">
+        <v>3.5</v>
+      </c>
+      <c r="AK309">
+        <v>2.25</v>
+      </c>
+      <c r="AL309">
+        <v>3.44</v>
+      </c>
+      <c r="AM309">
+        <v>3.61</v>
+      </c>
+      <c r="AN309">
+        <v>2.21</v>
+      </c>
+      <c r="AO309">
+        <v>3.3</v>
+      </c>
+      <c r="AP309">
+        <v>3.2</v>
+      </c>
+      <c r="AQ309">
+        <v>2.25</v>
+      </c>
+      <c r="AR309">
+        <v>3.2</v>
+      </c>
+      <c r="AS309">
+        <v>3.5</v>
+      </c>
+      <c r="AT309">
+        <v>2.25</v>
+      </c>
+      <c r="AU309">
+        <v>3.2</v>
+      </c>
+      <c r="AV309">
+        <v>3.6</v>
+      </c>
+      <c r="AW309">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX309">
+        <v>3</v>
+      </c>
+      <c r="AY309">
+        <v>3.5</v>
+      </c>
+      <c r="AZ309">
+        <v>2.25</v>
+      </c>
+      <c r="BA309">
+        <v>39</v>
+      </c>
+      <c r="BB309">
+        <v>3.43</v>
+      </c>
+      <c r="BC309">
+        <v>3.19</v>
+      </c>
+      <c r="BD309">
+        <v>3.6</v>
+      </c>
+      <c r="BE309">
+        <v>3.45</v>
+      </c>
+      <c r="BF309">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="BG309">
+        <v>2.21</v>
+      </c>
+      <c r="BH309">
+        <v>34</v>
+      </c>
+      <c r="BI309">
+        <v>1.78</v>
+      </c>
+      <c r="BJ309">
+        <v>1.7</v>
+      </c>
+      <c r="BK309">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BL309">
+        <v>2.12</v>
+      </c>
+      <c r="BM309">
+        <v>24</v>
+      </c>
+      <c r="BN309">
+        <v>0.25</v>
+      </c>
+      <c r="BO309">
+        <v>2.02</v>
+      </c>
+      <c r="BP309">
+        <v>1.96</v>
+      </c>
+      <c r="BQ309">
+        <v>1.95</v>
+      </c>
+      <c r="BR309">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="310" spans="1:70">
+      <c r="A310" t="s">
+        <v>70</v>
+      </c>
+      <c r="B310" s="1">
+        <v>41429</v>
+      </c>
+      <c r="C310" t="s">
+        <v>84</v>
+      </c>
+      <c r="D310" t="s">
+        <v>88</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>3</v>
+      </c>
+      <c r="G310" t="s">
+        <v>82</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310" t="s">
+        <v>82</v>
+      </c>
+      <c r="K310">
+        <v>6</v>
+      </c>
+      <c r="L310">
+        <v>11</v>
+      </c>
+      <c r="M310">
+        <v>2</v>
+      </c>
+      <c r="N310">
+        <v>8</v>
+      </c>
+      <c r="O310">
+        <v>16</v>
+      </c>
+      <c r="P310">
+        <v>11</v>
+      </c>
+      <c r="Q310">
+        <v>4</v>
+      </c>
+      <c r="R310">
+        <v>2</v>
+      </c>
+      <c r="S310">
+        <v>3</v>
+      </c>
+      <c r="T310">
+        <v>1</v>
+      </c>
+      <c r="U310">
+        <v>0</v>
+      </c>
+      <c r="V310">
+        <v>0</v>
+      </c>
+      <c r="W310">
+        <v>2.1</v>
+      </c>
+      <c r="X310">
+        <v>3.4</v>
+      </c>
+      <c r="Y310">
+        <v>4</v>
+      </c>
+      <c r="Z310">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA310">
+        <v>3.2</v>
+      </c>
+      <c r="AB310">
+        <v>3.8</v>
+      </c>
+      <c r="AC310">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AD310">
+        <v>3.2</v>
+      </c>
+      <c r="AE310">
+        <v>3.8</v>
+      </c>
+      <c r="AF310">
+        <v>2</v>
+      </c>
+      <c r="AG310">
+        <v>3.3</v>
+      </c>
+      <c r="AH310">
+        <v>3.6</v>
+      </c>
+      <c r="AI310">
+        <v>2.1</v>
+      </c>
+      <c r="AJ310">
+        <v>3.3</v>
+      </c>
+      <c r="AK310">
+        <v>3.5</v>
+      </c>
+      <c r="AL310">
+        <v>2.09</v>
+      </c>
+      <c r="AM310">
+        <v>3.35</v>
+      </c>
+      <c r="AN310">
+        <v>4.12</v>
+      </c>
+      <c r="AO310">
+        <v>2.15</v>
+      </c>
+      <c r="AP310">
+        <v>3.2</v>
+      </c>
+      <c r="AQ310">
+        <v>3.5</v>
+      </c>
+      <c r="AR310">
+        <v>2.1</v>
+      </c>
+      <c r="AS310">
+        <v>3.3</v>
+      </c>
+      <c r="AT310">
+        <v>3.6</v>
+      </c>
+      <c r="AU310">
+        <v>2.15</v>
+      </c>
+      <c r="AV310">
+        <v>3.3</v>
+      </c>
+      <c r="AW310">
+        <v>3.8</v>
+      </c>
+      <c r="AX310">
+        <v>2</v>
+      </c>
+      <c r="AY310">
+        <v>3.2</v>
+      </c>
+      <c r="AZ310">
+        <v>4</v>
+      </c>
+      <c r="BA310">
+        <v>39</v>
+      </c>
+      <c r="BB310">
+        <v>2.14</v>
+      </c>
+      <c r="BC310">
+        <v>2.06</v>
+      </c>
+      <c r="BD310">
+        <v>3.5</v>
+      </c>
+      <c r="BE310">
+        <v>3.28</v>
+      </c>
+      <c r="BF310">
+        <v>4.05</v>
+      </c>
+      <c r="BG310">
+        <v>3.74</v>
+      </c>
+      <c r="BH310">
+        <v>34</v>
+      </c>
+      <c r="BI310">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BJ310">
+        <v>2.19</v>
+      </c>
+      <c r="BK310">
+        <v>1.72</v>
+      </c>
+      <c r="BL310">
+        <v>1.66</v>
+      </c>
+      <c r="BM310">
+        <v>22</v>
+      </c>
+      <c r="BN310">
+        <v>-0.25</v>
+      </c>
+      <c r="BO310">
+        <v>1.81</v>
+      </c>
+      <c r="BP310">
+        <v>1.77</v>
+      </c>
+      <c r="BQ310">
+        <v>2.16</v>
+      </c>
+      <c r="BR310">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:70">
+      <c r="A311" t="s">
+        <v>70</v>
+      </c>
+      <c r="B311" s="1">
+        <v>41429</v>
+      </c>
+      <c r="C311" t="s">
+        <v>85</v>
+      </c>
+      <c r="D311" t="s">
+        <v>72</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+      <c r="G311" t="s">
+        <v>82</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311" t="s">
+        <v>82</v>
+      </c>
+      <c r="K311">
+        <v>16</v>
+      </c>
+      <c r="L311">
+        <v>11</v>
+      </c>
+      <c r="M311">
+        <v>5</v>
+      </c>
+      <c r="N311">
+        <v>6</v>
+      </c>
+      <c r="O311">
+        <v>7</v>
+      </c>
+      <c r="P311">
+        <v>15</v>
+      </c>
+      <c r="Q311">
+        <v>6</v>
+      </c>
+      <c r="R311">
+        <v>4</v>
+      </c>
+      <c r="S311">
+        <v>2</v>
+      </c>
+      <c r="T311">
+        <v>4</v>
+      </c>
+      <c r="U311">
+        <v>0</v>
+      </c>
+      <c r="V311">
+        <v>1</v>
+      </c>
+      <c r="W311">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X311">
+        <v>3.7</v>
+      </c>
+      <c r="Y311">
+        <v>1.95</v>
+      </c>
+      <c r="Z311">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA311">
+        <v>3.5</v>
+      </c>
+      <c r="AB311">
+        <v>1.87</v>
+      </c>
+      <c r="AC311">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD311">
+        <v>3.5</v>
+      </c>
+      <c r="AE311">
+        <v>1.87</v>
+      </c>
+      <c r="AF311">
+        <v>3.8</v>
+      </c>
+      <c r="AG311">
+        <v>3.45</v>
+      </c>
+      <c r="AH311">
+        <v>1.9</v>
+      </c>
+      <c r="AI311">
+        <v>4</v>
+      </c>
+      <c r="AJ311">
+        <v>3.5</v>
+      </c>
+      <c r="AK311">
+        <v>1.9</v>
+      </c>
+      <c r="AL311">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AM311">
+        <v>3.69</v>
+      </c>
+      <c r="AN311">
+        <v>1.96</v>
+      </c>
+      <c r="AO311">
+        <v>4</v>
+      </c>
+      <c r="AP311">
+        <v>3.3</v>
+      </c>
+      <c r="AQ311">
+        <v>1.95</v>
+      </c>
+      <c r="AR311">
+        <v>4</v>
+      </c>
+      <c r="AS311">
+        <v>3.75</v>
+      </c>
+      <c r="AT311">
+        <v>1.91</v>
+      </c>
+      <c r="AU311">
+        <v>3.9</v>
+      </c>
+      <c r="AV311">
+        <v>3.75</v>
+      </c>
+      <c r="AW311">
+        <v>2</v>
+      </c>
+      <c r="AX311">
+        <v>3.8</v>
+      </c>
+      <c r="AY311">
+        <v>3.5</v>
+      </c>
+      <c r="AZ311">
+        <v>1.91</v>
+      </c>
+      <c r="BA311">
+        <v>39</v>
+      </c>
+      <c r="BB311">
+        <v>4.33</v>
+      </c>
+      <c r="BC311">
+        <v>3.93</v>
+      </c>
+      <c r="BD311">
+        <v>3.75</v>
+      </c>
+      <c r="BE311">
+        <v>3.51</v>
+      </c>
+      <c r="BF311">
+        <v>2</v>
+      </c>
+      <c r="BG311">
+        <v>1.93</v>
+      </c>
+      <c r="BH311">
+        <v>36</v>
+      </c>
+      <c r="BI311">
+        <v>1.78</v>
+      </c>
+      <c r="BJ311">
+        <v>1.73</v>
+      </c>
+      <c r="BK311">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BL311">
+        <v>2.1</v>
+      </c>
+      <c r="BM311">
+        <v>24</v>
+      </c>
+      <c r="BN311">
+        <v>0.25</v>
+      </c>
+      <c r="BO311">
+        <v>2.33</v>
+      </c>
+      <c r="BP311">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="BQ311">
+        <v>1.74</v>
+      </c>
+      <c r="BR311">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="312" spans="1:70">
+      <c r="A312" t="s">
+        <v>70</v>
+      </c>
+      <c r="B312" s="1">
+        <v>41459</v>
+      </c>
+      <c r="C312" t="s">
+        <v>93</v>
+      </c>
+      <c r="D312" t="s">
+        <v>73</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312" t="s">
+        <v>77</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312" t="s">
+        <v>82</v>
+      </c>
+      <c r="K312">
+        <v>14</v>
+      </c>
+      <c r="L312">
+        <v>7</v>
+      </c>
+      <c r="M312">
+        <v>7</v>
+      </c>
+      <c r="N312">
+        <v>3</v>
+      </c>
+      <c r="O312">
+        <v>9</v>
+      </c>
+      <c r="P312">
+        <v>15</v>
+      </c>
+      <c r="Q312">
+        <v>8</v>
+      </c>
+      <c r="R312">
+        <v>5</v>
+      </c>
+      <c r="S312">
+        <v>0</v>
+      </c>
+      <c r="T312">
+        <v>2</v>
+      </c>
+      <c r="U312">
+        <v>0</v>
+      </c>
+      <c r="V312">
+        <v>0</v>
+      </c>
+      <c r="W312">
+        <v>1.36</v>
+      </c>
+      <c r="X312">
+        <v>5</v>
+      </c>
+      <c r="Y312">
+        <v>11</v>
+      </c>
+      <c r="Z312">
+        <v>1.3</v>
+      </c>
+      <c r="AA312">
+        <v>5</v>
+      </c>
+      <c r="AB312">
+        <v>10.5</v>
+      </c>
+      <c r="AC312">
+        <v>1.3</v>
+      </c>
+      <c r="AD312">
+        <v>5</v>
+      </c>
+      <c r="AE312">
+        <v>10.5</v>
+      </c>
+      <c r="AF312">
+        <v>1.33</v>
+      </c>
+      <c r="AG312">
+        <v>4.8</v>
+      </c>
+      <c r="AH312">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AI312">
+        <v>1.33</v>
+      </c>
+      <c r="AJ312">
+        <v>5</v>
+      </c>
+      <c r="AK312">
+        <v>9</v>
+      </c>
+      <c r="AL312">
+        <v>1.34</v>
+      </c>
+      <c r="AM312">
+        <v>5.42</v>
+      </c>
+      <c r="AN312">
+        <v>11.3</v>
+      </c>
+      <c r="AO312">
+        <v>1.33</v>
+      </c>
+      <c r="AP312">
+        <v>4.5</v>
+      </c>
+      <c r="AQ312">
+        <v>11</v>
+      </c>
+      <c r="AR312">
+        <v>1.33</v>
+      </c>
+      <c r="AS312">
+        <v>5</v>
+      </c>
+      <c r="AT312">
+        <v>10</v>
+      </c>
+      <c r="AU312">
+        <v>1.36</v>
+      </c>
+      <c r="AV312">
+        <v>5.2</v>
+      </c>
+      <c r="AW312">
+        <v>10</v>
+      </c>
+      <c r="AX312">
+        <v>1.33</v>
+      </c>
+      <c r="AY312">
+        <v>5</v>
+      </c>
+      <c r="AZ312">
+        <v>9</v>
+      </c>
+      <c r="BA312">
+        <v>39</v>
+      </c>
+      <c r="BB312">
+        <v>1.36</v>
+      </c>
+      <c r="BC312">
+        <v>1.33</v>
+      </c>
+      <c r="BD312">
+        <v>5.41</v>
+      </c>
+      <c r="BE312">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="BF312">
+        <v>11</v>
+      </c>
+      <c r="BG312">
+        <v>9.82</v>
+      </c>
+      <c r="BH312">
+        <v>34</v>
+      </c>
+      <c r="BI312">
+        <v>1.74</v>
+      </c>
+      <c r="BJ312">
+        <v>1.68</v>
+      </c>
+      <c r="BK312">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BL312">
+        <v>2.15</v>
+      </c>
+      <c r="BM312">
+        <v>23</v>
+      </c>
+      <c r="BN312">
+        <v>-1.5</v>
+      </c>
+      <c r="BO312">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BP312">
+        <v>1.96</v>
+      </c>
+      <c r="BQ312">
+        <v>1.94</v>
+      </c>
+      <c r="BR312">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:70">
+      <c r="A313" t="s">
+        <v>70</v>
+      </c>
+      <c r="B313" s="1">
+        <v>41459</v>
+      </c>
+      <c r="C313" t="s">
+        <v>86</v>
+      </c>
+      <c r="D313" t="s">
+        <v>87</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313" t="s">
+        <v>74</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313" t="s">
+        <v>74</v>
+      </c>
+      <c r="K313">
+        <v>19</v>
+      </c>
+      <c r="L313">
+        <v>10</v>
+      </c>
+      <c r="M313">
+        <v>12</v>
+      </c>
+      <c r="N313">
+        <v>4</v>
+      </c>
+      <c r="O313">
+        <v>8</v>
+      </c>
+      <c r="P313">
+        <v>4</v>
+      </c>
+      <c r="Q313">
+        <v>12</v>
+      </c>
+      <c r="R313">
+        <v>2</v>
+      </c>
+      <c r="S313">
+        <v>0</v>
+      </c>
+      <c r="T313">
+        <v>1</v>
+      </c>
+      <c r="U313">
+        <v>0</v>
+      </c>
+      <c r="V313">
+        <v>0</v>
+      </c>
+      <c r="W313">
+        <v>1.36</v>
+      </c>
+      <c r="X313">
+        <v>5.5</v>
+      </c>
+      <c r="Y313">
+        <v>9</v>
+      </c>
+      <c r="Z313">
+        <v>1.35</v>
+      </c>
+      <c r="AA313">
+        <v>5</v>
+      </c>
+      <c r="AB313">
+        <v>8</v>
+      </c>
+      <c r="AC313">
+        <v>1.35</v>
+      </c>
+      <c r="AD313">
+        <v>5</v>
+      </c>
+      <c r="AE313">
+        <v>8</v>
+      </c>
+      <c r="AF313">
+        <v>1.35</v>
+      </c>
+      <c r="AG313">
+        <v>4.8</v>
+      </c>
+      <c r="AH313">
+        <v>7.6</v>
+      </c>
+      <c r="AI313">
+        <v>1.36</v>
+      </c>
+      <c r="AJ313">
+        <v>5</v>
+      </c>
+      <c r="AK313">
+        <v>7.5</v>
+      </c>
+      <c r="AL313">
+        <v>1.35</v>
+      </c>
+      <c r="AM313">
+        <v>5.5</v>
+      </c>
+      <c r="AN313">
+        <v>10.02</v>
+      </c>
+      <c r="AO313">
+        <v>1.36</v>
+      </c>
+      <c r="AP313">
+        <v>5</v>
+      </c>
+      <c r="AQ313">
+        <v>8</v>
+      </c>
+      <c r="AR313">
+        <v>1.33</v>
+      </c>
+      <c r="AS313">
+        <v>5</v>
+      </c>
+      <c r="AT313">
+        <v>9.5</v>
+      </c>
+      <c r="AU313">
+        <v>1.36</v>
+      </c>
+      <c r="AV313">
+        <v>5.4</v>
+      </c>
+      <c r="AW313">
+        <v>9.5</v>
+      </c>
+      <c r="AX313">
+        <v>1.33</v>
+      </c>
+      <c r="AY313">
+        <v>5</v>
+      </c>
+      <c r="AZ313">
+        <v>9</v>
+      </c>
+      <c r="BA313">
+        <v>39</v>
+      </c>
+      <c r="BB313">
+        <v>1.37</v>
+      </c>
+      <c r="BC313">
+        <v>1.34</v>
+      </c>
+      <c r="BD313">
+        <v>5.5</v>
+      </c>
+      <c r="BE313">
+        <v>5.01</v>
+      </c>
+      <c r="BF313">
+        <v>10</v>
+      </c>
+      <c r="BG313">
+        <v>8.99</v>
+      </c>
+      <c r="BH313">
+        <v>25</v>
+      </c>
+      <c r="BI313">
+        <v>1.6</v>
+      </c>
+      <c r="BJ313">
+        <v>1.55</v>
+      </c>
+      <c r="BK313">
+        <v>2.56</v>
+      </c>
+      <c r="BL313">
+        <v>2.37</v>
+      </c>
+      <c r="BM313">
+        <v>25</v>
+      </c>
+      <c r="BN313">
+        <v>-1.5</v>
+      </c>
+      <c r="BO313">
+        <v>1.99</v>
+      </c>
+      <c r="BP313">
+        <v>1.94</v>
+      </c>
+      <c r="BQ313">
+        <v>1.96</v>
+      </c>
+      <c r="BR313">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="314" spans="1:70">
+      <c r="A314" t="s">
+        <v>70</v>
+      </c>
+      <c r="B314" s="1">
+        <v>41459</v>
+      </c>
+      <c r="C314" t="s">
+        <v>78</v>
+      </c>
+      <c r="D314" t="s">
+        <v>75</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314" t="s">
+        <v>77</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314" t="s">
+        <v>74</v>
+      </c>
+      <c r="K314">
+        <v>20</v>
+      </c>
+      <c r="L314">
+        <v>5</v>
+      </c>
+      <c r="M314">
+        <v>10</v>
+      </c>
+      <c r="N314">
+        <v>3</v>
+      </c>
+      <c r="O314">
+        <v>13</v>
+      </c>
+      <c r="P314">
+        <v>11</v>
+      </c>
+      <c r="Q314">
+        <v>10</v>
+      </c>
+      <c r="R314">
+        <v>3</v>
+      </c>
+      <c r="S314">
+        <v>2</v>
+      </c>
+      <c r="T314">
+        <v>2</v>
+      </c>
+      <c r="U314">
+        <v>0</v>
+      </c>
+      <c r="V314">
+        <v>0</v>
+      </c>
+      <c r="W314">
+        <v>2.1</v>
+      </c>
+      <c r="X314">
+        <v>3.5</v>
+      </c>
+      <c r="Y314">
+        <v>3.8</v>
+      </c>
+      <c r="Z314">
+        <v>2</v>
+      </c>
+      <c r="AA314">
+        <v>3.25</v>
+      </c>
+      <c r="AB314">
+        <v>3.9</v>
+      </c>
+      <c r="AC314">
+        <v>2</v>
+      </c>
+      <c r="AD314">
+        <v>3.25</v>
+      </c>
+      <c r="AE314">
+        <v>3.9</v>
+      </c>
+      <c r="AF314">
+        <v>1.95</v>
+      </c>
+      <c r="AG314">
+        <v>3.4</v>
+      </c>
+      <c r="AH314">
+        <v>3.6</v>
+      </c>
+      <c r="AI314">
+        <v>2.1</v>
+      </c>
+      <c r="AJ314">
+        <v>3.4</v>
+      </c>
+      <c r="AK314">
+        <v>3.4</v>
+      </c>
+      <c r="AL314">
+        <v>2.11</v>
+      </c>
+      <c r="AM314">
+        <v>3.51</v>
+      </c>
+      <c r="AN314">
+        <v>3.83</v>
+      </c>
+      <c r="AO314">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AP314">
+        <v>3.4</v>
+      </c>
+      <c r="AQ314">
+        <v>3.6</v>
+      </c>
+      <c r="AR314">
+        <v>2.1</v>
+      </c>
+      <c r="AS314">
+        <v>3.4</v>
+      </c>
+      <c r="AT314">
+        <v>3.6</v>
+      </c>
+      <c r="AU314">
+        <v>2.15</v>
+      </c>
+      <c r="AV314">
+        <v>3.6</v>
+      </c>
+      <c r="AW314">
+        <v>3.5</v>
+      </c>
+      <c r="AX314">
+        <v>2</v>
+      </c>
+      <c r="AY314">
+        <v>3.4</v>
+      </c>
+      <c r="AZ314">
+        <v>3.75</v>
+      </c>
+      <c r="BA314">
+        <v>39</v>
+      </c>
+      <c r="BB314">
+        <v>2.1</v>
+      </c>
+      <c r="BC314">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BD314">
+        <v>3.55</v>
+      </c>
+      <c r="BE314">
+        <v>3.4</v>
+      </c>
+      <c r="BF314">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="BG314">
+        <v>3.73</v>
+      </c>
+      <c r="BH314">
+        <v>34</v>
+      </c>
+      <c r="BI314">
+        <v>1.89</v>
+      </c>
+      <c r="BJ314">
+        <v>1.81</v>
+      </c>
+      <c r="BK314">
+        <v>2.09</v>
+      </c>
+      <c r="BL314">
+        <v>1.98</v>
+      </c>
+      <c r="BM314">
+        <v>22</v>
+      </c>
+      <c r="BN314">
+        <v>-0.25</v>
+      </c>
+      <c r="BO314">
+        <v>1.8</v>
+      </c>
+      <c r="BP314">
+        <v>1.72</v>
+      </c>
+      <c r="BQ314">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="BR314">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:70">
+      <c r="A315" t="s">
+        <v>70</v>
+      </c>
+      <c r="B315" s="1">
+        <v>41459</v>
+      </c>
+      <c r="C315" t="s">
+        <v>80</v>
+      </c>
+      <c r="D315" t="s">
+        <v>92</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315" t="s">
+        <v>74</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315" t="s">
+        <v>74</v>
+      </c>
+      <c r="K315">
+        <v>6</v>
+      </c>
+      <c r="L315">
+        <v>16</v>
+      </c>
+      <c r="M315">
+        <v>2</v>
+      </c>
+      <c r="N315">
+        <v>10</v>
+      </c>
+      <c r="O315">
+        <v>9</v>
+      </c>
+      <c r="P315">
+        <v>12</v>
+      </c>
+      <c r="Q315">
+        <v>2</v>
+      </c>
+      <c r="R315">
+        <v>10</v>
+      </c>
+      <c r="S315">
+        <v>2</v>
+      </c>
+      <c r="T315">
+        <v>3</v>
+      </c>
+      <c r="U315">
+        <v>1</v>
+      </c>
+      <c r="V315">
+        <v>0</v>
+      </c>
+      <c r="W315">
+        <v>2.38</v>
+      </c>
+      <c r="X315">
+        <v>3.4</v>
+      </c>
+      <c r="Y315">
+        <v>3.25</v>
+      </c>
+      <c r="Z315">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA315">
+        <v>3.25</v>
+      </c>
+      <c r="AB315">
+        <v>3.1</v>
+      </c>
+      <c r="AC315">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD315">
+        <v>3.25</v>
+      </c>
+      <c r="AE315">
+        <v>3.1</v>
+      </c>
+      <c r="AF315">
+        <v>2.4</v>
+      </c>
+      <c r="AG315">
+        <v>3.3</v>
+      </c>
+      <c r="AH315">
+        <v>2.75</v>
+      </c>
+      <c r="AI315">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ315">
+        <v>3.4</v>
+      </c>
+      <c r="AK315">
+        <v>3</v>
+      </c>
+      <c r="AL315">
+        <v>2.39</v>
+      </c>
+      <c r="AM315">
+        <v>3.41</v>
+      </c>
+      <c r="AN315">
+        <v>3.24</v>
+      </c>
+      <c r="AO315">
+        <v>2.4</v>
+      </c>
+      <c r="AP315">
+        <v>3.1</v>
+      </c>
+      <c r="AQ315">
+        <v>3.1</v>
+      </c>
+      <c r="AR315">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS315">
+        <v>3.4</v>
+      </c>
+      <c r="AT315">
+        <v>3.2</v>
+      </c>
+      <c r="AU315">
+        <v>2.4</v>
+      </c>
+      <c r="AV315">
+        <v>3.4</v>
+      </c>
+      <c r="AW315">
+        <v>3.12</v>
+      </c>
+      <c r="AX315">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AY315">
+        <v>3.4</v>
+      </c>
+      <c r="AZ315">
+        <v>3</v>
+      </c>
+      <c r="BA315">
+        <v>39</v>
+      </c>
+      <c r="BB315">
+        <v>2.42</v>
+      </c>
+      <c r="BC315">
+        <v>2.34</v>
+      </c>
+      <c r="BD315">
+        <v>3.45</v>
+      </c>
+      <c r="BE315">
+        <v>3.34</v>
+      </c>
+      <c r="BF315">
+        <v>3.25</v>
+      </c>
+      <c r="BG315">
+        <v>3.03</v>
+      </c>
+      <c r="BH315">
+        <v>36</v>
+      </c>
+      <c r="BI315">
+        <v>1.95</v>
+      </c>
+      <c r="BJ315">
+        <v>1.85</v>
+      </c>
+      <c r="BK315">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BL315">
+        <v>1.95</v>
+      </c>
+      <c r="BM315">
+        <v>24</v>
+      </c>
+      <c r="BN315">
+        <v>-0.25</v>
+      </c>
+      <c r="BO315">
+        <v>2.08</v>
+      </c>
+      <c r="BP315">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BQ315">
+        <v>1.89</v>
+      </c>
+      <c r="BR315">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="316" spans="1:70">
+      <c r="A316" t="s">
+        <v>70</v>
+      </c>
+      <c r="B316" s="1">
+        <v>41459</v>
+      </c>
+      <c r="C316" t="s">
+        <v>79</v>
+      </c>
+      <c r="D316" t="s">
+        <v>95</v>
+      </c>
+      <c r="E316">
+        <v>2</v>
+      </c>
+      <c r="F316">
+        <v>2</v>
+      </c>
+      <c r="G316" t="s">
+        <v>74</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+      <c r="J316" t="s">
+        <v>74</v>
+      </c>
+      <c r="K316">
+        <v>19</v>
+      </c>
+      <c r="L316">
+        <v>9</v>
+      </c>
+      <c r="M316">
+        <v>10</v>
+      </c>
+      <c r="N316">
+        <v>5</v>
+      </c>
+      <c r="O316">
+        <v>14</v>
+      </c>
+      <c r="P316">
+        <v>8</v>
+      </c>
+      <c r="Q316">
+        <v>7</v>
+      </c>
+      <c r="R316">
+        <v>6</v>
+      </c>
+      <c r="S316">
+        <v>1</v>
+      </c>
+      <c r="T316">
+        <v>1</v>
+      </c>
+      <c r="U316">
+        <v>0</v>
+      </c>
+      <c r="V316">
+        <v>0</v>
+      </c>
+      <c r="W316">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X316">
+        <v>3.4</v>
+      </c>
+      <c r="Y316">
+        <v>3.6</v>
+      </c>
+      <c r="Z316">
+        <v>2.25</v>
+      </c>
+      <c r="AA316">
+        <v>3.25</v>
+      </c>
+      <c r="AB316">
+        <v>3.2</v>
+      </c>
+      <c r="AC316">
+        <v>2.25</v>
+      </c>
+      <c r="AD316">
+        <v>3.25</v>
+      </c>
+      <c r="AE316">
+        <v>3.2</v>
+      </c>
+      <c r="AF316">
+        <v>2.1</v>
+      </c>
+      <c r="AG316">
+        <v>3.3</v>
+      </c>
+      <c r="AH316">
+        <v>3.3</v>
+      </c>
+      <c r="AI316">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ316">
+        <v>3.3</v>
+      </c>
+      <c r="AK316">
+        <v>3.2</v>
+      </c>
+      <c r="AL316">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM316">
+        <v>3.46</v>
+      </c>
+      <c r="AN316">
+        <v>3.61</v>
+      </c>
+      <c r="AO316">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP316">
+        <v>3.2</v>
+      </c>
+      <c r="AQ316">
+        <v>3.4</v>
+      </c>
+      <c r="AR316">
+        <v>2.25</v>
+      </c>
+      <c r="AS316">
+        <v>3.3</v>
+      </c>
+      <c r="AT316">
+        <v>3.4</v>
+      </c>
+      <c r="AU316">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV316">
+        <v>3.5</v>
+      </c>
+      <c r="AW316">
+        <v>3.3</v>
+      </c>
+      <c r="AX316">
+        <v>2.1</v>
+      </c>
+      <c r="AY316">
+        <v>3.4</v>
+      </c>
+      <c r="AZ316">
+        <v>3.3</v>
+      </c>
+      <c r="BA316">
+        <v>35</v>
+      </c>
+      <c r="BB316">
+        <v>2.25</v>
+      </c>
+      <c r="BC316">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BD316">
+        <v>3.4</v>
+      </c>
+      <c r="BE316">
+        <v>3.26</v>
+      </c>
+      <c r="BF316">
+        <v>3.65</v>
+      </c>
+      <c r="BG316">
+        <v>3.42</v>
+      </c>
+      <c r="BH316">
+        <v>32</v>
+      </c>
+      <c r="BI316">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="BJ316">
+        <v>2.06</v>
+      </c>
+      <c r="BK316">
+        <v>1.81</v>
+      </c>
+      <c r="BL316">
+        <v>1.74</v>
+      </c>
+      <c r="BM316">
+        <v>19</v>
+      </c>
+      <c r="BN316">
+        <v>-0.25</v>
+      </c>
+      <c r="BO316">
+        <v>1.93</v>
+      </c>
+      <c r="BP316">
+        <v>1.87</v>
+      </c>
+      <c r="BQ316">
+        <v>2.04</v>
+      </c>
+      <c r="BR316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:70">
+      <c r="A317" t="s">
+        <v>70</v>
+      </c>
+      <c r="B317" s="1">
+        <v>41490</v>
+      </c>
+      <c r="C317" t="s">
+        <v>96</v>
+      </c>
+      <c r="D317" t="s">
+        <v>90</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>2</v>
+      </c>
+      <c r="G317" t="s">
+        <v>82</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317" t="s">
+        <v>74</v>
+      </c>
+      <c r="K317">
+        <v>16</v>
+      </c>
+      <c r="L317">
+        <v>9</v>
+      </c>
+      <c r="M317">
+        <v>7</v>
+      </c>
+      <c r="N317">
+        <v>5</v>
+      </c>
+      <c r="O317">
+        <v>13</v>
+      </c>
+      <c r="P317">
+        <v>18</v>
+      </c>
+      <c r="Q317">
+        <v>9</v>
+      </c>
+      <c r="R317">
+        <v>4</v>
+      </c>
+      <c r="S317">
+        <v>3</v>
+      </c>
+      <c r="T317">
+        <v>5</v>
+      </c>
+      <c r="U317">
+        <v>0</v>
+      </c>
+      <c r="V317">
+        <v>0</v>
+      </c>
+      <c r="W317">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X317">
+        <v>3.5</v>
+      </c>
+      <c r="Y317">
+        <v>3.3</v>
+      </c>
+      <c r="Z317">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA317">
+        <v>3.4</v>
+      </c>
+      <c r="AB317">
+        <v>3.2</v>
+      </c>
+      <c r="AC317">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD317">
+        <v>3.4</v>
+      </c>
+      <c r="AE317">
+        <v>3.2</v>
+      </c>
+      <c r="AF317">
+        <v>2</v>
+      </c>
+      <c r="AG317">
+        <v>3.3</v>
+      </c>
+      <c r="AH317">
+        <v>3.6</v>
+      </c>
+      <c r="AI317">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ317">
+        <v>3.4</v>
+      </c>
+      <c r="AK317">
+        <v>3.2</v>
+      </c>
+      <c r="AL317">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AM317">
+        <v>3.48</v>
+      </c>
+      <c r="AN317">
+        <v>3.5</v>
+      </c>
+      <c r="AO317">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP317">
+        <v>3</v>
+      </c>
+      <c r="AQ317">
+        <v>3.4</v>
+      </c>
+      <c r="AR317">
+        <v>2.25</v>
+      </c>
+      <c r="AS317">
+        <v>3.5</v>
+      </c>
+      <c r="AT317">
+        <v>3.4</v>
+      </c>
+      <c r="AU317">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AV317">
+        <v>3.5</v>
+      </c>
+      <c r="AW317">
+        <v>3.3</v>
+      </c>
+      <c r="AX317">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY317">
+        <v>3.4</v>
+      </c>
+      <c r="AZ317">
+        <v>3.4</v>
+      </c>
+      <c r="BA317">
+        <v>37</v>
+      </c>
+      <c r="BB317">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BC317">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD317">
+        <v>3.52</v>
+      </c>
+      <c r="BE317">
+        <v>3.32</v>
+      </c>
+      <c r="BF317">
+        <v>3.6</v>
+      </c>
+      <c r="BG317">
+        <v>3.33</v>
+      </c>
+      <c r="BH317">
+        <v>34</v>
+      </c>
+      <c r="BI317">
+        <v>1.83</v>
+      </c>
+      <c r="BJ317">
+        <v>1.75</v>
+      </c>
+      <c r="BK317">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL317">
+        <v>2.06</v>
+      </c>
+      <c r="BM317">
+        <v>22</v>
+      </c>
+      <c r="BN317">
+        <v>-0.25</v>
+      </c>
+      <c r="BO317">
+        <v>1.92</v>
+      </c>
+      <c r="BP317">
+        <v>1.89</v>
+      </c>
+      <c r="BQ317">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BR317">
+        <v>1.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DatosIng1/EP1213.xlsx
+++ b/DatosIng1/EP1213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="144">
   <si>
     <t>Div</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>31/03/13</t>
+  </si>
+  <si>
+    <t>13/04/13</t>
+  </si>
+  <si>
+    <t>14/04/13</t>
   </si>
 </sst>
 </file>
@@ -1262,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR317"/>
+  <dimension ref="A1:BR324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316:XFD317"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -68456,6 +68462,1490 @@
         <v>1.98</v>
       </c>
     </row>
+    <row r="318" spans="1:70">
+      <c r="A318" t="s">
+        <v>70</v>
+      </c>
+      <c r="B318" t="s">
+        <v>142</v>
+      </c>
+      <c r="C318" t="s">
+        <v>72</v>
+      </c>
+      <c r="D318" t="s">
+        <v>76</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="G318" t="s">
+        <v>77</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318" t="s">
+        <v>74</v>
+      </c>
+      <c r="K318">
+        <v>10</v>
+      </c>
+      <c r="L318">
+        <v>5</v>
+      </c>
+      <c r="M318">
+        <v>7</v>
+      </c>
+      <c r="N318">
+        <v>5</v>
+      </c>
+      <c r="O318">
+        <v>8</v>
+      </c>
+      <c r="P318">
+        <v>10</v>
+      </c>
+      <c r="Q318">
+        <v>9</v>
+      </c>
+      <c r="R318">
+        <v>3</v>
+      </c>
+      <c r="S318">
+        <v>1</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>0</v>
+      </c>
+      <c r="V318">
+        <v>0</v>
+      </c>
+      <c r="W318">
+        <v>1.25</v>
+      </c>
+      <c r="X318">
+        <v>6.5</v>
+      </c>
+      <c r="Y318">
+        <v>14</v>
+      </c>
+      <c r="Z318">
+        <v>1.23</v>
+      </c>
+      <c r="AA318">
+        <v>6</v>
+      </c>
+      <c r="AB318">
+        <v>11.5</v>
+      </c>
+      <c r="AC318">
+        <v>1.23</v>
+      </c>
+      <c r="AD318">
+        <v>6</v>
+      </c>
+      <c r="AE318">
+        <v>11.5</v>
+      </c>
+      <c r="AF318">
+        <v>1.25</v>
+      </c>
+      <c r="AG318">
+        <v>5.5</v>
+      </c>
+      <c r="AH318">
+        <v>10.3</v>
+      </c>
+      <c r="AI318">
+        <v>1.25</v>
+      </c>
+      <c r="AJ318">
+        <v>6</v>
+      </c>
+      <c r="AK318">
+        <v>10</v>
+      </c>
+      <c r="AL318">
+        <v>1.26</v>
+      </c>
+      <c r="AM318">
+        <v>6.54</v>
+      </c>
+      <c r="AN318">
+        <v>13.85</v>
+      </c>
+      <c r="AO318">
+        <v>1.25</v>
+      </c>
+      <c r="AP318">
+        <v>5.5</v>
+      </c>
+      <c r="AQ318">
+        <v>13</v>
+      </c>
+      <c r="AR318">
+        <v>1.25</v>
+      </c>
+      <c r="AS318">
+        <v>6</v>
+      </c>
+      <c r="AT318">
+        <v>13</v>
+      </c>
+      <c r="AU318">
+        <v>1.25</v>
+      </c>
+      <c r="AV318">
+        <v>6.5</v>
+      </c>
+      <c r="AW318">
+        <v>13</v>
+      </c>
+      <c r="AX318">
+        <v>1.25</v>
+      </c>
+      <c r="AY318">
+        <v>6</v>
+      </c>
+      <c r="AZ318">
+        <v>10</v>
+      </c>
+      <c r="BA318">
+        <v>40</v>
+      </c>
+      <c r="BB318">
+        <v>1.26</v>
+      </c>
+      <c r="BC318">
+        <v>1.24</v>
+      </c>
+      <c r="BD318">
+        <v>6.6</v>
+      </c>
+      <c r="BE318">
+        <v>5.94</v>
+      </c>
+      <c r="BF318">
+        <v>14</v>
+      </c>
+      <c r="BG318">
+        <v>12.09</v>
+      </c>
+      <c r="BH318">
+        <v>28</v>
+      </c>
+      <c r="BI318">
+        <v>1.57</v>
+      </c>
+      <c r="BJ318">
+        <v>1.48</v>
+      </c>
+      <c r="BK318">
+        <v>2.66</v>
+      </c>
+      <c r="BL318">
+        <v>2.54</v>
+      </c>
+      <c r="BM318">
+        <v>25</v>
+      </c>
+      <c r="BN318">
+        <v>-1.75</v>
+      </c>
+      <c r="BO318">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BP318">
+        <v>1.96</v>
+      </c>
+      <c r="BQ318">
+        <v>1.97</v>
+      </c>
+      <c r="BR318">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="319" spans="1:70">
+      <c r="A319" t="s">
+        <v>70</v>
+      </c>
+      <c r="B319" t="s">
+        <v>142</v>
+      </c>
+      <c r="C319" t="s">
+        <v>88</v>
+      </c>
+      <c r="D319" t="s">
+        <v>75</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319" t="s">
+        <v>74</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319" t="s">
+        <v>74</v>
+      </c>
+      <c r="K319">
+        <v>15</v>
+      </c>
+      <c r="L319">
+        <v>8</v>
+      </c>
+      <c r="M319">
+        <v>7</v>
+      </c>
+      <c r="N319">
+        <v>3</v>
+      </c>
+      <c r="O319">
+        <v>5</v>
+      </c>
+      <c r="P319">
+        <v>15</v>
+      </c>
+      <c r="Q319">
+        <v>8</v>
+      </c>
+      <c r="R319">
+        <v>5</v>
+      </c>
+      <c r="S319">
+        <v>1</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>0</v>
+      </c>
+      <c r="V319">
+        <v>0</v>
+      </c>
+      <c r="W319">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X319">
+        <v>3.3</v>
+      </c>
+      <c r="Y319">
+        <v>3.5</v>
+      </c>
+      <c r="Z319">
+        <v>2.25</v>
+      </c>
+      <c r="AA319">
+        <v>3.2</v>
+      </c>
+      <c r="AB319">
+        <v>3.25</v>
+      </c>
+      <c r="AC319">
+        <v>2.25</v>
+      </c>
+      <c r="AD319">
+        <v>3.2</v>
+      </c>
+      <c r="AE319">
+        <v>3.25</v>
+      </c>
+      <c r="AF319">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG319">
+        <v>3.3</v>
+      </c>
+      <c r="AH319">
+        <v>3.1</v>
+      </c>
+      <c r="AI319">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ319">
+        <v>3.3</v>
+      </c>
+      <c r="AK319">
+        <v>3.25</v>
+      </c>
+      <c r="AL319">
+        <v>2.31</v>
+      </c>
+      <c r="AM319">
+        <v>3.42</v>
+      </c>
+      <c r="AN319">
+        <v>3.39</v>
+      </c>
+      <c r="AO319">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP319">
+        <v>3.1</v>
+      </c>
+      <c r="AQ319">
+        <v>3.3</v>
+      </c>
+      <c r="AR319">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS319">
+        <v>3.4</v>
+      </c>
+      <c r="AT319">
+        <v>3.2</v>
+      </c>
+      <c r="AU319">
+        <v>2.38</v>
+      </c>
+      <c r="AV319">
+        <v>3.4</v>
+      </c>
+      <c r="AW319">
+        <v>3.2</v>
+      </c>
+      <c r="AX319">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AY319">
+        <v>3.25</v>
+      </c>
+      <c r="AZ319">
+        <v>3.1</v>
+      </c>
+      <c r="BA319">
+        <v>40</v>
+      </c>
+      <c r="BB319">
+        <v>2.31</v>
+      </c>
+      <c r="BC319">
+        <v>2.25</v>
+      </c>
+      <c r="BD319">
+        <v>3.42</v>
+      </c>
+      <c r="BE319">
+        <v>3.3</v>
+      </c>
+      <c r="BF319">
+        <v>3.5</v>
+      </c>
+      <c r="BG319">
+        <v>3.21</v>
+      </c>
+      <c r="BH319">
+        <v>37</v>
+      </c>
+      <c r="BI319">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BJ319">
+        <v>1.94</v>
+      </c>
+      <c r="BK319">
+        <v>1.95</v>
+      </c>
+      <c r="BL319">
+        <v>1.86</v>
+      </c>
+      <c r="BM319">
+        <v>25</v>
+      </c>
+      <c r="BN319">
+        <v>-0.25</v>
+      </c>
+      <c r="BO319">
+        <v>2</v>
+      </c>
+      <c r="BP319">
+        <v>1.95</v>
+      </c>
+      <c r="BQ319">
+        <v>1.98</v>
+      </c>
+      <c r="BR319">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="320" spans="1:70">
+      <c r="A320" t="s">
+        <v>70</v>
+      </c>
+      <c r="B320" t="s">
+        <v>142</v>
+      </c>
+      <c r="C320" t="s">
+        <v>95</v>
+      </c>
+      <c r="D320" t="s">
+        <v>80</v>
+      </c>
+      <c r="E320">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320" t="s">
+        <v>77</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320" t="s">
+        <v>77</v>
+      </c>
+      <c r="K320">
+        <v>14</v>
+      </c>
+      <c r="L320">
+        <v>8</v>
+      </c>
+      <c r="M320">
+        <v>10</v>
+      </c>
+      <c r="N320">
+        <v>5</v>
+      </c>
+      <c r="O320">
+        <v>6</v>
+      </c>
+      <c r="P320">
+        <v>12</v>
+      </c>
+      <c r="Q320">
+        <v>13</v>
+      </c>
+      <c r="R320">
+        <v>5</v>
+      </c>
+      <c r="S320">
+        <v>3</v>
+      </c>
+      <c r="T320">
+        <v>3</v>
+      </c>
+      <c r="U320">
+        <v>0</v>
+      </c>
+      <c r="V320">
+        <v>0</v>
+      </c>
+      <c r="W320">
+        <v>1.44</v>
+      </c>
+      <c r="X320">
+        <v>4.75</v>
+      </c>
+      <c r="Y320">
+        <v>8</v>
+      </c>
+      <c r="Z320">
+        <v>1.4</v>
+      </c>
+      <c r="AA320">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB320">
+        <v>7.5</v>
+      </c>
+      <c r="AC320">
+        <v>1.4</v>
+      </c>
+      <c r="AD320">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE320">
+        <v>7.5</v>
+      </c>
+      <c r="AF320">
+        <v>1.42</v>
+      </c>
+      <c r="AG320">
+        <v>4.5</v>
+      </c>
+      <c r="AH320">
+        <v>6.7</v>
+      </c>
+      <c r="AI320">
+        <v>1.44</v>
+      </c>
+      <c r="AJ320">
+        <v>4.33</v>
+      </c>
+      <c r="AK320">
+        <v>7</v>
+      </c>
+      <c r="AL320">
+        <v>1.47</v>
+      </c>
+      <c r="AM320">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AN320">
+        <v>7.84</v>
+      </c>
+      <c r="AO320">
+        <v>1.44</v>
+      </c>
+      <c r="AP320">
+        <v>4.33</v>
+      </c>
+      <c r="AQ320">
+        <v>7</v>
+      </c>
+      <c r="AR320">
+        <v>1.4</v>
+      </c>
+      <c r="AS320">
+        <v>4.5</v>
+      </c>
+      <c r="AT320">
+        <v>8</v>
+      </c>
+      <c r="AU320">
+        <v>1.45</v>
+      </c>
+      <c r="AV320">
+        <v>4.75</v>
+      </c>
+      <c r="AW320">
+        <v>7.5</v>
+      </c>
+      <c r="AX320">
+        <v>1.4</v>
+      </c>
+      <c r="AY320">
+        <v>4.5</v>
+      </c>
+      <c r="AZ320">
+        <v>8</v>
+      </c>
+      <c r="BA320">
+        <v>40</v>
+      </c>
+      <c r="BB320">
+        <v>1.47</v>
+      </c>
+      <c r="BC320">
+        <v>1.43</v>
+      </c>
+      <c r="BD320">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="BE320">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BF320">
+        <v>8</v>
+      </c>
+      <c r="BG320">
+        <v>7.49</v>
+      </c>
+      <c r="BH320">
+        <v>36</v>
+      </c>
+      <c r="BI320">
+        <v>1.78</v>
+      </c>
+      <c r="BJ320">
+        <v>1.72</v>
+      </c>
+      <c r="BK320">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL320">
+        <v>2.1</v>
+      </c>
+      <c r="BM320">
+        <v>25</v>
+      </c>
+      <c r="BN320">
+        <v>-1</v>
+      </c>
+      <c r="BO320">
+        <v>1.76</v>
+      </c>
+      <c r="BP320">
+        <v>1.71</v>
+      </c>
+      <c r="BQ320">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="BR320">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:70">
+      <c r="A321" t="s">
+        <v>70</v>
+      </c>
+      <c r="B321" t="s">
+        <v>142</v>
+      </c>
+      <c r="C321" t="s">
+        <v>83</v>
+      </c>
+      <c r="D321" t="s">
+        <v>86</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321" t="s">
+        <v>74</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321" t="s">
+        <v>74</v>
+      </c>
+      <c r="K321">
+        <v>7</v>
+      </c>
+      <c r="L321">
+        <v>26</v>
+      </c>
+      <c r="M321">
+        <v>5</v>
+      </c>
+      <c r="N321">
+        <v>15</v>
+      </c>
+      <c r="O321">
+        <v>9</v>
+      </c>
+      <c r="P321">
+        <v>8</v>
+      </c>
+      <c r="Q321">
+        <v>4</v>
+      </c>
+      <c r="R321">
+        <v>9</v>
+      </c>
+      <c r="S321">
+        <v>1</v>
+      </c>
+      <c r="T321">
+        <v>0</v>
+      </c>
+      <c r="U321">
+        <v>0</v>
+      </c>
+      <c r="V321">
+        <v>0</v>
+      </c>
+      <c r="W321">
+        <v>8</v>
+      </c>
+      <c r="X321">
+        <v>4.75</v>
+      </c>
+      <c r="Y321">
+        <v>1.45</v>
+      </c>
+      <c r="Z321">
+        <v>7.25</v>
+      </c>
+      <c r="AA321">
+        <v>4.33</v>
+      </c>
+      <c r="AB321">
+        <v>1.44</v>
+      </c>
+      <c r="AC321">
+        <v>7.25</v>
+      </c>
+      <c r="AD321">
+        <v>4.33</v>
+      </c>
+      <c r="AE321">
+        <v>1.44</v>
+      </c>
+      <c r="AF321">
+        <v>6.1</v>
+      </c>
+      <c r="AG321">
+        <v>4</v>
+      </c>
+      <c r="AH321">
+        <v>1.5</v>
+      </c>
+      <c r="AI321">
+        <v>6.5</v>
+      </c>
+      <c r="AJ321">
+        <v>4.2</v>
+      </c>
+      <c r="AK321">
+        <v>1.5</v>
+      </c>
+      <c r="AL321">
+        <v>7.35</v>
+      </c>
+      <c r="AM321">
+        <v>4.74</v>
+      </c>
+      <c r="AN321">
+        <v>1.49</v>
+      </c>
+      <c r="AO321">
+        <v>7</v>
+      </c>
+      <c r="AP321">
+        <v>4</v>
+      </c>
+      <c r="AQ321">
+        <v>1.5</v>
+      </c>
+      <c r="AR321">
+        <v>6.5</v>
+      </c>
+      <c r="AS321">
+        <v>4.5</v>
+      </c>
+      <c r="AT321">
+        <v>1.5</v>
+      </c>
+      <c r="AU321">
+        <v>7</v>
+      </c>
+      <c r="AV321">
+        <v>4.75</v>
+      </c>
+      <c r="AW321">
+        <v>1.5</v>
+      </c>
+      <c r="AX321">
+        <v>6.5</v>
+      </c>
+      <c r="AY321">
+        <v>4.5</v>
+      </c>
+      <c r="AZ321">
+        <v>1.44</v>
+      </c>
+      <c r="BA321">
+        <v>40</v>
+      </c>
+      <c r="BB321">
+        <v>8</v>
+      </c>
+      <c r="BC321">
+        <v>7.01</v>
+      </c>
+      <c r="BD321">
+        <v>4.75</v>
+      </c>
+      <c r="BE321">
+        <v>4.38</v>
+      </c>
+      <c r="BF321">
+        <v>1.5</v>
+      </c>
+      <c r="BG321">
+        <v>1.46</v>
+      </c>
+      <c r="BH321">
+        <v>28</v>
+      </c>
+      <c r="BI321">
+        <v>1.64</v>
+      </c>
+      <c r="BJ321">
+        <v>1.57</v>
+      </c>
+      <c r="BK321">
+        <v>2.5</v>
+      </c>
+      <c r="BL321">
+        <v>2.33</v>
+      </c>
+      <c r="BM321">
+        <v>26</v>
+      </c>
+      <c r="BN321">
+        <v>1</v>
+      </c>
+      <c r="BO321">
+        <v>2.25</v>
+      </c>
+      <c r="BP321">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BQ321">
+        <v>1.79</v>
+      </c>
+      <c r="BR321">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="322" spans="1:70">
+      <c r="A322" t="s">
+        <v>70</v>
+      </c>
+      <c r="B322" t="s">
+        <v>142</v>
+      </c>
+      <c r="C322" t="s">
+        <v>91</v>
+      </c>
+      <c r="D322" t="s">
+        <v>87</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322" t="s">
+        <v>74</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322" t="s">
+        <v>74</v>
+      </c>
+      <c r="K322">
+        <v>15</v>
+      </c>
+      <c r="L322">
+        <v>6</v>
+      </c>
+      <c r="M322">
+        <v>11</v>
+      </c>
+      <c r="N322">
+        <v>4</v>
+      </c>
+      <c r="O322">
+        <v>9</v>
+      </c>
+      <c r="P322">
+        <v>18</v>
+      </c>
+      <c r="Q322">
+        <v>7</v>
+      </c>
+      <c r="R322">
+        <v>4</v>
+      </c>
+      <c r="S322">
+        <v>1</v>
+      </c>
+      <c r="T322">
+        <v>0</v>
+      </c>
+      <c r="U322">
+        <v>0</v>
+      </c>
+      <c r="V322">
+        <v>0</v>
+      </c>
+      <c r="W322">
+        <v>1.91</v>
+      </c>
+      <c r="X322">
+        <v>3.75</v>
+      </c>
+      <c r="Y322">
+        <v>4.2</v>
+      </c>
+      <c r="Z322">
+        <v>1.8</v>
+      </c>
+      <c r="AA322">
+        <v>3.7</v>
+      </c>
+      <c r="AB322">
+        <v>4.2</v>
+      </c>
+      <c r="AC322">
+        <v>1.8</v>
+      </c>
+      <c r="AD322">
+        <v>3.7</v>
+      </c>
+      <c r="AE322">
+        <v>4.2</v>
+      </c>
+      <c r="AF322">
+        <v>1.85</v>
+      </c>
+      <c r="AG322">
+        <v>3.5</v>
+      </c>
+      <c r="AH322">
+        <v>3.9</v>
+      </c>
+      <c r="AI322">
+        <v>1.85</v>
+      </c>
+      <c r="AJ322">
+        <v>3.6</v>
+      </c>
+      <c r="AK322">
+        <v>4</v>
+      </c>
+      <c r="AL322">
+        <v>1.93</v>
+      </c>
+      <c r="AM322">
+        <v>3.71</v>
+      </c>
+      <c r="AN322">
+        <v>4.32</v>
+      </c>
+      <c r="AO322">
+        <v>1.95</v>
+      </c>
+      <c r="AP322">
+        <v>3.2</v>
+      </c>
+      <c r="AQ322">
+        <v>4.2</v>
+      </c>
+      <c r="AR322">
+        <v>1.83</v>
+      </c>
+      <c r="AS322">
+        <v>3.6</v>
+      </c>
+      <c r="AT322">
+        <v>4.5</v>
+      </c>
+      <c r="AU322">
+        <v>1.95</v>
+      </c>
+      <c r="AV322">
+        <v>3.7</v>
+      </c>
+      <c r="AW322">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX322">
+        <v>1.83</v>
+      </c>
+      <c r="AY322">
+        <v>3.5</v>
+      </c>
+      <c r="AZ322">
+        <v>4.33</v>
+      </c>
+      <c r="BA322">
+        <v>40</v>
+      </c>
+      <c r="BB322">
+        <v>1.95</v>
+      </c>
+      <c r="BC322">
+        <v>1.87</v>
+      </c>
+      <c r="BD322">
+        <v>3.75</v>
+      </c>
+      <c r="BE322">
+        <v>3.51</v>
+      </c>
+      <c r="BF322">
+        <v>4.5</v>
+      </c>
+      <c r="BG322">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="BH322">
+        <v>38</v>
+      </c>
+      <c r="BI322">
+        <v>1.94</v>
+      </c>
+      <c r="BJ322">
+        <v>1.86</v>
+      </c>
+      <c r="BK322">
+        <v>2.04</v>
+      </c>
+      <c r="BL322">
+        <v>1.95</v>
+      </c>
+      <c r="BM322">
+        <v>25</v>
+      </c>
+      <c r="BN322">
+        <v>-0.75</v>
+      </c>
+      <c r="BO322">
+        <v>2.25</v>
+      </c>
+      <c r="BP322">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BQ322">
+        <v>1.8</v>
+      </c>
+      <c r="BR322">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="323" spans="1:70">
+      <c r="A323" t="s">
+        <v>70</v>
+      </c>
+      <c r="B323" t="s">
+        <v>143</v>
+      </c>
+      <c r="C323" t="s">
+        <v>78</v>
+      </c>
+      <c r="D323" t="s">
+        <v>73</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>3</v>
+      </c>
+      <c r="G323" t="s">
+        <v>82</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="s">
+        <v>82</v>
+      </c>
+      <c r="K323">
+        <v>15</v>
+      </c>
+      <c r="L323">
+        <v>8</v>
+      </c>
+      <c r="M323">
+        <v>9</v>
+      </c>
+      <c r="N323">
+        <v>7</v>
+      </c>
+      <c r="O323">
+        <v>14</v>
+      </c>
+      <c r="P323">
+        <v>7</v>
+      </c>
+      <c r="Q323">
+        <v>10</v>
+      </c>
+      <c r="R323">
+        <v>9</v>
+      </c>
+      <c r="S323">
+        <v>0</v>
+      </c>
+      <c r="T323">
+        <v>0</v>
+      </c>
+      <c r="U323">
+        <v>0</v>
+      </c>
+      <c r="V323">
+        <v>0</v>
+      </c>
+      <c r="W323">
+        <v>1.95</v>
+      </c>
+      <c r="X323">
+        <v>3.5</v>
+      </c>
+      <c r="Y323">
+        <v>4.5</v>
+      </c>
+      <c r="Z323">
+        <v>1.91</v>
+      </c>
+      <c r="AA323">
+        <v>3.25</v>
+      </c>
+      <c r="AB323">
+        <v>4.25</v>
+      </c>
+      <c r="AC323">
+        <v>1.91</v>
+      </c>
+      <c r="AD323">
+        <v>3.25</v>
+      </c>
+      <c r="AE323">
+        <v>4.25</v>
+      </c>
+      <c r="AF323">
+        <v>1.9</v>
+      </c>
+      <c r="AG323">
+        <v>3.45</v>
+      </c>
+      <c r="AH323">
+        <v>3.8</v>
+      </c>
+      <c r="AI323">
+        <v>1.9</v>
+      </c>
+      <c r="AJ323">
+        <v>3.4</v>
+      </c>
+      <c r="AK323">
+        <v>4</v>
+      </c>
+      <c r="AL323">
+        <v>1.92</v>
+      </c>
+      <c r="AM323">
+        <v>3.58</v>
+      </c>
+      <c r="AN323">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AO323">
+        <v>1.95</v>
+      </c>
+      <c r="AP323">
+        <v>3.1</v>
+      </c>
+      <c r="AQ323">
+        <v>4.33</v>
+      </c>
+      <c r="AR323">
+        <v>1.91</v>
+      </c>
+      <c r="AS323">
+        <v>3.5</v>
+      </c>
+      <c r="AT323">
+        <v>4.33</v>
+      </c>
+      <c r="AU323">
+        <v>1.95</v>
+      </c>
+      <c r="AV323">
+        <v>3.6</v>
+      </c>
+      <c r="AW323">
+        <v>4.3</v>
+      </c>
+      <c r="AX323">
+        <v>1.91</v>
+      </c>
+      <c r="AY323">
+        <v>3.4</v>
+      </c>
+      <c r="AZ323">
+        <v>4</v>
+      </c>
+      <c r="BA323">
+        <v>39</v>
+      </c>
+      <c r="BB323">
+        <v>1.95</v>
+      </c>
+      <c r="BC323">
+        <v>1.91</v>
+      </c>
+      <c r="BD323">
+        <v>3.58</v>
+      </c>
+      <c r="BE323">
+        <v>3.39</v>
+      </c>
+      <c r="BF323">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="BG323">
+        <v>4.17</v>
+      </c>
+      <c r="BH323">
+        <v>37</v>
+      </c>
+      <c r="BI323">
+        <v>2.04</v>
+      </c>
+      <c r="BJ323">
+        <v>1.96</v>
+      </c>
+      <c r="BK323">
+        <v>1.92</v>
+      </c>
+      <c r="BL323">
+        <v>1.84</v>
+      </c>
+      <c r="BM323">
+        <v>23</v>
+      </c>
+      <c r="BN323">
+        <v>-0.25</v>
+      </c>
+      <c r="BO323">
+        <v>1.7</v>
+      </c>
+      <c r="BP323">
+        <v>1.66</v>
+      </c>
+      <c r="BQ323">
+        <v>2.4</v>
+      </c>
+      <c r="BR323">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:70">
+      <c r="A324" t="s">
+        <v>70</v>
+      </c>
+      <c r="B324" t="s">
+        <v>143</v>
+      </c>
+      <c r="C324" t="s">
+        <v>84</v>
+      </c>
+      <c r="D324" t="s">
+        <v>96</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+      <c r="G324" t="s">
+        <v>82</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324" t="s">
+        <v>82</v>
+      </c>
+      <c r="K324">
+        <v>13</v>
+      </c>
+      <c r="L324">
+        <v>9</v>
+      </c>
+      <c r="M324">
+        <v>4</v>
+      </c>
+      <c r="N324">
+        <v>3</v>
+      </c>
+      <c r="O324">
+        <v>9</v>
+      </c>
+      <c r="P324">
+        <v>9</v>
+      </c>
+      <c r="Q324">
+        <v>3</v>
+      </c>
+      <c r="R324">
+        <v>7</v>
+      </c>
+      <c r="S324">
+        <v>1</v>
+      </c>
+      <c r="T324">
+        <v>1</v>
+      </c>
+      <c r="U324">
+        <v>0</v>
+      </c>
+      <c r="V324">
+        <v>0</v>
+      </c>
+      <c r="W324">
+        <v>7</v>
+      </c>
+      <c r="X324">
+        <v>3.9</v>
+      </c>
+      <c r="Y324">
+        <v>1.6</v>
+      </c>
+      <c r="Z324">
+        <v>6.5</v>
+      </c>
+      <c r="AA324">
+        <v>3.75</v>
+      </c>
+      <c r="AB324">
+        <v>1.55</v>
+      </c>
+      <c r="AC324">
+        <v>6.5</v>
+      </c>
+      <c r="AD324">
+        <v>3.75</v>
+      </c>
+      <c r="AE324">
+        <v>1.55</v>
+      </c>
+      <c r="AF324">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG324">
+        <v>3.6</v>
+      </c>
+      <c r="AH324">
+        <v>1.65</v>
+      </c>
+      <c r="AI324">
+        <v>6</v>
+      </c>
+      <c r="AJ324">
+        <v>3.75</v>
+      </c>
+      <c r="AK324">
+        <v>1.57</v>
+      </c>
+      <c r="AL324">
+        <v>6.94</v>
+      </c>
+      <c r="AM324">
+        <v>4.12</v>
+      </c>
+      <c r="AN324">
+        <v>1.58</v>
+      </c>
+      <c r="AO324">
+        <v>6.5</v>
+      </c>
+      <c r="AP324">
+        <v>3.4</v>
+      </c>
+      <c r="AQ324">
+        <v>1.62</v>
+      </c>
+      <c r="AR324">
+        <v>6</v>
+      </c>
+      <c r="AS324">
+        <v>3.8</v>
+      </c>
+      <c r="AT324">
+        <v>1.62</v>
+      </c>
+      <c r="AU324">
+        <v>6.25</v>
+      </c>
+      <c r="AV324">
+        <v>4</v>
+      </c>
+      <c r="AW324">
+        <v>1.62</v>
+      </c>
+      <c r="AX324">
+        <v>6</v>
+      </c>
+      <c r="AY324">
+        <v>3.75</v>
+      </c>
+      <c r="AZ324">
+        <v>1.57</v>
+      </c>
+      <c r="BA324">
+        <v>39</v>
+      </c>
+      <c r="BB324">
+        <v>7</v>
+      </c>
+      <c r="BC324">
+        <v>6.35</v>
+      </c>
+      <c r="BD324">
+        <v>4.12</v>
+      </c>
+      <c r="BE324">
+        <v>3.75</v>
+      </c>
+      <c r="BF324">
+        <v>1.65</v>
+      </c>
+      <c r="BG324">
+        <v>1.58</v>
+      </c>
+      <c r="BH324">
+        <v>37</v>
+      </c>
+      <c r="BI324">
+        <v>2.1</v>
+      </c>
+      <c r="BJ324">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BK324">
+        <v>1.86</v>
+      </c>
+      <c r="BL324">
+        <v>1.79</v>
+      </c>
+      <c r="BM324">
+        <v>27</v>
+      </c>
+      <c r="BN324">
+        <v>1</v>
+      </c>
+      <c r="BO324">
+        <v>1.89</v>
+      </c>
+      <c r="BP324">
+        <v>1.85</v>
+      </c>
+      <c r="BQ324">
+        <v>2.12</v>
+      </c>
+      <c r="BR324">
+        <v>2.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DatosIng1/EP1213.xlsx
+++ b/DatosIng1/EP1213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="18675" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="E0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="149">
   <si>
     <t>Div</t>
   </si>
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>14/04/13</t>
+  </si>
+  <si>
+    <t>16/04/13</t>
+  </si>
+  <si>
+    <t>17/04/13</t>
+  </si>
+  <si>
+    <t>20/04/13</t>
+  </si>
+  <si>
+    <t>21/04/13</t>
+  </si>
+  <si>
+    <t>22/04/13</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR324"/>
+  <dimension ref="A1:BR338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -69154,10 +69169,10 @@
         <v>9</v>
       </c>
       <c r="S321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U321">
         <v>0</v>
@@ -69366,10 +69381,10 @@
         <v>4</v>
       </c>
       <c r="S322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T322">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U322">
         <v>0</v>
@@ -69578,10 +69593,10 @@
         <v>9</v>
       </c>
       <c r="S323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U323">
         <v>0</v>
@@ -69944,6 +69959,2974 @@
       </c>
       <c r="BR324">
         <v>2.02</v>
+      </c>
+    </row>
+    <row r="325" spans="1:70">
+      <c r="A325" t="s">
+        <v>70</v>
+      </c>
+      <c r="B325" t="s">
+        <v>144</v>
+      </c>
+      <c r="C325" t="s">
+        <v>72</v>
+      </c>
+      <c r="D325" t="s">
+        <v>95</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325" t="s">
+        <v>74</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325" t="s">
+        <v>74</v>
+      </c>
+      <c r="K325">
+        <v>10</v>
+      </c>
+      <c r="L325">
+        <v>10</v>
+      </c>
+      <c r="M325">
+        <v>6</v>
+      </c>
+      <c r="N325">
+        <v>5</v>
+      </c>
+      <c r="O325">
+        <v>11</v>
+      </c>
+      <c r="P325">
+        <v>12</v>
+      </c>
+      <c r="Q325">
+        <v>8</v>
+      </c>
+      <c r="R325">
+        <v>1</v>
+      </c>
+      <c r="S325">
+        <v>2</v>
+      </c>
+      <c r="T325">
+        <v>3</v>
+      </c>
+      <c r="U325">
+        <v>0</v>
+      </c>
+      <c r="V325">
+        <v>0</v>
+      </c>
+      <c r="W325">
+        <v>1.75</v>
+      </c>
+      <c r="X325">
+        <v>3.9</v>
+      </c>
+      <c r="Y325">
+        <v>5</v>
+      </c>
+      <c r="Z325">
+        <v>1.7</v>
+      </c>
+      <c r="AA325">
+        <v>3.8</v>
+      </c>
+      <c r="AB325">
+        <v>4.75</v>
+      </c>
+      <c r="AC325">
+        <v>1.7</v>
+      </c>
+      <c r="AD325">
+        <v>3.8</v>
+      </c>
+      <c r="AE325">
+        <v>4.75</v>
+      </c>
+      <c r="AF325">
+        <v>1.8</v>
+      </c>
+      <c r="AG325">
+        <v>3.5</v>
+      </c>
+      <c r="AH325">
+        <v>4.2</v>
+      </c>
+      <c r="AI325">
+        <v>1.75</v>
+      </c>
+      <c r="AJ325">
+        <v>3.75</v>
+      </c>
+      <c r="AK325">
+        <v>4.5</v>
+      </c>
+      <c r="AL325">
+        <v>1.76</v>
+      </c>
+      <c r="AM325">
+        <v>3.94</v>
+      </c>
+      <c r="AN325">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AO325">
+        <v>1.75</v>
+      </c>
+      <c r="AP325">
+        <v>3.75</v>
+      </c>
+      <c r="AQ325">
+        <v>4.5</v>
+      </c>
+      <c r="AR325">
+        <v>1.8</v>
+      </c>
+      <c r="AS325">
+        <v>3.8</v>
+      </c>
+      <c r="AT325">
+        <v>4.5</v>
+      </c>
+      <c r="AU325">
+        <v>1.75</v>
+      </c>
+      <c r="AV325">
+        <v>3.8</v>
+      </c>
+      <c r="AW325">
+        <v>5</v>
+      </c>
+      <c r="AX325">
+        <v>1.8</v>
+      </c>
+      <c r="AY325">
+        <v>3.5</v>
+      </c>
+      <c r="AZ325">
+        <v>4.33</v>
+      </c>
+      <c r="BA325">
+        <v>36</v>
+      </c>
+      <c r="BB325">
+        <v>1.8</v>
+      </c>
+      <c r="BC325">
+        <v>1.72</v>
+      </c>
+      <c r="BD325">
+        <v>4.05</v>
+      </c>
+      <c r="BE325">
+        <v>3.82</v>
+      </c>
+      <c r="BF325">
+        <v>5.15</v>
+      </c>
+      <c r="BG325">
+        <v>4.8</v>
+      </c>
+      <c r="BH325">
+        <v>37</v>
+      </c>
+      <c r="BI325">
+        <v>1.74</v>
+      </c>
+      <c r="BJ325">
+        <v>1.68</v>
+      </c>
+      <c r="BK325">
+        <v>2.29</v>
+      </c>
+      <c r="BL325">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BM325">
+        <v>24</v>
+      </c>
+      <c r="BN325">
+        <v>-0.75</v>
+      </c>
+      <c r="BO325">
+        <v>1.95</v>
+      </c>
+      <c r="BP325">
+        <v>1.89</v>
+      </c>
+      <c r="BQ325">
+        <v>2.04</v>
+      </c>
+      <c r="BR325">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="326" spans="1:70">
+      <c r="A326" t="s">
+        <v>70</v>
+      </c>
+      <c r="B326" t="s">
+        <v>145</v>
+      </c>
+      <c r="C326" t="s">
+        <v>75</v>
+      </c>
+      <c r="D326" t="s">
+        <v>93</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>3</v>
+      </c>
+      <c r="G326" t="s">
+        <v>82</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>3</v>
+      </c>
+      <c r="J326" t="s">
+        <v>82</v>
+      </c>
+      <c r="K326">
+        <v>11</v>
+      </c>
+      <c r="L326">
+        <v>13</v>
+      </c>
+      <c r="M326">
+        <v>7</v>
+      </c>
+      <c r="N326">
+        <v>10</v>
+      </c>
+      <c r="O326">
+        <v>11</v>
+      </c>
+      <c r="P326">
+        <v>11</v>
+      </c>
+      <c r="Q326">
+        <v>6</v>
+      </c>
+      <c r="R326">
+        <v>5</v>
+      </c>
+      <c r="S326">
+        <v>2</v>
+      </c>
+      <c r="T326">
+        <v>1</v>
+      </c>
+      <c r="U326">
+        <v>0</v>
+      </c>
+      <c r="V326">
+        <v>0</v>
+      </c>
+      <c r="W326">
+        <v>4.75</v>
+      </c>
+      <c r="X326">
+        <v>3.8</v>
+      </c>
+      <c r="Y326">
+        <v>1.8</v>
+      </c>
+      <c r="Z326">
+        <v>4.5</v>
+      </c>
+      <c r="AA326">
+        <v>3.8</v>
+      </c>
+      <c r="AB326">
+        <v>1.72</v>
+      </c>
+      <c r="AC326">
+        <v>4.5</v>
+      </c>
+      <c r="AD326">
+        <v>3.8</v>
+      </c>
+      <c r="AE326">
+        <v>1.72</v>
+      </c>
+      <c r="AF326">
+        <v>3.8</v>
+      </c>
+      <c r="AG326">
+        <v>3.45</v>
+      </c>
+      <c r="AH326">
+        <v>1.9</v>
+      </c>
+      <c r="AI326">
+        <v>4.33</v>
+      </c>
+      <c r="AJ326">
+        <v>3.4</v>
+      </c>
+      <c r="AK326">
+        <v>1.83</v>
+      </c>
+      <c r="AL326">
+        <v>4.87</v>
+      </c>
+      <c r="AM326">
+        <v>3.81</v>
+      </c>
+      <c r="AN326">
+        <v>1.79</v>
+      </c>
+      <c r="AO326">
+        <v>4.5</v>
+      </c>
+      <c r="AP326">
+        <v>3.5</v>
+      </c>
+      <c r="AQ326">
+        <v>1.8</v>
+      </c>
+      <c r="AR326">
+        <v>4</v>
+      </c>
+      <c r="AS326">
+        <v>3.75</v>
+      </c>
+      <c r="AT326">
+        <v>1.91</v>
+      </c>
+      <c r="AU326">
+        <v>4.3</v>
+      </c>
+      <c r="AV326">
+        <v>3.7</v>
+      </c>
+      <c r="AW326">
+        <v>1.85</v>
+      </c>
+      <c r="AX326">
+        <v>3.9</v>
+      </c>
+      <c r="AY326">
+        <v>3.5</v>
+      </c>
+      <c r="AZ326">
+        <v>1.91</v>
+      </c>
+      <c r="BA326">
+        <v>39</v>
+      </c>
+      <c r="BB326">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BC326">
+        <v>4.49</v>
+      </c>
+      <c r="BD326">
+        <v>3.9</v>
+      </c>
+      <c r="BE326">
+        <v>3.59</v>
+      </c>
+      <c r="BF326">
+        <v>1.91</v>
+      </c>
+      <c r="BG326">
+        <v>1.8</v>
+      </c>
+      <c r="BH326">
+        <v>37</v>
+      </c>
+      <c r="BI326">
+        <v>1.82</v>
+      </c>
+      <c r="BJ326">
+        <v>1.75</v>
+      </c>
+      <c r="BK326">
+        <v>2.16</v>
+      </c>
+      <c r="BL326">
+        <v>2.06</v>
+      </c>
+      <c r="BM326">
+        <v>20</v>
+      </c>
+      <c r="BN326">
+        <v>0.5</v>
+      </c>
+      <c r="BO326">
+        <v>2.16</v>
+      </c>
+      <c r="BP326">
+        <v>2.11</v>
+      </c>
+      <c r="BQ326">
+        <v>1.83</v>
+      </c>
+      <c r="BR326">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="327" spans="1:70">
+      <c r="A327" t="s">
+        <v>70</v>
+      </c>
+      <c r="B327" t="s">
+        <v>145</v>
+      </c>
+      <c r="C327" t="s">
+        <v>90</v>
+      </c>
+      <c r="D327" t="s">
+        <v>92</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327" t="s">
+        <v>77</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327" t="s">
+        <v>74</v>
+      </c>
+      <c r="K327">
+        <v>10</v>
+      </c>
+      <c r="L327">
+        <v>8</v>
+      </c>
+      <c r="M327">
+        <v>4</v>
+      </c>
+      <c r="N327">
+        <v>6</v>
+      </c>
+      <c r="O327">
+        <v>12</v>
+      </c>
+      <c r="P327">
+        <v>5</v>
+      </c>
+      <c r="Q327">
+        <v>5</v>
+      </c>
+      <c r="R327">
+        <v>4</v>
+      </c>
+      <c r="S327">
+        <v>2</v>
+      </c>
+      <c r="T327">
+        <v>1</v>
+      </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
+      <c r="V327">
+        <v>0</v>
+      </c>
+      <c r="W327">
+        <v>1.25</v>
+      </c>
+      <c r="X327">
+        <v>6.5</v>
+      </c>
+      <c r="Y327">
+        <v>14</v>
+      </c>
+      <c r="Z327">
+        <v>1.23</v>
+      </c>
+      <c r="AA327">
+        <v>6</v>
+      </c>
+      <c r="AB327">
+        <v>11.5</v>
+      </c>
+      <c r="AC327">
+        <v>1.23</v>
+      </c>
+      <c r="AD327">
+        <v>6</v>
+      </c>
+      <c r="AE327">
+        <v>11.5</v>
+      </c>
+      <c r="AF327">
+        <v>1.27</v>
+      </c>
+      <c r="AG327">
+        <v>5.5</v>
+      </c>
+      <c r="AH327">
+        <v>9</v>
+      </c>
+      <c r="AI327">
+        <v>1.25</v>
+      </c>
+      <c r="AJ327">
+        <v>6</v>
+      </c>
+      <c r="AK327">
+        <v>12</v>
+      </c>
+      <c r="AL327">
+        <v>1.28</v>
+      </c>
+      <c r="AM327">
+        <v>6.07</v>
+      </c>
+      <c r="AN327">
+        <v>13.44</v>
+      </c>
+      <c r="AO327">
+        <v>1.22</v>
+      </c>
+      <c r="AP327">
+        <v>6</v>
+      </c>
+      <c r="AQ327">
+        <v>12</v>
+      </c>
+      <c r="AR327">
+        <v>1.22</v>
+      </c>
+      <c r="AS327">
+        <v>6.25</v>
+      </c>
+      <c r="AT327">
+        <v>15</v>
+      </c>
+      <c r="AU327">
+        <v>1.36</v>
+      </c>
+      <c r="AV327">
+        <v>4.75</v>
+      </c>
+      <c r="AW327">
+        <v>9</v>
+      </c>
+      <c r="AX327">
+        <v>1.22</v>
+      </c>
+      <c r="AY327">
+        <v>6</v>
+      </c>
+      <c r="AZ327">
+        <v>12</v>
+      </c>
+      <c r="BA327">
+        <v>39</v>
+      </c>
+      <c r="BB327">
+        <v>1.28</v>
+      </c>
+      <c r="BC327">
+        <v>1.25</v>
+      </c>
+      <c r="BD327">
+        <v>6.5</v>
+      </c>
+      <c r="BE327">
+        <v>5.94</v>
+      </c>
+      <c r="BF327">
+        <v>15</v>
+      </c>
+      <c r="BG327">
+        <v>11.36</v>
+      </c>
+      <c r="BH327">
+        <v>26</v>
+      </c>
+      <c r="BI327">
+        <v>1.56</v>
+      </c>
+      <c r="BJ327">
+        <v>1.5</v>
+      </c>
+      <c r="BK327">
+        <v>2.7</v>
+      </c>
+      <c r="BL327">
+        <v>2.5</v>
+      </c>
+      <c r="BM327">
+        <v>23</v>
+      </c>
+      <c r="BN327">
+        <v>-1.5</v>
+      </c>
+      <c r="BO327">
+        <v>1.85</v>
+      </c>
+      <c r="BP327">
+        <v>1.8</v>
+      </c>
+      <c r="BQ327">
+        <v>2.12</v>
+      </c>
+      <c r="BR327">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:70">
+      <c r="A328" t="s">
+        <v>70</v>
+      </c>
+      <c r="B328" t="s">
+        <v>145</v>
+      </c>
+      <c r="C328" t="s">
+        <v>87</v>
+      </c>
+      <c r="D328" t="s">
+        <v>96</v>
+      </c>
+      <c r="E328">
+        <v>2</v>
+      </c>
+      <c r="F328">
+        <v>2</v>
+      </c>
+      <c r="G328" t="s">
+        <v>74</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328" t="s">
+        <v>74</v>
+      </c>
+      <c r="K328">
+        <v>10</v>
+      </c>
+      <c r="L328">
+        <v>15</v>
+      </c>
+      <c r="M328">
+        <v>4</v>
+      </c>
+      <c r="N328">
+        <v>9</v>
+      </c>
+      <c r="O328">
+        <v>9</v>
+      </c>
+      <c r="P328">
+        <v>7</v>
+      </c>
+      <c r="Q328">
+        <v>2</v>
+      </c>
+      <c r="R328">
+        <v>5</v>
+      </c>
+      <c r="S328">
+        <v>1</v>
+      </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
+      <c r="U328">
+        <v>0</v>
+      </c>
+      <c r="V328">
+        <v>0</v>
+      </c>
+      <c r="W328">
+        <v>5.5</v>
+      </c>
+      <c r="X328">
+        <v>3.9</v>
+      </c>
+      <c r="Y328">
+        <v>1.7</v>
+      </c>
+      <c r="Z328">
+        <v>5</v>
+      </c>
+      <c r="AA328">
+        <v>3.75</v>
+      </c>
+      <c r="AB328">
+        <v>1.67</v>
+      </c>
+      <c r="AC328">
+        <v>5</v>
+      </c>
+      <c r="AD328">
+        <v>3.75</v>
+      </c>
+      <c r="AE328">
+        <v>1.67</v>
+      </c>
+      <c r="AF328">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG328">
+        <v>3.6</v>
+      </c>
+      <c r="AH328">
+        <v>1.65</v>
+      </c>
+      <c r="AI328">
+        <v>5.5</v>
+      </c>
+      <c r="AJ328">
+        <v>3.5</v>
+      </c>
+      <c r="AK328">
+        <v>1.66</v>
+      </c>
+      <c r="AL328">
+        <v>5.71</v>
+      </c>
+      <c r="AM328">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AN328">
+        <v>1.66</v>
+      </c>
+      <c r="AO328">
+        <v>5.5</v>
+      </c>
+      <c r="AP328">
+        <v>3.5</v>
+      </c>
+      <c r="AQ328">
+        <v>1.67</v>
+      </c>
+      <c r="AR328">
+        <v>5.5</v>
+      </c>
+      <c r="AS328">
+        <v>3.8</v>
+      </c>
+      <c r="AT328">
+        <v>1.67</v>
+      </c>
+      <c r="AU328">
+        <v>5.75</v>
+      </c>
+      <c r="AV328">
+        <v>3.8</v>
+      </c>
+      <c r="AW328">
+        <v>1.7</v>
+      </c>
+      <c r="AX328">
+        <v>5.5</v>
+      </c>
+      <c r="AY328">
+        <v>3.6</v>
+      </c>
+      <c r="AZ328">
+        <v>1.67</v>
+      </c>
+      <c r="BA328">
+        <v>39</v>
+      </c>
+      <c r="BB328">
+        <v>5.8</v>
+      </c>
+      <c r="BC328">
+        <v>5.38</v>
+      </c>
+      <c r="BD328">
+        <v>4.12</v>
+      </c>
+      <c r="BE328">
+        <v>3.72</v>
+      </c>
+      <c r="BF328">
+        <v>1.7</v>
+      </c>
+      <c r="BG328">
+        <v>1.66</v>
+      </c>
+      <c r="BH328">
+        <v>37</v>
+      </c>
+      <c r="BI328">
+        <v>1.84</v>
+      </c>
+      <c r="BJ328">
+        <v>1.77</v>
+      </c>
+      <c r="BK328">
+        <v>2.15</v>
+      </c>
+      <c r="BL328">
+        <v>2.04</v>
+      </c>
+      <c r="BM328">
+        <v>23</v>
+      </c>
+      <c r="BN328">
+        <v>1</v>
+      </c>
+      <c r="BO328">
+        <v>1.8</v>
+      </c>
+      <c r="BP328">
+        <v>1.74</v>
+      </c>
+      <c r="BQ328">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BR328">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:70">
+      <c r="A329" t="s">
+        <v>70</v>
+      </c>
+      <c r="B329" t="s">
+        <v>146</v>
+      </c>
+      <c r="C329" t="s">
+        <v>75</v>
+      </c>
+      <c r="D329" t="s">
+        <v>72</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329" t="s">
+        <v>82</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329" t="s">
+        <v>82</v>
+      </c>
+      <c r="K329">
+        <v>7</v>
+      </c>
+      <c r="L329">
+        <v>10</v>
+      </c>
+      <c r="M329">
+        <v>5</v>
+      </c>
+      <c r="N329">
+        <v>7</v>
+      </c>
+      <c r="O329">
+        <v>13</v>
+      </c>
+      <c r="P329">
+        <v>8</v>
+      </c>
+      <c r="Q329">
+        <v>7</v>
+      </c>
+      <c r="R329">
+        <v>3</v>
+      </c>
+      <c r="S329">
+        <v>0</v>
+      </c>
+      <c r="T329">
+        <v>2</v>
+      </c>
+      <c r="U329">
+        <v>1</v>
+      </c>
+      <c r="V329">
+        <v>1</v>
+      </c>
+      <c r="W329">
+        <v>5</v>
+      </c>
+      <c r="X329">
+        <v>4</v>
+      </c>
+      <c r="Y329">
+        <v>1.75</v>
+      </c>
+      <c r="Z329">
+        <v>4.75</v>
+      </c>
+      <c r="AA329">
+        <v>3.8</v>
+      </c>
+      <c r="AB329">
+        <v>1.7</v>
+      </c>
+      <c r="AC329">
+        <v>4.75</v>
+      </c>
+      <c r="AD329">
+        <v>3.8</v>
+      </c>
+      <c r="AE329">
+        <v>1.7</v>
+      </c>
+      <c r="AF329">
+        <v>4.2</v>
+      </c>
+      <c r="AG329">
+        <v>3.5</v>
+      </c>
+      <c r="AH329">
+        <v>1.8</v>
+      </c>
+      <c r="AI329">
+        <v>4.5</v>
+      </c>
+      <c r="AJ329">
+        <v>3.75</v>
+      </c>
+      <c r="AK329">
+        <v>1.75</v>
+      </c>
+      <c r="AL329">
+        <v>5.05</v>
+      </c>
+      <c r="AM329">
+        <v>3.91</v>
+      </c>
+      <c r="AN329">
+        <v>1.76</v>
+      </c>
+      <c r="AO329">
+        <v>4.5</v>
+      </c>
+      <c r="AP329">
+        <v>3.5</v>
+      </c>
+      <c r="AQ329">
+        <v>1.8</v>
+      </c>
+      <c r="AR329">
+        <v>5</v>
+      </c>
+      <c r="AS329">
+        <v>3.75</v>
+      </c>
+      <c r="AT329">
+        <v>1.73</v>
+      </c>
+      <c r="AU329">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV329">
+        <v>4</v>
+      </c>
+      <c r="AW329">
+        <v>1.8</v>
+      </c>
+      <c r="AX329">
+        <v>4.75</v>
+      </c>
+      <c r="AY329">
+        <v>3.75</v>
+      </c>
+      <c r="AZ329">
+        <v>1.7</v>
+      </c>
+      <c r="BA329">
+        <v>39</v>
+      </c>
+      <c r="BB329">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BC329">
+        <v>4.74</v>
+      </c>
+      <c r="BD329">
+        <v>4</v>
+      </c>
+      <c r="BE329">
+        <v>3.72</v>
+      </c>
+      <c r="BF329">
+        <v>1.8</v>
+      </c>
+      <c r="BG329">
+        <v>1.74</v>
+      </c>
+      <c r="BH329">
+        <v>35</v>
+      </c>
+      <c r="BI329">
+        <v>1.76</v>
+      </c>
+      <c r="BJ329">
+        <v>1.67</v>
+      </c>
+      <c r="BK329">
+        <v>2.31</v>
+      </c>
+      <c r="BL329">
+        <v>2.17</v>
+      </c>
+      <c r="BM329">
+        <v>24</v>
+      </c>
+      <c r="BN329">
+        <v>0.75</v>
+      </c>
+      <c r="BO329">
+        <v>1.98</v>
+      </c>
+      <c r="BP329">
+        <v>1.94</v>
+      </c>
+      <c r="BQ329">
+        <v>1.97</v>
+      </c>
+      <c r="BR329">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="330" spans="1:70">
+      <c r="A330" t="s">
+        <v>70</v>
+      </c>
+      <c r="B330" t="s">
+        <v>146</v>
+      </c>
+      <c r="C330" t="s">
+        <v>76</v>
+      </c>
+      <c r="D330" t="s">
+        <v>83</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330" t="s">
+        <v>77</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330" t="s">
+        <v>74</v>
+      </c>
+      <c r="K330">
+        <v>19</v>
+      </c>
+      <c r="L330">
+        <v>14</v>
+      </c>
+      <c r="M330">
+        <v>9</v>
+      </c>
+      <c r="N330">
+        <v>6</v>
+      </c>
+      <c r="O330">
+        <v>8</v>
+      </c>
+      <c r="P330">
+        <v>12</v>
+      </c>
+      <c r="Q330">
+        <v>8</v>
+      </c>
+      <c r="R330">
+        <v>8</v>
+      </c>
+      <c r="S330">
+        <v>2</v>
+      </c>
+      <c r="T330">
+        <v>3</v>
+      </c>
+      <c r="U330">
+        <v>0</v>
+      </c>
+      <c r="V330">
+        <v>0</v>
+      </c>
+      <c r="W330">
+        <v>1.75</v>
+      </c>
+      <c r="X330">
+        <v>3.8</v>
+      </c>
+      <c r="Y330">
+        <v>5.25</v>
+      </c>
+      <c r="Z330">
+        <v>1.67</v>
+      </c>
+      <c r="AA330">
+        <v>3.7</v>
+      </c>
+      <c r="AB330">
+        <v>5</v>
+      </c>
+      <c r="AC330">
+        <v>1.67</v>
+      </c>
+      <c r="AD330">
+        <v>3.7</v>
+      </c>
+      <c r="AE330">
+        <v>5</v>
+      </c>
+      <c r="AF330">
+        <v>1.7</v>
+      </c>
+      <c r="AG330">
+        <v>3.8</v>
+      </c>
+      <c r="AH330">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI330">
+        <v>1.75</v>
+      </c>
+      <c r="AJ330">
+        <v>3.75</v>
+      </c>
+      <c r="AK330">
+        <v>4.5</v>
+      </c>
+      <c r="AL330">
+        <v>1.74</v>
+      </c>
+      <c r="AM330">
+        <v>3.85</v>
+      </c>
+      <c r="AN330">
+        <v>5.43</v>
+      </c>
+      <c r="AO330">
+        <v>1.75</v>
+      </c>
+      <c r="AP330">
+        <v>3.4</v>
+      </c>
+      <c r="AQ330">
+        <v>5</v>
+      </c>
+      <c r="AR330">
+        <v>1.73</v>
+      </c>
+      <c r="AS330">
+        <v>3.8</v>
+      </c>
+      <c r="AT330">
+        <v>5</v>
+      </c>
+      <c r="AU330">
+        <v>1.75</v>
+      </c>
+      <c r="AV330">
+        <v>3.8</v>
+      </c>
+      <c r="AW330">
+        <v>5.2</v>
+      </c>
+      <c r="AX330">
+        <v>1.7</v>
+      </c>
+      <c r="AY330">
+        <v>3.6</v>
+      </c>
+      <c r="AZ330">
+        <v>5</v>
+      </c>
+      <c r="BA330">
+        <v>36</v>
+      </c>
+      <c r="BB330">
+        <v>1.76</v>
+      </c>
+      <c r="BC330">
+        <v>1.72</v>
+      </c>
+      <c r="BD330">
+        <v>3.95</v>
+      </c>
+      <c r="BE330">
+        <v>3.65</v>
+      </c>
+      <c r="BF330">
+        <v>5.43</v>
+      </c>
+      <c r="BG330">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="BH330">
+        <v>37</v>
+      </c>
+      <c r="BI330">
+        <v>1.91</v>
+      </c>
+      <c r="BJ330">
+        <v>1.84</v>
+      </c>
+      <c r="BK330">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BL330">
+        <v>1.96</v>
+      </c>
+      <c r="BM330">
+        <v>24</v>
+      </c>
+      <c r="BN330">
+        <v>-0.75</v>
+      </c>
+      <c r="BO330">
+        <v>1.94</v>
+      </c>
+      <c r="BP330">
+        <v>1.9</v>
+      </c>
+      <c r="BQ330">
+        <v>2.02</v>
+      </c>
+      <c r="BR330">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="331" spans="1:70">
+      <c r="A331" t="s">
+        <v>70</v>
+      </c>
+      <c r="B331" t="s">
+        <v>146</v>
+      </c>
+      <c r="C331" t="s">
+        <v>80</v>
+      </c>
+      <c r="D331" t="s">
+        <v>84</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>2</v>
+      </c>
+      <c r="G331" t="s">
+        <v>82</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331" t="s">
+        <v>82</v>
+      </c>
+      <c r="K331">
+        <v>25</v>
+      </c>
+      <c r="L331">
+        <v>11</v>
+      </c>
+      <c r="M331">
+        <v>11</v>
+      </c>
+      <c r="N331">
+        <v>4</v>
+      </c>
+      <c r="O331">
+        <v>8</v>
+      </c>
+      <c r="P331">
+        <v>14</v>
+      </c>
+      <c r="Q331">
+        <v>5</v>
+      </c>
+      <c r="R331">
+        <v>5</v>
+      </c>
+      <c r="S331">
+        <v>1</v>
+      </c>
+      <c r="T331">
+        <v>2</v>
+      </c>
+      <c r="U331">
+        <v>0</v>
+      </c>
+      <c r="V331">
+        <v>0</v>
+      </c>
+      <c r="W331">
+        <v>2.25</v>
+      </c>
+      <c r="X331">
+        <v>3.4</v>
+      </c>
+      <c r="Y331">
+        <v>3.5</v>
+      </c>
+      <c r="Z331">
+        <v>2.1</v>
+      </c>
+      <c r="AA331">
+        <v>3.4</v>
+      </c>
+      <c r="AB331">
+        <v>3.4</v>
+      </c>
+      <c r="AC331">
+        <v>2.1</v>
+      </c>
+      <c r="AD331">
+        <v>3.4</v>
+      </c>
+      <c r="AE331">
+        <v>3.4</v>
+      </c>
+      <c r="AF331">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG331">
+        <v>3.3</v>
+      </c>
+      <c r="AH331">
+        <v>3.1</v>
+      </c>
+      <c r="AI331">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ331">
+        <v>3.25</v>
+      </c>
+      <c r="AK331">
+        <v>3.3</v>
+      </c>
+      <c r="AL331">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AM331">
+        <v>3.34</v>
+      </c>
+      <c r="AN331">
+        <v>3.64</v>
+      </c>
+      <c r="AO331">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP331">
+        <v>3.2</v>
+      </c>
+      <c r="AQ331">
+        <v>3.2</v>
+      </c>
+      <c r="AR331">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS331">
+        <v>3.3</v>
+      </c>
+      <c r="AT331">
+        <v>3.5</v>
+      </c>
+      <c r="AU331">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AV331">
+        <v>3.2</v>
+      </c>
+      <c r="AW331">
+        <v>3.6</v>
+      </c>
+      <c r="AX331">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY331">
+        <v>3.2</v>
+      </c>
+      <c r="AZ331">
+        <v>3.4</v>
+      </c>
+      <c r="BA331">
+        <v>39</v>
+      </c>
+      <c r="BB331">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BC331">
+        <v>2.21</v>
+      </c>
+      <c r="BD331">
+        <v>3.4</v>
+      </c>
+      <c r="BE331">
+        <v>3.27</v>
+      </c>
+      <c r="BF331">
+        <v>3.64</v>
+      </c>
+      <c r="BG331">
+        <v>3.34</v>
+      </c>
+      <c r="BH331">
+        <v>37</v>
+      </c>
+      <c r="BI331">
+        <v>2.29</v>
+      </c>
+      <c r="BJ331">
+        <v>2.17</v>
+      </c>
+      <c r="BK331">
+        <v>1.76</v>
+      </c>
+      <c r="BL331">
+        <v>1.67</v>
+      </c>
+      <c r="BM331">
+        <v>24</v>
+      </c>
+      <c r="BN331">
+        <v>-0.25</v>
+      </c>
+      <c r="BO331">
+        <v>1.94</v>
+      </c>
+      <c r="BP331">
+        <v>1.9</v>
+      </c>
+      <c r="BQ331">
+        <v>2.04</v>
+      </c>
+      <c r="BR331">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="332" spans="1:70">
+      <c r="A332" t="s">
+        <v>70</v>
+      </c>
+      <c r="B332" t="s">
+        <v>146</v>
+      </c>
+      <c r="C332" t="s">
+        <v>73</v>
+      </c>
+      <c r="D332" t="s">
+        <v>95</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332" t="s">
+        <v>77</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332" t="s">
+        <v>77</v>
+      </c>
+      <c r="K332">
+        <v>8</v>
+      </c>
+      <c r="L332">
+        <v>8</v>
+      </c>
+      <c r="M332">
+        <v>4</v>
+      </c>
+      <c r="N332">
+        <v>5</v>
+      </c>
+      <c r="O332">
+        <v>6</v>
+      </c>
+      <c r="P332">
+        <v>15</v>
+      </c>
+      <c r="Q332">
+        <v>3</v>
+      </c>
+      <c r="R332">
+        <v>10</v>
+      </c>
+      <c r="S332">
+        <v>1</v>
+      </c>
+      <c r="T332">
+        <v>2</v>
+      </c>
+      <c r="U332">
+        <v>0</v>
+      </c>
+      <c r="V332">
+        <v>0</v>
+      </c>
+      <c r="W332">
+        <v>3.4</v>
+      </c>
+      <c r="X332">
+        <v>3.4</v>
+      </c>
+      <c r="Y332">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z332">
+        <v>3.4</v>
+      </c>
+      <c r="AA332">
+        <v>3.3</v>
+      </c>
+      <c r="AB332">
+        <v>2.15</v>
+      </c>
+      <c r="AC332">
+        <v>3.4</v>
+      </c>
+      <c r="AD332">
+        <v>3.3</v>
+      </c>
+      <c r="AE332">
+        <v>2.15</v>
+      </c>
+      <c r="AF332">
+        <v>3</v>
+      </c>
+      <c r="AG332">
+        <v>3.3</v>
+      </c>
+      <c r="AH332">
+        <v>2.25</v>
+      </c>
+      <c r="AI332">
+        <v>3.2</v>
+      </c>
+      <c r="AJ332">
+        <v>3.3</v>
+      </c>
+      <c r="AK332">
+        <v>2.25</v>
+      </c>
+      <c r="AL332">
+        <v>3.53</v>
+      </c>
+      <c r="AM332">
+        <v>3.37</v>
+      </c>
+      <c r="AN332">
+        <v>2.27</v>
+      </c>
+      <c r="AO332">
+        <v>3.2</v>
+      </c>
+      <c r="AP332">
+        <v>3.2</v>
+      </c>
+      <c r="AQ332">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR332">
+        <v>3.5</v>
+      </c>
+      <c r="AS332">
+        <v>3.3</v>
+      </c>
+      <c r="AT332">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU332">
+        <v>3.4</v>
+      </c>
+      <c r="AV332">
+        <v>3.4</v>
+      </c>
+      <c r="AW332">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX332">
+        <v>3.25</v>
+      </c>
+      <c r="AY332">
+        <v>3.2</v>
+      </c>
+      <c r="AZ332">
+        <v>2.25</v>
+      </c>
+      <c r="BA332">
+        <v>39</v>
+      </c>
+      <c r="BB332">
+        <v>3.55</v>
+      </c>
+      <c r="BC332">
+        <v>3.3</v>
+      </c>
+      <c r="BD332">
+        <v>3.4</v>
+      </c>
+      <c r="BE332">
+        <v>3.29</v>
+      </c>
+      <c r="BF332">
+        <v>2.31</v>
+      </c>
+      <c r="BG332">
+        <v>2.23</v>
+      </c>
+      <c r="BH332">
+        <v>37</v>
+      </c>
+      <c r="BI332">
+        <v>2.14</v>
+      </c>
+      <c r="BJ332">
+        <v>2.06</v>
+      </c>
+      <c r="BK332">
+        <v>1.86</v>
+      </c>
+      <c r="BL332">
+        <v>1.76</v>
+      </c>
+      <c r="BM332">
+        <v>24</v>
+      </c>
+      <c r="BN332">
+        <v>0.25</v>
+      </c>
+      <c r="BO332">
+        <v>2</v>
+      </c>
+      <c r="BP332">
+        <v>1.95</v>
+      </c>
+      <c r="BQ332">
+        <v>1.95</v>
+      </c>
+      <c r="BR332">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="333" spans="1:70">
+      <c r="A333" t="s">
+        <v>70</v>
+      </c>
+      <c r="B333" t="s">
+        <v>146</v>
+      </c>
+      <c r="C333" t="s">
+        <v>81</v>
+      </c>
+      <c r="D333" t="s">
+        <v>91</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333" t="s">
+        <v>74</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333" t="s">
+        <v>74</v>
+      </c>
+      <c r="K333">
+        <v>14</v>
+      </c>
+      <c r="L333">
+        <v>9</v>
+      </c>
+      <c r="M333">
+        <v>7</v>
+      </c>
+      <c r="N333">
+        <v>5</v>
+      </c>
+      <c r="O333">
+        <v>11</v>
+      </c>
+      <c r="P333">
+        <v>13</v>
+      </c>
+      <c r="Q333">
+        <v>7</v>
+      </c>
+      <c r="R333">
+        <v>2</v>
+      </c>
+      <c r="S333">
+        <v>0</v>
+      </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
+      <c r="V333">
+        <v>0</v>
+      </c>
+      <c r="W333">
+        <v>2.38</v>
+      </c>
+      <c r="X333">
+        <v>3.5</v>
+      </c>
+      <c r="Y333">
+        <v>3.1</v>
+      </c>
+      <c r="Z333">
+        <v>2.25</v>
+      </c>
+      <c r="AA333">
+        <v>3.3</v>
+      </c>
+      <c r="AB333">
+        <v>3.1</v>
+      </c>
+      <c r="AC333">
+        <v>2.25</v>
+      </c>
+      <c r="AD333">
+        <v>3.3</v>
+      </c>
+      <c r="AE333">
+        <v>3.1</v>
+      </c>
+      <c r="AF333">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG333">
+        <v>3.1</v>
+      </c>
+      <c r="AH333">
+        <v>3.1</v>
+      </c>
+      <c r="AI333">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ333">
+        <v>3.4</v>
+      </c>
+      <c r="AK333">
+        <v>3.1</v>
+      </c>
+      <c r="AL333">
+        <v>2.38</v>
+      </c>
+      <c r="AM333">
+        <v>3.45</v>
+      </c>
+      <c r="AN333">
+        <v>3.22</v>
+      </c>
+      <c r="AO333">
+        <v>2.4</v>
+      </c>
+      <c r="AP333">
+        <v>3.1</v>
+      </c>
+      <c r="AQ333">
+        <v>3.1</v>
+      </c>
+      <c r="AR333">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS333">
+        <v>3.5</v>
+      </c>
+      <c r="AT333">
+        <v>3.13</v>
+      </c>
+      <c r="AU333">
+        <v>2.4</v>
+      </c>
+      <c r="AV333">
+        <v>3.5</v>
+      </c>
+      <c r="AW333">
+        <v>3.1</v>
+      </c>
+      <c r="AX333">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AY333">
+        <v>3.4</v>
+      </c>
+      <c r="AZ333">
+        <v>3</v>
+      </c>
+      <c r="BA333">
+        <v>39</v>
+      </c>
+      <c r="BB333">
+        <v>2.4</v>
+      </c>
+      <c r="BC333">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BD333">
+        <v>3.55</v>
+      </c>
+      <c r="BE333">
+        <v>3.36</v>
+      </c>
+      <c r="BF333">
+        <v>3.22</v>
+      </c>
+      <c r="BG333">
+        <v>3.04</v>
+      </c>
+      <c r="BH333">
+        <v>37</v>
+      </c>
+      <c r="BI333">
+        <v>1.84</v>
+      </c>
+      <c r="BJ333">
+        <v>1.75</v>
+      </c>
+      <c r="BK333">
+        <v>2.16</v>
+      </c>
+      <c r="BL333">
+        <v>2.06</v>
+      </c>
+      <c r="BM333">
+        <v>24</v>
+      </c>
+      <c r="BN333">
+        <v>-0.25</v>
+      </c>
+      <c r="BO333">
+        <v>2.06</v>
+      </c>
+      <c r="BP333">
+        <v>2.02</v>
+      </c>
+      <c r="BQ333">
+        <v>1.88</v>
+      </c>
+      <c r="BR333">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="334" spans="1:70">
+      <c r="A334" t="s">
+        <v>70</v>
+      </c>
+      <c r="B334" t="s">
+        <v>146</v>
+      </c>
+      <c r="C334" t="s">
+        <v>85</v>
+      </c>
+      <c r="D334" t="s">
+        <v>78</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334" t="s">
+        <v>74</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334" t="s">
+        <v>82</v>
+      </c>
+      <c r="K334">
+        <v>8</v>
+      </c>
+      <c r="L334">
+        <v>10</v>
+      </c>
+      <c r="M334">
+        <v>4</v>
+      </c>
+      <c r="N334">
+        <v>6</v>
+      </c>
+      <c r="O334">
+        <v>9</v>
+      </c>
+      <c r="P334">
+        <v>10</v>
+      </c>
+      <c r="Q334">
+        <v>15</v>
+      </c>
+      <c r="R334">
+        <v>2</v>
+      </c>
+      <c r="S334">
+        <v>0</v>
+      </c>
+      <c r="T334">
+        <v>2</v>
+      </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
+      <c r="V334">
+        <v>0</v>
+      </c>
+      <c r="W334">
+        <v>2.25</v>
+      </c>
+      <c r="X334">
+        <v>3.5</v>
+      </c>
+      <c r="Y334">
+        <v>3.4</v>
+      </c>
+      <c r="Z334">
+        <v>2.25</v>
+      </c>
+      <c r="AA334">
+        <v>3.2</v>
+      </c>
+      <c r="AB334">
+        <v>3.25</v>
+      </c>
+      <c r="AC334">
+        <v>2.25</v>
+      </c>
+      <c r="AD334">
+        <v>3.2</v>
+      </c>
+      <c r="AE334">
+        <v>3.25</v>
+      </c>
+      <c r="AF334">
+        <v>2.25</v>
+      </c>
+      <c r="AG334">
+        <v>3.3</v>
+      </c>
+      <c r="AH334">
+        <v>3</v>
+      </c>
+      <c r="AI334">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ334">
+        <v>3.4</v>
+      </c>
+      <c r="AK334">
+        <v>3.2</v>
+      </c>
+      <c r="AL334">
+        <v>2.25</v>
+      </c>
+      <c r="AM334">
+        <v>3.55</v>
+      </c>
+      <c r="AN334">
+        <v>3.41</v>
+      </c>
+      <c r="AO334">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP334">
+        <v>3.2</v>
+      </c>
+      <c r="AQ334">
+        <v>3.2</v>
+      </c>
+      <c r="AR334">
+        <v>2.1</v>
+      </c>
+      <c r="AS334">
+        <v>3.5</v>
+      </c>
+      <c r="AT334">
+        <v>3.4</v>
+      </c>
+      <c r="AU334">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AV334">
+        <v>3.5</v>
+      </c>
+      <c r="AW334">
+        <v>3.25</v>
+      </c>
+      <c r="AX334">
+        <v>2.25</v>
+      </c>
+      <c r="AY334">
+        <v>3.4</v>
+      </c>
+      <c r="AZ334">
+        <v>3.1</v>
+      </c>
+      <c r="BA334">
+        <v>39</v>
+      </c>
+      <c r="BB334">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BC334">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BD334">
+        <v>3.55</v>
+      </c>
+      <c r="BE334">
+        <v>3.35</v>
+      </c>
+      <c r="BF334">
+        <v>3.5</v>
+      </c>
+      <c r="BG334">
+        <v>3.25</v>
+      </c>
+      <c r="BH334">
+        <v>37</v>
+      </c>
+      <c r="BI334">
+        <v>1.84</v>
+      </c>
+      <c r="BJ334">
+        <v>1.77</v>
+      </c>
+      <c r="BK334">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BL334">
+        <v>2.04</v>
+      </c>
+      <c r="BM334">
+        <v>24</v>
+      </c>
+      <c r="BN334">
+        <v>-0.25</v>
+      </c>
+      <c r="BO334">
+        <v>1.95</v>
+      </c>
+      <c r="BP334">
+        <v>1.91</v>
+      </c>
+      <c r="BQ334">
+        <v>2.02</v>
+      </c>
+      <c r="BR334">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="335" spans="1:70">
+      <c r="A335" t="s">
+        <v>70</v>
+      </c>
+      <c r="B335" t="s">
+        <v>146</v>
+      </c>
+      <c r="C335" t="s">
+        <v>87</v>
+      </c>
+      <c r="D335" t="s">
+        <v>92</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335" t="s">
+        <v>77</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335" t="s">
+        <v>77</v>
+      </c>
+      <c r="K335">
+        <v>17</v>
+      </c>
+      <c r="L335">
+        <v>18</v>
+      </c>
+      <c r="M335">
+        <v>11</v>
+      </c>
+      <c r="N335">
+        <v>10</v>
+      </c>
+      <c r="O335">
+        <v>12</v>
+      </c>
+      <c r="P335">
+        <v>11</v>
+      </c>
+      <c r="Q335">
+        <v>3</v>
+      </c>
+      <c r="R335">
+        <v>6</v>
+      </c>
+      <c r="S335">
+        <v>3</v>
+      </c>
+      <c r="T335">
+        <v>1</v>
+      </c>
+      <c r="U335">
+        <v>0</v>
+      </c>
+      <c r="V335">
+        <v>0</v>
+      </c>
+      <c r="W335">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X335">
+        <v>3.5</v>
+      </c>
+      <c r="Y335">
+        <v>3.3</v>
+      </c>
+      <c r="Z335">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA335">
+        <v>3.25</v>
+      </c>
+      <c r="AB335">
+        <v>3.1</v>
+      </c>
+      <c r="AC335">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD335">
+        <v>3.25</v>
+      </c>
+      <c r="AE335">
+        <v>3.1</v>
+      </c>
+      <c r="AF335">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG335">
+        <v>3.2</v>
+      </c>
+      <c r="AH335">
+        <v>3.2</v>
+      </c>
+      <c r="AI335">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ335">
+        <v>3.4</v>
+      </c>
+      <c r="AK335">
+        <v>3.2</v>
+      </c>
+      <c r="AL335">
+        <v>2.29</v>
+      </c>
+      <c r="AM335">
+        <v>3.51</v>
+      </c>
+      <c r="AN335">
+        <v>3.35</v>
+      </c>
+      <c r="AO335">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP335">
+        <v>3.2</v>
+      </c>
+      <c r="AQ335">
+        <v>3.2</v>
+      </c>
+      <c r="AR335">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS335">
+        <v>3.5</v>
+      </c>
+      <c r="AT335">
+        <v>3.3</v>
+      </c>
+      <c r="AU335">
+        <v>2.38</v>
+      </c>
+      <c r="AV335">
+        <v>3.5</v>
+      </c>
+      <c r="AW335">
+        <v>3.12</v>
+      </c>
+      <c r="AX335">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY335">
+        <v>3.2</v>
+      </c>
+      <c r="AZ335">
+        <v>3.4</v>
+      </c>
+      <c r="BA335">
+        <v>39</v>
+      </c>
+      <c r="BB335">
+        <v>2.33</v>
+      </c>
+      <c r="BC335">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="BD335">
+        <v>3.55</v>
+      </c>
+      <c r="BE335">
+        <v>3.35</v>
+      </c>
+      <c r="BF335">
+        <v>3.35</v>
+      </c>
+      <c r="BG335">
+        <v>3.2</v>
+      </c>
+      <c r="BH335">
+        <v>37</v>
+      </c>
+      <c r="BI335">
+        <v>1.96</v>
+      </c>
+      <c r="BJ335">
+        <v>1.86</v>
+      </c>
+      <c r="BK335">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BL335">
+        <v>1.94</v>
+      </c>
+      <c r="BM335">
+        <v>24</v>
+      </c>
+      <c r="BN335">
+        <v>-0.25</v>
+      </c>
+      <c r="BO335">
+        <v>1.98</v>
+      </c>
+      <c r="BP335">
+        <v>1.92</v>
+      </c>
+      <c r="BQ335">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BR335">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="336" spans="1:70">
+      <c r="A336" t="s">
+        <v>70</v>
+      </c>
+      <c r="B336" t="s">
+        <v>147</v>
+      </c>
+      <c r="C336" t="s">
+        <v>86</v>
+      </c>
+      <c r="D336" t="s">
+        <v>93</v>
+      </c>
+      <c r="E336">
+        <v>2</v>
+      </c>
+      <c r="F336">
+        <v>2</v>
+      </c>
+      <c r="G336" t="s">
+        <v>74</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="s">
+        <v>82</v>
+      </c>
+      <c r="K336">
+        <v>23</v>
+      </c>
+      <c r="L336">
+        <v>9</v>
+      </c>
+      <c r="M336">
+        <v>12</v>
+      </c>
+      <c r="N336">
+        <v>6</v>
+      </c>
+      <c r="O336">
+        <v>8</v>
+      </c>
+      <c r="P336">
+        <v>11</v>
+      </c>
+      <c r="Q336">
+        <v>8</v>
+      </c>
+      <c r="R336">
+        <v>5</v>
+      </c>
+      <c r="S336">
+        <v>5</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
+        <v>0</v>
+      </c>
+      <c r="V336">
+        <v>0</v>
+      </c>
+      <c r="W336">
+        <v>2.15</v>
+      </c>
+      <c r="X336">
+        <v>3.6</v>
+      </c>
+      <c r="Y336">
+        <v>3.6</v>
+      </c>
+      <c r="Z336">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA336">
+        <v>3.5</v>
+      </c>
+      <c r="AB336">
+        <v>3.4</v>
+      </c>
+      <c r="AC336">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AD336">
+        <v>3.5</v>
+      </c>
+      <c r="AE336">
+        <v>3.4</v>
+      </c>
+      <c r="AF336">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG336">
+        <v>3.3</v>
+      </c>
+      <c r="AH336">
+        <v>3.1</v>
+      </c>
+      <c r="AI336">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ336">
+        <v>3.3</v>
+      </c>
+      <c r="AK336">
+        <v>3.25</v>
+      </c>
+      <c r="AL336">
+        <v>2.14</v>
+      </c>
+      <c r="AM336">
+        <v>3.55</v>
+      </c>
+      <c r="AN336">
+        <v>3.68</v>
+      </c>
+      <c r="AO336">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP336">
+        <v>3.3</v>
+      </c>
+      <c r="AQ336">
+        <v>3.25</v>
+      </c>
+      <c r="AR336">
+        <v>2.1</v>
+      </c>
+      <c r="AS336">
+        <v>3.5</v>
+      </c>
+      <c r="AT336">
+        <v>3.5</v>
+      </c>
+      <c r="AU336">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV336">
+        <v>3.6</v>
+      </c>
+      <c r="AW336">
+        <v>3.4</v>
+      </c>
+      <c r="AX336">
+        <v>2.1</v>
+      </c>
+      <c r="AY336">
+        <v>3.4</v>
+      </c>
+      <c r="AZ336">
+        <v>3.4</v>
+      </c>
+      <c r="BA336">
+        <v>39</v>
+      </c>
+      <c r="BB336">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC336">
+        <v>2.11</v>
+      </c>
+      <c r="BD336">
+        <v>3.61</v>
+      </c>
+      <c r="BE336">
+        <v>3.41</v>
+      </c>
+      <c r="BF336">
+        <v>3.77</v>
+      </c>
+      <c r="BG336">
+        <v>3.46</v>
+      </c>
+      <c r="BH336">
+        <v>37</v>
+      </c>
+      <c r="BI336">
+        <v>1.8</v>
+      </c>
+      <c r="BJ336">
+        <v>1.73</v>
+      </c>
+      <c r="BK336">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="BL336">
+        <v>2.09</v>
+      </c>
+      <c r="BM336">
+        <v>24</v>
+      </c>
+      <c r="BN336">
+        <v>-0.25</v>
+      </c>
+      <c r="BO336">
+        <v>1.86</v>
+      </c>
+      <c r="BP336">
+        <v>1.81</v>
+      </c>
+      <c r="BQ336">
+        <v>2.15</v>
+      </c>
+      <c r="BR336">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:70">
+      <c r="A337" t="s">
+        <v>70</v>
+      </c>
+      <c r="B337" t="s">
+        <v>147</v>
+      </c>
+      <c r="C337" t="s">
+        <v>79</v>
+      </c>
+      <c r="D337" t="s">
+        <v>90</v>
+      </c>
+      <c r="E337">
+        <v>3</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337" t="s">
+        <v>77</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337" t="s">
+        <v>82</v>
+      </c>
+      <c r="K337">
+        <v>11</v>
+      </c>
+      <c r="L337">
+        <v>11</v>
+      </c>
+      <c r="M337">
+        <v>8</v>
+      </c>
+      <c r="N337">
+        <v>7</v>
+      </c>
+      <c r="O337">
+        <v>11</v>
+      </c>
+      <c r="P337">
+        <v>10</v>
+      </c>
+      <c r="Q337">
+        <v>4</v>
+      </c>
+      <c r="R337">
+        <v>5</v>
+      </c>
+      <c r="S337">
+        <v>3</v>
+      </c>
+      <c r="T337">
+        <v>3</v>
+      </c>
+      <c r="U337">
+        <v>0</v>
+      </c>
+      <c r="V337">
+        <v>0</v>
+      </c>
+      <c r="W337">
+        <v>3.25</v>
+      </c>
+      <c r="X337">
+        <v>3.6</v>
+      </c>
+      <c r="Y337">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z337">
+        <v>3.2</v>
+      </c>
+      <c r="AA337">
+        <v>3.25</v>
+      </c>
+      <c r="AB337">
+        <v>2.25</v>
+      </c>
+      <c r="AC337">
+        <v>3.2</v>
+      </c>
+      <c r="AD337">
+        <v>3.25</v>
+      </c>
+      <c r="AE337">
+        <v>2.25</v>
+      </c>
+      <c r="AF337">
+        <v>2.9</v>
+      </c>
+      <c r="AG337">
+        <v>3.3</v>
+      </c>
+      <c r="AH337">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI337">
+        <v>3</v>
+      </c>
+      <c r="AJ337">
+        <v>3.4</v>
+      </c>
+      <c r="AK337">
+        <v>2.29</v>
+      </c>
+      <c r="AL337">
+        <v>3.28</v>
+      </c>
+      <c r="AM337">
+        <v>3.54</v>
+      </c>
+      <c r="AN337">
+        <v>2.31</v>
+      </c>
+      <c r="AO337">
+        <v>3.2</v>
+      </c>
+      <c r="AP337">
+        <v>3.2</v>
+      </c>
+      <c r="AQ337">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR337">
+        <v>3.13</v>
+      </c>
+      <c r="AS337">
+        <v>3.5</v>
+      </c>
+      <c r="AT337">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU337">
+        <v>3.25</v>
+      </c>
+      <c r="AV337">
+        <v>3.6</v>
+      </c>
+      <c r="AW337">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX337">
+        <v>3</v>
+      </c>
+      <c r="AY337">
+        <v>3.4</v>
+      </c>
+      <c r="AZ337">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BA337">
+        <v>39</v>
+      </c>
+      <c r="BB337">
+        <v>3.28</v>
+      </c>
+      <c r="BC337">
+        <v>3.14</v>
+      </c>
+      <c r="BD337">
+        <v>3.6</v>
+      </c>
+      <c r="BE337">
+        <v>3.36</v>
+      </c>
+      <c r="BF337">
+        <v>2.35</v>
+      </c>
+      <c r="BG337">
+        <v>2.27</v>
+      </c>
+      <c r="BH337">
+        <v>37</v>
+      </c>
+      <c r="BI337">
+        <v>1.97</v>
+      </c>
+      <c r="BJ337">
+        <v>1.87</v>
+      </c>
+      <c r="BK337">
+        <v>2.04</v>
+      </c>
+      <c r="BL337">
+        <v>1.92</v>
+      </c>
+      <c r="BM337">
+        <v>24</v>
+      </c>
+      <c r="BN337">
+        <v>0.25</v>
+      </c>
+      <c r="BO337">
+        <v>1.95</v>
+      </c>
+      <c r="BP337">
+        <v>1.9</v>
+      </c>
+      <c r="BQ337">
+        <v>2</v>
+      </c>
+      <c r="BR337">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="338" spans="1:70">
+      <c r="A338" t="s">
+        <v>70</v>
+      </c>
+      <c r="B338" t="s">
+        <v>148</v>
+      </c>
+      <c r="C338" t="s">
+        <v>96</v>
+      </c>
+      <c r="D338" t="s">
+        <v>88</v>
+      </c>
+      <c r="E338">
+        <v>3</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338" t="s">
+        <v>77</v>
+      </c>
+      <c r="H338">
+        <v>3</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338" t="s">
+        <v>77</v>
+      </c>
+      <c r="K338">
+        <v>10</v>
+      </c>
+      <c r="L338">
+        <v>8</v>
+      </c>
+      <c r="M338">
+        <v>5</v>
+      </c>
+      <c r="N338">
+        <v>5</v>
+      </c>
+      <c r="O338">
+        <v>10</v>
+      </c>
+      <c r="P338">
+        <v>6</v>
+      </c>
+      <c r="Q338">
+        <v>5</v>
+      </c>
+      <c r="R338">
+        <v>3</v>
+      </c>
+      <c r="S338">
+        <v>1</v>
+      </c>
+      <c r="T338">
+        <v>0</v>
+      </c>
+      <c r="U338">
+        <v>0</v>
+      </c>
+      <c r="V338">
+        <v>0</v>
+      </c>
+      <c r="W338">
+        <v>1.25</v>
+      </c>
+      <c r="X338">
+        <v>6.75</v>
+      </c>
+      <c r="Y338">
+        <v>13</v>
+      </c>
+      <c r="Z338">
+        <v>1.22</v>
+      </c>
+      <c r="AA338">
+        <v>6.75</v>
+      </c>
+      <c r="AB338">
+        <v>10.5</v>
+      </c>
+      <c r="AC338">
+        <v>1.22</v>
+      </c>
+      <c r="AD338">
+        <v>6.75</v>
+      </c>
+      <c r="AE338">
+        <v>10.5</v>
+      </c>
+      <c r="AF338">
+        <v>1.25</v>
+      </c>
+      <c r="AG338">
+        <v>5.5</v>
+      </c>
+      <c r="AH338">
+        <v>10.3</v>
+      </c>
+      <c r="AI338">
+        <v>1.25</v>
+      </c>
+      <c r="AJ338">
+        <v>6</v>
+      </c>
+      <c r="AK338">
+        <v>10.5</v>
+      </c>
+      <c r="AL338">
+        <v>1.27</v>
+      </c>
+      <c r="AM338">
+        <v>6.38</v>
+      </c>
+      <c r="AN338">
+        <v>12.88</v>
+      </c>
+      <c r="AO338">
+        <v>1.29</v>
+      </c>
+      <c r="AP338">
+        <v>5.5</v>
+      </c>
+      <c r="AQ338">
+        <v>9.5</v>
+      </c>
+      <c r="AR338">
+        <v>1.25</v>
+      </c>
+      <c r="AS338">
+        <v>6.25</v>
+      </c>
+      <c r="AT338">
+        <v>12</v>
+      </c>
+      <c r="AU338">
+        <v>1.25</v>
+      </c>
+      <c r="AV338">
+        <v>6.5</v>
+      </c>
+      <c r="AW338">
+        <v>13</v>
+      </c>
+      <c r="AX338">
+        <v>1.22</v>
+      </c>
+      <c r="AY338">
+        <v>6.5</v>
+      </c>
+      <c r="AZ338">
+        <v>11</v>
+      </c>
+      <c r="BA338">
+        <v>39</v>
+      </c>
+      <c r="BB338">
+        <v>1.29</v>
+      </c>
+      <c r="BC338">
+        <v>1.25</v>
+      </c>
+      <c r="BD338">
+        <v>6.75</v>
+      </c>
+      <c r="BE338">
+        <v>6.05</v>
+      </c>
+      <c r="BF338">
+        <v>13</v>
+      </c>
+      <c r="BG338">
+        <v>10.88</v>
+      </c>
+      <c r="BH338">
+        <v>27</v>
+      </c>
+      <c r="BI338">
+        <v>1.47</v>
+      </c>
+      <c r="BJ338">
+        <v>1.39</v>
+      </c>
+      <c r="BK338">
+        <v>3.05</v>
+      </c>
+      <c r="BL338">
+        <v>2.84</v>
+      </c>
+      <c r="BM338">
+        <v>24</v>
+      </c>
+      <c r="BN338">
+        <v>-1.5</v>
+      </c>
+      <c r="BO338">
+        <v>1.81</v>
+      </c>
+      <c r="BP338">
+        <v>1.76</v>
+      </c>
+      <c r="BQ338">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR338">
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>

--- a/DatosIng1/EP1213.xlsx
+++ b/DatosIng1/EP1213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="18675" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="E0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="152">
   <si>
     <t>Div</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>22/04/13</t>
+  </si>
+  <si>
+    <t>27/04/13</t>
+  </si>
+  <si>
+    <t>28/04/13</t>
+  </si>
+  <si>
+    <t>29/04/13</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR338"/>
+  <dimension ref="A1:BR348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="G338" sqref="G338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72929,6 +72938,2126 @@
         <v>2.12</v>
       </c>
     </row>
+    <row r="339" spans="1:70">
+      <c r="A339" t="s">
+        <v>70</v>
+      </c>
+      <c r="B339" t="s">
+        <v>149</v>
+      </c>
+      <c r="C339" t="s">
+        <v>95</v>
+      </c>
+      <c r="D339" t="s">
+        <v>75</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339" t="s">
+        <v>77</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339" t="s">
+        <v>77</v>
+      </c>
+      <c r="K339">
+        <v>17</v>
+      </c>
+      <c r="L339">
+        <v>6</v>
+      </c>
+      <c r="M339">
+        <v>10</v>
+      </c>
+      <c r="N339">
+        <v>2</v>
+      </c>
+      <c r="O339">
+        <v>12</v>
+      </c>
+      <c r="P339">
+        <v>16</v>
+      </c>
+      <c r="Q339">
+        <v>7</v>
+      </c>
+      <c r="R339">
+        <v>2</v>
+      </c>
+      <c r="S339">
+        <v>1</v>
+      </c>
+      <c r="T339">
+        <v>3</v>
+      </c>
+      <c r="U339">
+        <v>0</v>
+      </c>
+      <c r="V339">
+        <v>0</v>
+      </c>
+      <c r="W339">
+        <v>1.5</v>
+      </c>
+      <c r="X339">
+        <v>4.5</v>
+      </c>
+      <c r="Y339">
+        <v>7.5</v>
+      </c>
+      <c r="Z339">
+        <v>1.45</v>
+      </c>
+      <c r="AA339">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB339">
+        <v>7.5</v>
+      </c>
+      <c r="AC339">
+        <v>1.45</v>
+      </c>
+      <c r="AD339">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE339">
+        <v>7.5</v>
+      </c>
+      <c r="AF339">
+        <v>1.55</v>
+      </c>
+      <c r="AG339">
+        <v>3.9</v>
+      </c>
+      <c r="AH339">
+        <v>5.6</v>
+      </c>
+      <c r="AI339">
+        <v>1.5</v>
+      </c>
+      <c r="AJ339">
+        <v>4</v>
+      </c>
+      <c r="AK339">
+        <v>7</v>
+      </c>
+      <c r="AL339">
+        <v>1.49</v>
+      </c>
+      <c r="AM339">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AN339">
+        <v>7.59</v>
+      </c>
+      <c r="AO339">
+        <v>1.53</v>
+      </c>
+      <c r="AP339">
+        <v>3.75</v>
+      </c>
+      <c r="AQ339">
+        <v>7</v>
+      </c>
+      <c r="AR339">
+        <v>1.5</v>
+      </c>
+      <c r="AS339">
+        <v>4.33</v>
+      </c>
+      <c r="AT339">
+        <v>7</v>
+      </c>
+      <c r="AU339">
+        <v>1.5</v>
+      </c>
+      <c r="AV339">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AW339">
+        <v>7</v>
+      </c>
+      <c r="AX339">
+        <v>1.5</v>
+      </c>
+      <c r="AY339">
+        <v>4.33</v>
+      </c>
+      <c r="AZ339">
+        <v>6</v>
+      </c>
+      <c r="BA339">
+        <v>41</v>
+      </c>
+      <c r="BB339">
+        <v>1.55</v>
+      </c>
+      <c r="BC339">
+        <v>1.48</v>
+      </c>
+      <c r="BD339">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="BE339">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="BF339">
+        <v>8.1</v>
+      </c>
+      <c r="BG339">
+        <v>7.12</v>
+      </c>
+      <c r="BH339">
+        <v>38</v>
+      </c>
+      <c r="BI339">
+        <v>1.8</v>
+      </c>
+      <c r="BJ339">
+        <v>1.72</v>
+      </c>
+      <c r="BK339">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL339">
+        <v>2.11</v>
+      </c>
+      <c r="BM339">
+        <v>28</v>
+      </c>
+      <c r="BN339">
+        <v>-1</v>
+      </c>
+      <c r="BO339">
+        <v>1.8</v>
+      </c>
+      <c r="BP339">
+        <v>1.74</v>
+      </c>
+      <c r="BQ339">
+        <v>2.25</v>
+      </c>
+      <c r="BR339">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:70">
+      <c r="A340" t="s">
+        <v>70</v>
+      </c>
+      <c r="B340" t="s">
+        <v>149</v>
+      </c>
+      <c r="C340" t="s">
+        <v>90</v>
+      </c>
+      <c r="D340" t="s">
+        <v>87</v>
+      </c>
+      <c r="E340">
+        <v>2</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340" t="s">
+        <v>77</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340" t="s">
+        <v>77</v>
+      </c>
+      <c r="K340">
+        <v>16</v>
+      </c>
+      <c r="L340">
+        <v>9</v>
+      </c>
+      <c r="M340">
+        <v>10</v>
+      </c>
+      <c r="N340">
+        <v>6</v>
+      </c>
+      <c r="O340">
+        <v>9</v>
+      </c>
+      <c r="P340">
+        <v>7</v>
+      </c>
+      <c r="Q340">
+        <v>9</v>
+      </c>
+      <c r="R340">
+        <v>4</v>
+      </c>
+      <c r="S340">
+        <v>1</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>0</v>
+      </c>
+      <c r="V340">
+        <v>0</v>
+      </c>
+      <c r="W340">
+        <v>1.29</v>
+      </c>
+      <c r="X340">
+        <v>6</v>
+      </c>
+      <c r="Y340">
+        <v>12</v>
+      </c>
+      <c r="Z340">
+        <v>1.25</v>
+      </c>
+      <c r="AA340">
+        <v>5.5</v>
+      </c>
+      <c r="AB340">
+        <v>12</v>
+      </c>
+      <c r="AC340">
+        <v>1.25</v>
+      </c>
+      <c r="AD340">
+        <v>5.5</v>
+      </c>
+      <c r="AE340">
+        <v>12</v>
+      </c>
+      <c r="AF340">
+        <v>1.27</v>
+      </c>
+      <c r="AG340">
+        <v>5.2</v>
+      </c>
+      <c r="AH340">
+        <v>10</v>
+      </c>
+      <c r="AI340">
+        <v>1.25</v>
+      </c>
+      <c r="AJ340">
+        <v>5.5</v>
+      </c>
+      <c r="AK340">
+        <v>12</v>
+      </c>
+      <c r="AL340">
+        <v>1.28</v>
+      </c>
+      <c r="AM340">
+        <v>6.16</v>
+      </c>
+      <c r="AN340">
+        <v>13.05</v>
+      </c>
+      <c r="AO340">
+        <v>1.29</v>
+      </c>
+      <c r="AP340">
+        <v>5</v>
+      </c>
+      <c r="AQ340">
+        <v>12</v>
+      </c>
+      <c r="AR340">
+        <v>1.25</v>
+      </c>
+      <c r="AS340">
+        <v>6</v>
+      </c>
+      <c r="AT340">
+        <v>12</v>
+      </c>
+      <c r="AU340">
+        <v>1.29</v>
+      </c>
+      <c r="AV340">
+        <v>6.25</v>
+      </c>
+      <c r="AW340">
+        <v>11.5</v>
+      </c>
+      <c r="AX340">
+        <v>1.25</v>
+      </c>
+      <c r="AY340">
+        <v>6</v>
+      </c>
+      <c r="AZ340">
+        <v>10</v>
+      </c>
+      <c r="BA340">
+        <v>41</v>
+      </c>
+      <c r="BB340">
+        <v>1.29</v>
+      </c>
+      <c r="BC340">
+        <v>1.26</v>
+      </c>
+      <c r="BD340">
+        <v>6.4</v>
+      </c>
+      <c r="BE340">
+        <v>5.75</v>
+      </c>
+      <c r="BF340">
+        <v>14</v>
+      </c>
+      <c r="BG340">
+        <v>11.15</v>
+      </c>
+      <c r="BH340">
+        <v>29</v>
+      </c>
+      <c r="BI340">
+        <v>1.57</v>
+      </c>
+      <c r="BJ340">
+        <v>1.51</v>
+      </c>
+      <c r="BK340">
+        <v>2.68</v>
+      </c>
+      <c r="BL340">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="BM340">
+        <v>27</v>
+      </c>
+      <c r="BN340">
+        <v>-1.5</v>
+      </c>
+      <c r="BO340">
+        <v>1.85</v>
+      </c>
+      <c r="BP340">
+        <v>1.8</v>
+      </c>
+      <c r="BQ340">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BR340">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:70">
+      <c r="A341" t="s">
+        <v>70</v>
+      </c>
+      <c r="B341" t="s">
+        <v>149</v>
+      </c>
+      <c r="C341" t="s">
+        <v>78</v>
+      </c>
+      <c r="D341" t="s">
+        <v>86</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>6</v>
+      </c>
+      <c r="G341" t="s">
+        <v>82</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>2</v>
+      </c>
+      <c r="J341" t="s">
+        <v>82</v>
+      </c>
+      <c r="K341">
+        <v>5</v>
+      </c>
+      <c r="L341">
+        <v>11</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+      <c r="N341">
+        <v>10</v>
+      </c>
+      <c r="O341">
+        <v>14</v>
+      </c>
+      <c r="P341">
+        <v>7</v>
+      </c>
+      <c r="Q341">
+        <v>5</v>
+      </c>
+      <c r="R341">
+        <v>7</v>
+      </c>
+      <c r="S341">
+        <v>3</v>
+      </c>
+      <c r="T341">
+        <v>2</v>
+      </c>
+      <c r="U341">
+        <v>1</v>
+      </c>
+      <c r="V341">
+        <v>0</v>
+      </c>
+      <c r="W341">
+        <v>2.88</v>
+      </c>
+      <c r="X341">
+        <v>3.6</v>
+      </c>
+      <c r="Y341">
+        <v>2.5</v>
+      </c>
+      <c r="Z341">
+        <v>2.95</v>
+      </c>
+      <c r="AA341">
+        <v>3.25</v>
+      </c>
+      <c r="AB341">
+        <v>2.4</v>
+      </c>
+      <c r="AC341">
+        <v>2.95</v>
+      </c>
+      <c r="AD341">
+        <v>3.25</v>
+      </c>
+      <c r="AE341">
+        <v>2.4</v>
+      </c>
+      <c r="AF341">
+        <v>2.75</v>
+      </c>
+      <c r="AG341">
+        <v>3.3</v>
+      </c>
+      <c r="AH341">
+        <v>2.4</v>
+      </c>
+      <c r="AI341">
+        <v>2.8</v>
+      </c>
+      <c r="AJ341">
+        <v>3.4</v>
+      </c>
+      <c r="AK341">
+        <v>2.4</v>
+      </c>
+      <c r="AL341">
+        <v>3.09</v>
+      </c>
+      <c r="AM341">
+        <v>3.46</v>
+      </c>
+      <c r="AN341">
+        <v>2.46</v>
+      </c>
+      <c r="AO341">
+        <v>3</v>
+      </c>
+      <c r="AP341">
+        <v>3</v>
+      </c>
+      <c r="AQ341">
+        <v>2.5</v>
+      </c>
+      <c r="AR341">
+        <v>3</v>
+      </c>
+      <c r="AS341">
+        <v>3.6</v>
+      </c>
+      <c r="AT341">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU341">
+        <v>2.9</v>
+      </c>
+      <c r="AV341">
+        <v>3.6</v>
+      </c>
+      <c r="AW341">
+        <v>2.5</v>
+      </c>
+      <c r="AX341">
+        <v>2.88</v>
+      </c>
+      <c r="AY341">
+        <v>3.5</v>
+      </c>
+      <c r="AZ341">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BA341">
+        <v>41</v>
+      </c>
+      <c r="BB341">
+        <v>3.09</v>
+      </c>
+      <c r="BC341">
+        <v>2.93</v>
+      </c>
+      <c r="BD341">
+        <v>3.6</v>
+      </c>
+      <c r="BE341">
+        <v>3.34</v>
+      </c>
+      <c r="BF341">
+        <v>2.5</v>
+      </c>
+      <c r="BG341">
+        <v>2.41</v>
+      </c>
+      <c r="BH341">
+        <v>39</v>
+      </c>
+      <c r="BI341">
+        <v>1.92</v>
+      </c>
+      <c r="BJ341">
+        <v>1.81</v>
+      </c>
+      <c r="BK341">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BL341">
+        <v>2</v>
+      </c>
+      <c r="BM341">
+        <v>26</v>
+      </c>
+      <c r="BN341">
+        <v>0.25</v>
+      </c>
+      <c r="BO341">
+        <v>1.84</v>
+      </c>
+      <c r="BP341">
+        <v>1.8</v>
+      </c>
+      <c r="BQ341">
+        <v>2.14</v>
+      </c>
+      <c r="BR341">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="342" spans="1:70">
+      <c r="A342" t="s">
+        <v>70</v>
+      </c>
+      <c r="B342" t="s">
+        <v>149</v>
+      </c>
+      <c r="C342" t="s">
+        <v>91</v>
+      </c>
+      <c r="D342" t="s">
+        <v>85</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>3</v>
+      </c>
+      <c r="G342" t="s">
+        <v>82</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342" t="s">
+        <v>82</v>
+      </c>
+      <c r="K342">
+        <v>16</v>
+      </c>
+      <c r="L342">
+        <v>11</v>
+      </c>
+      <c r="M342">
+        <v>4</v>
+      </c>
+      <c r="N342">
+        <v>9</v>
+      </c>
+      <c r="O342">
+        <v>9</v>
+      </c>
+      <c r="P342">
+        <v>11</v>
+      </c>
+      <c r="Q342">
+        <v>7</v>
+      </c>
+      <c r="R342">
+        <v>6</v>
+      </c>
+      <c r="S342">
+        <v>2</v>
+      </c>
+      <c r="T342">
+        <v>2</v>
+      </c>
+      <c r="U342">
+        <v>2</v>
+      </c>
+      <c r="V342">
+        <v>1</v>
+      </c>
+      <c r="W342">
+        <v>1.85</v>
+      </c>
+      <c r="X342">
+        <v>3.75</v>
+      </c>
+      <c r="Y342">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z342">
+        <v>1.85</v>
+      </c>
+      <c r="AA342">
+        <v>3.6</v>
+      </c>
+      <c r="AB342">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC342">
+        <v>1.85</v>
+      </c>
+      <c r="AD342">
+        <v>3.6</v>
+      </c>
+      <c r="AE342">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AF342">
+        <v>1.9</v>
+      </c>
+      <c r="AG342">
+        <v>3.45</v>
+      </c>
+      <c r="AH342">
+        <v>3.8</v>
+      </c>
+      <c r="AI342">
+        <v>1.9</v>
+      </c>
+      <c r="AJ342">
+        <v>3.6</v>
+      </c>
+      <c r="AK342">
+        <v>3.75</v>
+      </c>
+      <c r="AL342">
+        <v>1.88</v>
+      </c>
+      <c r="AM342">
+        <v>3.75</v>
+      </c>
+      <c r="AN342">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AO342">
+        <v>1.91</v>
+      </c>
+      <c r="AP342">
+        <v>3.1</v>
+      </c>
+      <c r="AQ342">
+        <v>4.5</v>
+      </c>
+      <c r="AR342">
+        <v>1.83</v>
+      </c>
+      <c r="AS342">
+        <v>3.75</v>
+      </c>
+      <c r="AT342">
+        <v>4.33</v>
+      </c>
+      <c r="AU342">
+        <v>1.9</v>
+      </c>
+      <c r="AV342">
+        <v>3.75</v>
+      </c>
+      <c r="AW342">
+        <v>4.3</v>
+      </c>
+      <c r="AX342">
+        <v>1.91</v>
+      </c>
+      <c r="AY342">
+        <v>3.4</v>
+      </c>
+      <c r="AZ342">
+        <v>4</v>
+      </c>
+      <c r="BA342">
+        <v>41</v>
+      </c>
+      <c r="BB342">
+        <v>1.91</v>
+      </c>
+      <c r="BC342">
+        <v>1.85</v>
+      </c>
+      <c r="BD342">
+        <v>3.75</v>
+      </c>
+      <c r="BE342">
+        <v>3.55</v>
+      </c>
+      <c r="BF342">
+        <v>4.75</v>
+      </c>
+      <c r="BG342">
+        <v>4.29</v>
+      </c>
+      <c r="BH342">
+        <v>39</v>
+      </c>
+      <c r="BI342">
+        <v>1.86</v>
+      </c>
+      <c r="BJ342">
+        <v>1.79</v>
+      </c>
+      <c r="BK342">
+        <v>2.13</v>
+      </c>
+      <c r="BL342">
+        <v>2.02</v>
+      </c>
+      <c r="BM342">
+        <v>25</v>
+      </c>
+      <c r="BN342">
+        <v>-0.75</v>
+      </c>
+      <c r="BO342">
+        <v>2.14</v>
+      </c>
+      <c r="BP342">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="BQ342">
+        <v>1.85</v>
+      </c>
+      <c r="BR342">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="343" spans="1:70">
+      <c r="A343" t="s">
+        <v>70</v>
+      </c>
+      <c r="B343" t="s">
+        <v>149</v>
+      </c>
+      <c r="C343" t="s">
+        <v>84</v>
+      </c>
+      <c r="D343" t="s">
+        <v>76</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343" t="s">
+        <v>77</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343" t="s">
+        <v>74</v>
+      </c>
+      <c r="K343">
+        <v>12</v>
+      </c>
+      <c r="L343">
+        <v>5</v>
+      </c>
+      <c r="M343">
+        <v>4</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+      <c r="O343">
+        <v>10</v>
+      </c>
+      <c r="P343">
+        <v>8</v>
+      </c>
+      <c r="Q343">
+        <v>5</v>
+      </c>
+      <c r="R343">
+        <v>3</v>
+      </c>
+      <c r="S343">
+        <v>4</v>
+      </c>
+      <c r="T343">
+        <v>2</v>
+      </c>
+      <c r="U343">
+        <v>0</v>
+      </c>
+      <c r="V343">
+        <v>0</v>
+      </c>
+      <c r="W343">
+        <v>2.25</v>
+      </c>
+      <c r="X343">
+        <v>3.3</v>
+      </c>
+      <c r="Y343">
+        <v>3.6</v>
+      </c>
+      <c r="Z343">
+        <v>2.15</v>
+      </c>
+      <c r="AA343">
+        <v>3.2</v>
+      </c>
+      <c r="AB343">
+        <v>3.5</v>
+      </c>
+      <c r="AC343">
+        <v>2.15</v>
+      </c>
+      <c r="AD343">
+        <v>3.2</v>
+      </c>
+      <c r="AE343">
+        <v>3.5</v>
+      </c>
+      <c r="AF343">
+        <v>2</v>
+      </c>
+      <c r="AG343">
+        <v>3.2</v>
+      </c>
+      <c r="AH343">
+        <v>3.7</v>
+      </c>
+      <c r="AI343">
+        <v>2.1</v>
+      </c>
+      <c r="AJ343">
+        <v>3.2</v>
+      </c>
+      <c r="AK343">
+        <v>3.75</v>
+      </c>
+      <c r="AL343">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM343">
+        <v>3.21</v>
+      </c>
+      <c r="AN343">
+        <v>3.65</v>
+      </c>
+      <c r="AO343">
+        <v>2.15</v>
+      </c>
+      <c r="AP343">
+        <v>3.1</v>
+      </c>
+      <c r="AQ343">
+        <v>3.6</v>
+      </c>
+      <c r="AR343">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS343">
+        <v>3.25</v>
+      </c>
+      <c r="AT343">
+        <v>3.6</v>
+      </c>
+      <c r="AU343">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AV343">
+        <v>3.25</v>
+      </c>
+      <c r="AW343">
+        <v>3.5</v>
+      </c>
+      <c r="AX343">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AY343">
+        <v>3.25</v>
+      </c>
+      <c r="AZ343">
+        <v>3.75</v>
+      </c>
+      <c r="BA343">
+        <v>38</v>
+      </c>
+      <c r="BB343">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BC343">
+        <v>2.19</v>
+      </c>
+      <c r="BD343">
+        <v>3.3</v>
+      </c>
+      <c r="BE343">
+        <v>3.18</v>
+      </c>
+      <c r="BF343">
+        <v>3.75</v>
+      </c>
+      <c r="BG343">
+        <v>3.51</v>
+      </c>
+      <c r="BH343">
+        <v>37</v>
+      </c>
+      <c r="BI343">
+        <v>2.52</v>
+      </c>
+      <c r="BJ343">
+        <v>2.35</v>
+      </c>
+      <c r="BK343">
+        <v>1.63</v>
+      </c>
+      <c r="BL343">
+        <v>1.57</v>
+      </c>
+      <c r="BM343">
+        <v>24</v>
+      </c>
+      <c r="BN343">
+        <v>-0.25</v>
+      </c>
+      <c r="BO343">
+        <v>1.98</v>
+      </c>
+      <c r="BP343">
+        <v>1.92</v>
+      </c>
+      <c r="BQ343">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BR343">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="344" spans="1:70">
+      <c r="A344" t="s">
+        <v>70</v>
+      </c>
+      <c r="B344" t="s">
+        <v>149</v>
+      </c>
+      <c r="C344" t="s">
+        <v>92</v>
+      </c>
+      <c r="D344" t="s">
+        <v>79</v>
+      </c>
+      <c r="E344">
+        <v>2</v>
+      </c>
+      <c r="F344">
+        <v>2</v>
+      </c>
+      <c r="G344" t="s">
+        <v>74</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344" t="s">
+        <v>74</v>
+      </c>
+      <c r="K344">
+        <v>6</v>
+      </c>
+      <c r="L344">
+        <v>14</v>
+      </c>
+      <c r="M344">
+        <v>4</v>
+      </c>
+      <c r="N344">
+        <v>7</v>
+      </c>
+      <c r="O344">
+        <v>12</v>
+      </c>
+      <c r="P344">
+        <v>10</v>
+      </c>
+      <c r="Q344">
+        <v>3</v>
+      </c>
+      <c r="R344">
+        <v>3</v>
+      </c>
+      <c r="S344">
+        <v>3</v>
+      </c>
+      <c r="T344">
+        <v>1</v>
+      </c>
+      <c r="U344">
+        <v>0</v>
+      </c>
+      <c r="V344">
+        <v>0</v>
+      </c>
+      <c r="W344">
+        <v>3.8</v>
+      </c>
+      <c r="X344">
+        <v>3.6</v>
+      </c>
+      <c r="Y344">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Z344">
+        <v>3.8</v>
+      </c>
+      <c r="AA344">
+        <v>3.5</v>
+      </c>
+      <c r="AB344">
+        <v>1.95</v>
+      </c>
+      <c r="AC344">
+        <v>3.8</v>
+      </c>
+      <c r="AD344">
+        <v>3.5</v>
+      </c>
+      <c r="AE344">
+        <v>1.95</v>
+      </c>
+      <c r="AF344">
+        <v>3.8</v>
+      </c>
+      <c r="AG344">
+        <v>3.45</v>
+      </c>
+      <c r="AH344">
+        <v>1.9</v>
+      </c>
+      <c r="AI344">
+        <v>3.6</v>
+      </c>
+      <c r="AJ344">
+        <v>3.6</v>
+      </c>
+      <c r="AK344">
+        <v>1.95</v>
+      </c>
+      <c r="AL344">
+        <v>3.71</v>
+      </c>
+      <c r="AM344">
+        <v>3.7</v>
+      </c>
+      <c r="AN344">
+        <v>2.08</v>
+      </c>
+      <c r="AO344">
+        <v>3.5</v>
+      </c>
+      <c r="AP344">
+        <v>3.3</v>
+      </c>
+      <c r="AQ344">
+        <v>2.1</v>
+      </c>
+      <c r="AR344">
+        <v>3.6</v>
+      </c>
+      <c r="AS344">
+        <v>3.5</v>
+      </c>
+      <c r="AT344">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AU344">
+        <v>3.6</v>
+      </c>
+      <c r="AV344">
+        <v>3.7</v>
+      </c>
+      <c r="AW344">
+        <v>2.1</v>
+      </c>
+      <c r="AX344">
+        <v>3.6</v>
+      </c>
+      <c r="AY344">
+        <v>3.5</v>
+      </c>
+      <c r="AZ344">
+        <v>2</v>
+      </c>
+      <c r="BA344">
+        <v>41</v>
+      </c>
+      <c r="BB344">
+        <v>3.85</v>
+      </c>
+      <c r="BC344">
+        <v>3.63</v>
+      </c>
+      <c r="BD344">
+        <v>3.7</v>
+      </c>
+      <c r="BE344">
+        <v>3.46</v>
+      </c>
+      <c r="BF344">
+        <v>2.1</v>
+      </c>
+      <c r="BG344">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BH344">
+        <v>39</v>
+      </c>
+      <c r="BI344">
+        <v>1.81</v>
+      </c>
+      <c r="BJ344">
+        <v>1.75</v>
+      </c>
+      <c r="BK344">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL344">
+        <v>2.06</v>
+      </c>
+      <c r="BM344">
+        <v>26</v>
+      </c>
+      <c r="BN344">
+        <v>0.25</v>
+      </c>
+      <c r="BO344">
+        <v>2.16</v>
+      </c>
+      <c r="BP344">
+        <v>2.12</v>
+      </c>
+      <c r="BQ344">
+        <v>1.82</v>
+      </c>
+      <c r="BR344">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="345" spans="1:70">
+      <c r="A345" t="s">
+        <v>70</v>
+      </c>
+      <c r="B345" t="s">
+        <v>150</v>
+      </c>
+      <c r="C345" t="s">
+        <v>72</v>
+      </c>
+      <c r="D345" t="s">
+        <v>96</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345" t="s">
+        <v>74</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345" t="s">
+        <v>74</v>
+      </c>
+      <c r="K345">
+        <v>19</v>
+      </c>
+      <c r="L345">
+        <v>10</v>
+      </c>
+      <c r="M345">
+        <v>13</v>
+      </c>
+      <c r="N345">
+        <v>5</v>
+      </c>
+      <c r="O345">
+        <v>12</v>
+      </c>
+      <c r="P345">
+        <v>10</v>
+      </c>
+      <c r="Q345">
+        <v>7</v>
+      </c>
+      <c r="R345">
+        <v>2</v>
+      </c>
+      <c r="S345">
+        <v>3</v>
+      </c>
+      <c r="T345">
+        <v>5</v>
+      </c>
+      <c r="U345">
+        <v>0</v>
+      </c>
+      <c r="V345">
+        <v>0</v>
+      </c>
+      <c r="W345">
+        <v>2.25</v>
+      </c>
+      <c r="X345">
+        <v>3.6</v>
+      </c>
+      <c r="Y345">
+        <v>3.3</v>
+      </c>
+      <c r="Z345">
+        <v>2.1</v>
+      </c>
+      <c r="AA345">
+        <v>3.5</v>
+      </c>
+      <c r="AB345">
+        <v>3.3</v>
+      </c>
+      <c r="AC345">
+        <v>2.1</v>
+      </c>
+      <c r="AD345">
+        <v>3.5</v>
+      </c>
+      <c r="AE345">
+        <v>3.3</v>
+      </c>
+      <c r="AF345">
+        <v>2</v>
+      </c>
+      <c r="AG345">
+        <v>3.4</v>
+      </c>
+      <c r="AH345">
+        <v>3.5</v>
+      </c>
+      <c r="AI345">
+        <v>2.25</v>
+      </c>
+      <c r="AJ345">
+        <v>3.5</v>
+      </c>
+      <c r="AK345">
+        <v>3</v>
+      </c>
+      <c r="AL345">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AM345">
+        <v>3.63</v>
+      </c>
+      <c r="AN345">
+        <v>3.4</v>
+      </c>
+      <c r="AO345">
+        <v>2.25</v>
+      </c>
+      <c r="AP345">
+        <v>3.2</v>
+      </c>
+      <c r="AQ345">
+        <v>3.2</v>
+      </c>
+      <c r="AR345">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS345">
+        <v>3.5</v>
+      </c>
+      <c r="AT345">
+        <v>3.25</v>
+      </c>
+      <c r="AU345">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AV345">
+        <v>3.3</v>
+      </c>
+      <c r="AW345">
+        <v>3.5</v>
+      </c>
+      <c r="AX345">
+        <v>2.25</v>
+      </c>
+      <c r="AY345">
+        <v>3.5</v>
+      </c>
+      <c r="AZ345">
+        <v>3</v>
+      </c>
+      <c r="BA345">
+        <v>41</v>
+      </c>
+      <c r="BB345">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BC345">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BD345">
+        <v>3.63</v>
+      </c>
+      <c r="BE345">
+        <v>3.44</v>
+      </c>
+      <c r="BF345">
+        <v>3.5</v>
+      </c>
+      <c r="BG345">
+        <v>3.23</v>
+      </c>
+      <c r="BH345">
+        <v>39</v>
+      </c>
+      <c r="BI345">
+        <v>1.79</v>
+      </c>
+      <c r="BJ345">
+        <v>1.72</v>
+      </c>
+      <c r="BK345">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BL345">
+        <v>2.1</v>
+      </c>
+      <c r="BM345">
+        <v>26</v>
+      </c>
+      <c r="BN345">
+        <v>-0.25</v>
+      </c>
+      <c r="BO345">
+        <v>1.94</v>
+      </c>
+      <c r="BP345">
+        <v>1.91</v>
+      </c>
+      <c r="BQ345">
+        <v>2.02</v>
+      </c>
+      <c r="BR345">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="346" spans="1:70">
+      <c r="A346" t="s">
+        <v>70</v>
+      </c>
+      <c r="B346" t="s">
+        <v>150</v>
+      </c>
+      <c r="C346" t="s">
+        <v>93</v>
+      </c>
+      <c r="D346" t="s">
+        <v>81</v>
+      </c>
+      <c r="E346">
+        <v>2</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346" t="s">
+        <v>77</v>
+      </c>
+      <c r="H346">
+        <v>2</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346" t="s">
+        <v>77</v>
+      </c>
+      <c r="K346">
+        <v>21</v>
+      </c>
+      <c r="L346">
+        <v>11</v>
+      </c>
+      <c r="M346">
+        <v>14</v>
+      </c>
+      <c r="N346">
+        <v>8</v>
+      </c>
+      <c r="O346">
+        <v>9</v>
+      </c>
+      <c r="P346">
+        <v>10</v>
+      </c>
+      <c r="Q346">
+        <v>6</v>
+      </c>
+      <c r="R346">
+        <v>3</v>
+      </c>
+      <c r="S346">
+        <v>1</v>
+      </c>
+      <c r="T346">
+        <v>3</v>
+      </c>
+      <c r="U346">
+        <v>0</v>
+      </c>
+      <c r="V346">
+        <v>0</v>
+      </c>
+      <c r="W346">
+        <v>1.36</v>
+      </c>
+      <c r="X346">
+        <v>5.5</v>
+      </c>
+      <c r="Y346">
+        <v>9</v>
+      </c>
+      <c r="Z346">
+        <v>1.3</v>
+      </c>
+      <c r="AA346">
+        <v>5.25</v>
+      </c>
+      <c r="AB346">
+        <v>9.5</v>
+      </c>
+      <c r="AC346">
+        <v>1.3</v>
+      </c>
+      <c r="AD346">
+        <v>5.25</v>
+      </c>
+      <c r="AE346">
+        <v>9.5</v>
+      </c>
+      <c r="AF346">
+        <v>1.25</v>
+      </c>
+      <c r="AG346">
+        <v>5.5</v>
+      </c>
+      <c r="AH346">
+        <v>10.3</v>
+      </c>
+      <c r="AI346">
+        <v>1.36</v>
+      </c>
+      <c r="AJ346">
+        <v>5</v>
+      </c>
+      <c r="AK346">
+        <v>7.5</v>
+      </c>
+      <c r="AL346">
+        <v>1.37</v>
+      </c>
+      <c r="AM346">
+        <v>5.4</v>
+      </c>
+      <c r="AN346">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AO346">
+        <v>1.36</v>
+      </c>
+      <c r="AP346">
+        <v>4.5</v>
+      </c>
+      <c r="AQ346">
+        <v>9</v>
+      </c>
+      <c r="AR346">
+        <v>1.33</v>
+      </c>
+      <c r="AS346">
+        <v>5.25</v>
+      </c>
+      <c r="AT346">
+        <v>10</v>
+      </c>
+      <c r="AU346">
+        <v>1.36</v>
+      </c>
+      <c r="AV346">
+        <v>5.5</v>
+      </c>
+      <c r="AW346">
+        <v>9</v>
+      </c>
+      <c r="AX346">
+        <v>1.33</v>
+      </c>
+      <c r="AY346">
+        <v>5</v>
+      </c>
+      <c r="AZ346">
+        <v>9</v>
+      </c>
+      <c r="BA346">
+        <v>39</v>
+      </c>
+      <c r="BB346">
+        <v>1.37</v>
+      </c>
+      <c r="BC346">
+        <v>1.34</v>
+      </c>
+      <c r="BD346">
+        <v>5.5</v>
+      </c>
+      <c r="BE346">
+        <v>4.97</v>
+      </c>
+      <c r="BF346">
+        <v>11</v>
+      </c>
+      <c r="BG346">
+        <v>8.89</v>
+      </c>
+      <c r="BH346">
+        <v>29</v>
+      </c>
+      <c r="BI346">
+        <v>1.59</v>
+      </c>
+      <c r="BJ346">
+        <v>1.52</v>
+      </c>
+      <c r="BK346">
+        <v>2.62</v>
+      </c>
+      <c r="BL346">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="BM346">
+        <v>25</v>
+      </c>
+      <c r="BN346">
+        <v>-1.5</v>
+      </c>
+      <c r="BO346">
+        <v>2.09</v>
+      </c>
+      <c r="BP346">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BQ346">
+        <v>1.94</v>
+      </c>
+      <c r="BR346">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="347" spans="1:70">
+      <c r="A347" t="s">
+        <v>70</v>
+      </c>
+      <c r="B347" t="s">
+        <v>150</v>
+      </c>
+      <c r="C347" t="s">
+        <v>83</v>
+      </c>
+      <c r="D347" t="s">
+        <v>80</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347" t="s">
+        <v>74</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347" t="s">
+        <v>74</v>
+      </c>
+      <c r="K347">
+        <v>13</v>
+      </c>
+      <c r="L347">
+        <v>15</v>
+      </c>
+      <c r="M347">
+        <v>7</v>
+      </c>
+      <c r="N347">
+        <v>5</v>
+      </c>
+      <c r="O347">
+        <v>12</v>
+      </c>
+      <c r="P347">
+        <v>14</v>
+      </c>
+      <c r="Q347">
+        <v>9</v>
+      </c>
+      <c r="R347">
+        <v>7</v>
+      </c>
+      <c r="S347">
+        <v>0</v>
+      </c>
+      <c r="T347">
+        <v>2</v>
+      </c>
+      <c r="U347">
+        <v>0</v>
+      </c>
+      <c r="V347">
+        <v>0</v>
+      </c>
+      <c r="W347">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="X347">
+        <v>3.5</v>
+      </c>
+      <c r="Y347">
+        <v>2.88</v>
+      </c>
+      <c r="Z347">
+        <v>2.5</v>
+      </c>
+      <c r="AA347">
+        <v>3.4</v>
+      </c>
+      <c r="AB347">
+        <v>2.7</v>
+      </c>
+      <c r="AC347">
+        <v>2.5</v>
+      </c>
+      <c r="AD347">
+        <v>3.4</v>
+      </c>
+      <c r="AE347">
+        <v>2.7</v>
+      </c>
+      <c r="AF347">
+        <v>2.5</v>
+      </c>
+      <c r="AG347">
+        <v>3.3</v>
+      </c>
+      <c r="AH347">
+        <v>2.65</v>
+      </c>
+      <c r="AI347">
+        <v>2.6</v>
+      </c>
+      <c r="AJ347">
+        <v>3.4</v>
+      </c>
+      <c r="AK347">
+        <v>2.6</v>
+      </c>
+      <c r="AL347">
+        <v>2.54</v>
+      </c>
+      <c r="AM347">
+        <v>3.51</v>
+      </c>
+      <c r="AN347">
+        <v>2.93</v>
+      </c>
+      <c r="AO347">
+        <v>2.6</v>
+      </c>
+      <c r="AP347">
+        <v>3.1</v>
+      </c>
+      <c r="AQ347">
+        <v>2.8</v>
+      </c>
+      <c r="AR347">
+        <v>2.6</v>
+      </c>
+      <c r="AS347">
+        <v>3.4</v>
+      </c>
+      <c r="AT347">
+        <v>2.75</v>
+      </c>
+      <c r="AU347">
+        <v>2.62</v>
+      </c>
+      <c r="AV347">
+        <v>3.5</v>
+      </c>
+      <c r="AW347">
+        <v>2.8</v>
+      </c>
+      <c r="AX347">
+        <v>2.62</v>
+      </c>
+      <c r="AY347">
+        <v>3.25</v>
+      </c>
+      <c r="AZ347">
+        <v>2.62</v>
+      </c>
+      <c r="BA347">
+        <v>41</v>
+      </c>
+      <c r="BB347">
+        <v>2.63</v>
+      </c>
+      <c r="BC347">
+        <v>2.52</v>
+      </c>
+      <c r="BD347">
+        <v>3.53</v>
+      </c>
+      <c r="BE347">
+        <v>3.34</v>
+      </c>
+      <c r="BF347">
+        <v>2.98</v>
+      </c>
+      <c r="BG347">
+        <v>2.78</v>
+      </c>
+      <c r="BH347">
+        <v>39</v>
+      </c>
+      <c r="BI347">
+        <v>1.96</v>
+      </c>
+      <c r="BJ347">
+        <v>1.86</v>
+      </c>
+      <c r="BK347">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BL347">
+        <v>1.94</v>
+      </c>
+      <c r="BM347">
+        <v>23</v>
+      </c>
+      <c r="BN347">
+        <v>0.25</v>
+      </c>
+      <c r="BO347">
+        <v>1.61</v>
+      </c>
+      <c r="BP347">
+        <v>1.57</v>
+      </c>
+      <c r="BQ347">
+        <v>2.56</v>
+      </c>
+      <c r="BR347">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="348" spans="1:70">
+      <c r="A348" t="s">
+        <v>70</v>
+      </c>
+      <c r="B348" t="s">
+        <v>151</v>
+      </c>
+      <c r="C348" t="s">
+        <v>88</v>
+      </c>
+      <c r="D348" t="s">
+        <v>73</v>
+      </c>
+      <c r="E348">
+        <v>6</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="G348" t="s">
+        <v>77</v>
+      </c>
+      <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348" t="s">
+        <v>77</v>
+      </c>
+      <c r="K348">
+        <v>18</v>
+      </c>
+      <c r="L348">
+        <v>7</v>
+      </c>
+      <c r="M348">
+        <v>15</v>
+      </c>
+      <c r="N348">
+        <v>4</v>
+      </c>
+      <c r="O348">
+        <v>10</v>
+      </c>
+      <c r="P348">
+        <v>15</v>
+      </c>
+      <c r="Q348">
+        <v>4</v>
+      </c>
+      <c r="R348">
+        <v>4</v>
+      </c>
+      <c r="S348">
+        <v>0</v>
+      </c>
+      <c r="T348">
+        <v>3</v>
+      </c>
+      <c r="U348">
+        <v>0</v>
+      </c>
+      <c r="V348">
+        <v>1</v>
+      </c>
+      <c r="W348">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X348">
+        <v>3.4</v>
+      </c>
+      <c r="Y348">
+        <v>3.4</v>
+      </c>
+      <c r="Z348">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA348">
+        <v>3.25</v>
+      </c>
+      <c r="AB348">
+        <v>3.3</v>
+      </c>
+      <c r="AC348">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD348">
+        <v>3.25</v>
+      </c>
+      <c r="AE348">
+        <v>3.3</v>
+      </c>
+      <c r="AF348">
+        <v>2</v>
+      </c>
+      <c r="AG348">
+        <v>3.2</v>
+      </c>
+      <c r="AH348">
+        <v>3.7</v>
+      </c>
+      <c r="AI348">
+        <v>2.25</v>
+      </c>
+      <c r="AJ348">
+        <v>3.3</v>
+      </c>
+      <c r="AK348">
+        <v>3.2</v>
+      </c>
+      <c r="AL348">
+        <v>2.27</v>
+      </c>
+      <c r="AM348">
+        <v>3.4</v>
+      </c>
+      <c r="AN348">
+        <v>3.5</v>
+      </c>
+      <c r="AO348">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP348">
+        <v>3.2</v>
+      </c>
+      <c r="AQ348">
+        <v>3.2</v>
+      </c>
+      <c r="AR348">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS348">
+        <v>3.4</v>
+      </c>
+      <c r="AT348">
+        <v>3.4</v>
+      </c>
+      <c r="AU348">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AV348">
+        <v>3.4</v>
+      </c>
+      <c r="AW348">
+        <v>3.4</v>
+      </c>
+      <c r="AX348">
+        <v>2.15</v>
+      </c>
+      <c r="AY348">
+        <v>3.25</v>
+      </c>
+      <c r="AZ348">
+        <v>3.4</v>
+      </c>
+      <c r="BA348">
+        <v>39</v>
+      </c>
+      <c r="BB348">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BC348">
+        <v>2.23</v>
+      </c>
+      <c r="BD348">
+        <v>3.45</v>
+      </c>
+      <c r="BE348">
+        <v>3.28</v>
+      </c>
+      <c r="BF348">
+        <v>3.7</v>
+      </c>
+      <c r="BG348">
+        <v>3.28</v>
+      </c>
+      <c r="BH348">
+        <v>37</v>
+      </c>
+      <c r="BI348">
+        <v>2.08</v>
+      </c>
+      <c r="BJ348">
+        <v>2</v>
+      </c>
+      <c r="BK348">
+        <v>1.9</v>
+      </c>
+      <c r="BL348">
+        <v>1.8</v>
+      </c>
+      <c r="BM348">
+        <v>23</v>
+      </c>
+      <c r="BN348">
+        <v>-0.25</v>
+      </c>
+      <c r="BO348">
+        <v>1.96</v>
+      </c>
+      <c r="BP348">
+        <v>1.93</v>
+      </c>
+      <c r="BQ348">
+        <v>1.99</v>
+      </c>
+      <c r="BR348">
+        <v>1.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DatosIng1/EP1213.xlsx
+++ b/DatosIng1/EP1213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="600" yWindow="345" windowWidth="8355" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="E0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="152">
   <si>
     <t>Div</t>
   </si>
@@ -1292,11 +1292,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR348"/>
+  <dimension ref="A1:BR369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="G338" sqref="G338"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -75058,6 +75056,4458 @@
         <v>1.94</v>
       </c>
     </row>
+    <row r="349" spans="1:70">
+      <c r="A349" t="s">
+        <v>70</v>
+      </c>
+      <c r="B349" s="1">
+        <v>41369</v>
+      </c>
+      <c r="C349" t="s">
+        <v>75</v>
+      </c>
+      <c r="D349" t="s">
+        <v>83</v>
+      </c>
+      <c r="E349">
+        <v>2</v>
+      </c>
+      <c r="F349">
+        <v>4</v>
+      </c>
+      <c r="G349" t="s">
+        <v>82</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349" t="s">
+        <v>82</v>
+      </c>
+      <c r="K349">
+        <v>18</v>
+      </c>
+      <c r="L349">
+        <v>20</v>
+      </c>
+      <c r="M349">
+        <v>13</v>
+      </c>
+      <c r="N349">
+        <v>13</v>
+      </c>
+      <c r="O349">
+        <v>14</v>
+      </c>
+      <c r="P349">
+        <v>7</v>
+      </c>
+      <c r="Q349">
+        <v>3</v>
+      </c>
+      <c r="R349">
+        <v>3</v>
+      </c>
+      <c r="S349">
+        <v>2</v>
+      </c>
+      <c r="T349">
+        <v>1</v>
+      </c>
+      <c r="U349">
+        <v>0</v>
+      </c>
+      <c r="V349">
+        <v>0</v>
+      </c>
+      <c r="W349">
+        <v>1.73</v>
+      </c>
+      <c r="X349">
+        <v>3.9</v>
+      </c>
+      <c r="Y349">
+        <v>5.25</v>
+      </c>
+      <c r="Z349">
+        <v>1.67</v>
+      </c>
+      <c r="AA349">
+        <v>3.6</v>
+      </c>
+      <c r="AB349">
+        <v>5.25</v>
+      </c>
+      <c r="AC349">
+        <v>1.67</v>
+      </c>
+      <c r="AD349">
+        <v>3.6</v>
+      </c>
+      <c r="AE349">
+        <v>5.25</v>
+      </c>
+      <c r="AF349">
+        <v>1.65</v>
+      </c>
+      <c r="AG349">
+        <v>3.7</v>
+      </c>
+      <c r="AH349">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI349">
+        <v>1.72</v>
+      </c>
+      <c r="AJ349">
+        <v>3.75</v>
+      </c>
+      <c r="AK349">
+        <v>4.5</v>
+      </c>
+      <c r="AL349">
+        <v>1.74</v>
+      </c>
+      <c r="AM349">
+        <v>3.94</v>
+      </c>
+      <c r="AN349">
+        <v>5.25</v>
+      </c>
+      <c r="AO349">
+        <v>1.73</v>
+      </c>
+      <c r="AP349">
+        <v>3.5</v>
+      </c>
+      <c r="AQ349">
+        <v>5</v>
+      </c>
+      <c r="AR349">
+        <v>1.7</v>
+      </c>
+      <c r="AS349">
+        <v>3.8</v>
+      </c>
+      <c r="AT349">
+        <v>5.25</v>
+      </c>
+      <c r="AU349">
+        <v>1.73</v>
+      </c>
+      <c r="AV349">
+        <v>3.9</v>
+      </c>
+      <c r="AW349">
+        <v>5.2</v>
+      </c>
+      <c r="AX349">
+        <v>1.62</v>
+      </c>
+      <c r="AY349">
+        <v>3.75</v>
+      </c>
+      <c r="AZ349">
+        <v>5.5</v>
+      </c>
+      <c r="BA349">
+        <v>41</v>
+      </c>
+      <c r="BB349">
+        <v>1.74</v>
+      </c>
+      <c r="BC349">
+        <v>1.7</v>
+      </c>
+      <c r="BD349">
+        <v>3.91</v>
+      </c>
+      <c r="BE349">
+        <v>3.68</v>
+      </c>
+      <c r="BF349">
+        <v>5.61</v>
+      </c>
+      <c r="BG349">
+        <v>5.07</v>
+      </c>
+      <c r="BH349">
+        <v>39</v>
+      </c>
+      <c r="BI349">
+        <v>1.79</v>
+      </c>
+      <c r="BJ349">
+        <v>1.72</v>
+      </c>
+      <c r="BK349">
+        <v>2.19</v>
+      </c>
+      <c r="BL349">
+        <v>2.11</v>
+      </c>
+      <c r="BM349">
+        <v>26</v>
+      </c>
+      <c r="BN349">
+        <v>-0.75</v>
+      </c>
+      <c r="BO349">
+        <v>1.95</v>
+      </c>
+      <c r="BP349">
+        <v>1.89</v>
+      </c>
+      <c r="BQ349">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BR349">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="350" spans="1:70">
+      <c r="A350" t="s">
+        <v>70</v>
+      </c>
+      <c r="B350" s="1">
+        <v>41369</v>
+      </c>
+      <c r="C350" t="s">
+        <v>76</v>
+      </c>
+      <c r="D350" t="s">
+        <v>88</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>2</v>
+      </c>
+      <c r="G350" t="s">
+        <v>82</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350" t="s">
+        <v>74</v>
+      </c>
+      <c r="K350">
+        <v>9</v>
+      </c>
+      <c r="L350">
+        <v>12</v>
+      </c>
+      <c r="M350">
+        <v>4</v>
+      </c>
+      <c r="N350">
+        <v>6</v>
+      </c>
+      <c r="O350">
+        <v>15</v>
+      </c>
+      <c r="P350">
+        <v>13</v>
+      </c>
+      <c r="Q350">
+        <v>6</v>
+      </c>
+      <c r="R350">
+        <v>5</v>
+      </c>
+      <c r="S350">
+        <v>2</v>
+      </c>
+      <c r="T350">
+        <v>3</v>
+      </c>
+      <c r="U350">
+        <v>0</v>
+      </c>
+      <c r="V350">
+        <v>0</v>
+      </c>
+      <c r="W350">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="X350">
+        <v>3.3</v>
+      </c>
+      <c r="Y350">
+        <v>3</v>
+      </c>
+      <c r="Z350">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AA350">
+        <v>3.2</v>
+      </c>
+      <c r="AB350">
+        <v>2.9</v>
+      </c>
+      <c r="AC350">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AD350">
+        <v>3.2</v>
+      </c>
+      <c r="AE350">
+        <v>2.9</v>
+      </c>
+      <c r="AF350">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG350">
+        <v>3.3</v>
+      </c>
+      <c r="AH350">
+        <v>2.9</v>
+      </c>
+      <c r="AI350">
+        <v>2.37</v>
+      </c>
+      <c r="AJ350">
+        <v>3.3</v>
+      </c>
+      <c r="AK350">
+        <v>2.9</v>
+      </c>
+      <c r="AL350">
+        <v>2.58</v>
+      </c>
+      <c r="AM350">
+        <v>3.24</v>
+      </c>
+      <c r="AN350">
+        <v>3.08</v>
+      </c>
+      <c r="AO350">
+        <v>2.6</v>
+      </c>
+      <c r="AP350">
+        <v>3</v>
+      </c>
+      <c r="AQ350">
+        <v>2.9</v>
+      </c>
+      <c r="AR350">
+        <v>2.4</v>
+      </c>
+      <c r="AS350">
+        <v>3.4</v>
+      </c>
+      <c r="AT350">
+        <v>3</v>
+      </c>
+      <c r="AU350">
+        <v>2.6</v>
+      </c>
+      <c r="AV350">
+        <v>3.3</v>
+      </c>
+      <c r="AW350">
+        <v>3</v>
+      </c>
+      <c r="AX350">
+        <v>2.38</v>
+      </c>
+      <c r="AY350">
+        <v>3.25</v>
+      </c>
+      <c r="AZ350">
+        <v>3</v>
+      </c>
+      <c r="BA350">
+        <v>41</v>
+      </c>
+      <c r="BB350">
+        <v>2.6</v>
+      </c>
+      <c r="BC350">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="BD350">
+        <v>3.4</v>
+      </c>
+      <c r="BE350">
+        <v>3.24</v>
+      </c>
+      <c r="BF350">
+        <v>3.07</v>
+      </c>
+      <c r="BG350">
+        <v>2.91</v>
+      </c>
+      <c r="BH350">
+        <v>39</v>
+      </c>
+      <c r="BI350">
+        <v>2.1</v>
+      </c>
+      <c r="BJ350">
+        <v>1.98</v>
+      </c>
+      <c r="BK350">
+        <v>1.91</v>
+      </c>
+      <c r="BL350">
+        <v>1.82</v>
+      </c>
+      <c r="BM350">
+        <v>25</v>
+      </c>
+      <c r="BN350">
+        <v>-0.25</v>
+      </c>
+      <c r="BO350">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP350">
+        <v>2.13</v>
+      </c>
+      <c r="BQ350">
+        <v>1.8</v>
+      </c>
+      <c r="BR350">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="351" spans="1:70">
+      <c r="A351" t="s">
+        <v>70</v>
+      </c>
+      <c r="B351" s="1">
+        <v>41369</v>
+      </c>
+      <c r="C351" t="s">
+        <v>80</v>
+      </c>
+      <c r="D351" t="s">
+        <v>72</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351" t="s">
+        <v>82</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351" t="s">
+        <v>82</v>
+      </c>
+      <c r="K351">
+        <v>14</v>
+      </c>
+      <c r="L351">
+        <v>13</v>
+      </c>
+      <c r="M351">
+        <v>6</v>
+      </c>
+      <c r="N351">
+        <v>11</v>
+      </c>
+      <c r="O351">
+        <v>8</v>
+      </c>
+      <c r="P351">
+        <v>6</v>
+      </c>
+      <c r="Q351">
+        <v>3</v>
+      </c>
+      <c r="R351">
+        <v>7</v>
+      </c>
+      <c r="S351">
+        <v>2</v>
+      </c>
+      <c r="T351">
+        <v>1</v>
+      </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
+      <c r="V351">
+        <v>0</v>
+      </c>
+      <c r="W351">
+        <v>8</v>
+      </c>
+      <c r="X351">
+        <v>4.75</v>
+      </c>
+      <c r="Y351">
+        <v>1.44</v>
+      </c>
+      <c r="Z351">
+        <v>7.5</v>
+      </c>
+      <c r="AA351">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB351">
+        <v>1.4</v>
+      </c>
+      <c r="AC351">
+        <v>7.5</v>
+      </c>
+      <c r="AD351">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE351">
+        <v>1.4</v>
+      </c>
+      <c r="AF351">
+        <v>7.1</v>
+      </c>
+      <c r="AG351">
+        <v>5</v>
+      </c>
+      <c r="AH351">
+        <v>1.35</v>
+      </c>
+      <c r="AI351">
+        <v>6.5</v>
+      </c>
+      <c r="AJ351">
+        <v>4.5</v>
+      </c>
+      <c r="AK351">
+        <v>1.44</v>
+      </c>
+      <c r="AL351">
+        <v>8.35</v>
+      </c>
+      <c r="AM351">
+        <v>4.96</v>
+      </c>
+      <c r="AN351">
+        <v>1.43</v>
+      </c>
+      <c r="AO351">
+        <v>8</v>
+      </c>
+      <c r="AP351">
+        <v>4</v>
+      </c>
+      <c r="AQ351">
+        <v>1.44</v>
+      </c>
+      <c r="AR351">
+        <v>7.5</v>
+      </c>
+      <c r="AS351">
+        <v>4.5</v>
+      </c>
+      <c r="AT351">
+        <v>1.44</v>
+      </c>
+      <c r="AU351">
+        <v>8</v>
+      </c>
+      <c r="AV351">
+        <v>4.8</v>
+      </c>
+      <c r="AW351">
+        <v>1.44</v>
+      </c>
+      <c r="AX351">
+        <v>8</v>
+      </c>
+      <c r="AY351">
+        <v>4.5</v>
+      </c>
+      <c r="AZ351">
+        <v>1.4</v>
+      </c>
+      <c r="BA351">
+        <v>41</v>
+      </c>
+      <c r="BB351">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BC351">
+        <v>7.77</v>
+      </c>
+      <c r="BD351">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="BE351">
+        <v>4.53</v>
+      </c>
+      <c r="BF351">
+        <v>1.44</v>
+      </c>
+      <c r="BG351">
+        <v>1.41</v>
+      </c>
+      <c r="BH351">
+        <v>36</v>
+      </c>
+      <c r="BI351">
+        <v>1.69</v>
+      </c>
+      <c r="BJ351">
+        <v>1.64</v>
+      </c>
+      <c r="BK351">
+        <v>2.38</v>
+      </c>
+      <c r="BL351">
+        <v>2.23</v>
+      </c>
+      <c r="BM351">
+        <v>26</v>
+      </c>
+      <c r="BN351">
+        <v>1.25</v>
+      </c>
+      <c r="BO351">
+        <v>2.02</v>
+      </c>
+      <c r="BP351">
+        <v>1.96</v>
+      </c>
+      <c r="BQ351">
+        <v>1.95</v>
+      </c>
+      <c r="BR351">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="352" spans="1:70">
+      <c r="A352" t="s">
+        <v>70</v>
+      </c>
+      <c r="B352" s="1">
+        <v>41369</v>
+      </c>
+      <c r="C352" t="s">
+        <v>81</v>
+      </c>
+      <c r="D352" t="s">
+        <v>90</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352" t="s">
+        <v>74</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352" t="s">
+        <v>74</v>
+      </c>
+      <c r="K352">
+        <v>7</v>
+      </c>
+      <c r="L352">
+        <v>12</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>8</v>
+      </c>
+      <c r="O352">
+        <v>9</v>
+      </c>
+      <c r="P352">
+        <v>10</v>
+      </c>
+      <c r="Q352">
+        <v>4</v>
+      </c>
+      <c r="R352">
+        <v>4</v>
+      </c>
+      <c r="S352">
+        <v>0</v>
+      </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
+      <c r="U352">
+        <v>0</v>
+      </c>
+      <c r="V352">
+        <v>0</v>
+      </c>
+      <c r="W352">
+        <v>5.25</v>
+      </c>
+      <c r="X352">
+        <v>3.8</v>
+      </c>
+      <c r="Y352">
+        <v>1.75</v>
+      </c>
+      <c r="Z352">
+        <v>4.75</v>
+      </c>
+      <c r="AA352">
+        <v>3.75</v>
+      </c>
+      <c r="AB352">
+        <v>1.7</v>
+      </c>
+      <c r="AC352">
+        <v>4.75</v>
+      </c>
+      <c r="AD352">
+        <v>3.75</v>
+      </c>
+      <c r="AE352">
+        <v>1.7</v>
+      </c>
+      <c r="AF352">
+        <v>4.5</v>
+      </c>
+      <c r="AG352">
+        <v>3.7</v>
+      </c>
+      <c r="AH352">
+        <v>1.7</v>
+      </c>
+      <c r="AI352">
+        <v>4.8</v>
+      </c>
+      <c r="AJ352">
+        <v>3.6</v>
+      </c>
+      <c r="AK352">
+        <v>1.75</v>
+      </c>
+      <c r="AL352">
+        <v>5.18</v>
+      </c>
+      <c r="AM352">
+        <v>3.79</v>
+      </c>
+      <c r="AN352">
+        <v>1.78</v>
+      </c>
+      <c r="AO352">
+        <v>5</v>
+      </c>
+      <c r="AP352">
+        <v>3.25</v>
+      </c>
+      <c r="AQ352">
+        <v>1.8</v>
+      </c>
+      <c r="AR352">
+        <v>5</v>
+      </c>
+      <c r="AS352">
+        <v>3.8</v>
+      </c>
+      <c r="AT352">
+        <v>1.73</v>
+      </c>
+      <c r="AU352">
+        <v>4.8</v>
+      </c>
+      <c r="AV352">
+        <v>3.8</v>
+      </c>
+      <c r="AW352">
+        <v>1.75</v>
+      </c>
+      <c r="AX352">
+        <v>5</v>
+      </c>
+      <c r="AY352">
+        <v>3.75</v>
+      </c>
+      <c r="AZ352">
+        <v>1.67</v>
+      </c>
+      <c r="BA352">
+        <v>41</v>
+      </c>
+      <c r="BB352">
+        <v>5.26</v>
+      </c>
+      <c r="BC352">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="BD352">
+        <v>3.85</v>
+      </c>
+      <c r="BE352">
+        <v>3.6</v>
+      </c>
+      <c r="BF352">
+        <v>1.8</v>
+      </c>
+      <c r="BG352">
+        <v>1.74</v>
+      </c>
+      <c r="BH352">
+        <v>39</v>
+      </c>
+      <c r="BI352">
+        <v>1.99</v>
+      </c>
+      <c r="BJ352">
+        <v>1.88</v>
+      </c>
+      <c r="BK352">
+        <v>2</v>
+      </c>
+      <c r="BL352">
+        <v>1.92</v>
+      </c>
+      <c r="BM352">
+        <v>26</v>
+      </c>
+      <c r="BN352">
+        <v>0.75</v>
+      </c>
+      <c r="BO352">
+        <v>1.96</v>
+      </c>
+      <c r="BP352">
+        <v>1.92</v>
+      </c>
+      <c r="BQ352">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BR352">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="353" spans="1:70">
+      <c r="A353" t="s">
+        <v>70</v>
+      </c>
+      <c r="B353" s="1">
+        <v>41369</v>
+      </c>
+      <c r="C353" t="s">
+        <v>79</v>
+      </c>
+      <c r="D353" t="s">
+        <v>91</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353" t="s">
+        <v>77</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353" t="s">
+        <v>74</v>
+      </c>
+      <c r="K353">
+        <v>7</v>
+      </c>
+      <c r="L353">
+        <v>10</v>
+      </c>
+      <c r="M353">
+        <v>4</v>
+      </c>
+      <c r="N353">
+        <v>6</v>
+      </c>
+      <c r="O353">
+        <v>8</v>
+      </c>
+      <c r="P353">
+        <v>9</v>
+      </c>
+      <c r="Q353">
+        <v>5</v>
+      </c>
+      <c r="R353">
+        <v>5</v>
+      </c>
+      <c r="S353">
+        <v>1</v>
+      </c>
+      <c r="T353">
+        <v>1</v>
+      </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
+      <c r="V353">
+        <v>0</v>
+      </c>
+      <c r="W353">
+        <v>1.44</v>
+      </c>
+      <c r="X353">
+        <v>4.75</v>
+      </c>
+      <c r="Y353">
+        <v>8</v>
+      </c>
+      <c r="Z353">
+        <v>1.45</v>
+      </c>
+      <c r="AA353">
+        <v>4.5</v>
+      </c>
+      <c r="AB353">
+        <v>6.5</v>
+      </c>
+      <c r="AC353">
+        <v>1.45</v>
+      </c>
+      <c r="AD353">
+        <v>4.5</v>
+      </c>
+      <c r="AE353">
+        <v>6.5</v>
+      </c>
+      <c r="AF353">
+        <v>1.4</v>
+      </c>
+      <c r="AG353">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH353">
+        <v>6.8</v>
+      </c>
+      <c r="AI353">
+        <v>1.5</v>
+      </c>
+      <c r="AJ353">
+        <v>4.33</v>
+      </c>
+      <c r="AK353">
+        <v>6</v>
+      </c>
+      <c r="AL353">
+        <v>1.48</v>
+      </c>
+      <c r="AM353">
+        <v>4.7</v>
+      </c>
+      <c r="AN353">
+        <v>7.68</v>
+      </c>
+      <c r="AO353">
+        <v>1.5</v>
+      </c>
+      <c r="AP353">
+        <v>3.75</v>
+      </c>
+      <c r="AQ353">
+        <v>7.5</v>
+      </c>
+      <c r="AR353">
+        <v>1.44</v>
+      </c>
+      <c r="AS353">
+        <v>4.5</v>
+      </c>
+      <c r="AT353">
+        <v>7</v>
+      </c>
+      <c r="AU353">
+        <v>1.5</v>
+      </c>
+      <c r="AV353">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AW353">
+        <v>7.5</v>
+      </c>
+      <c r="AX353">
+        <v>1.44</v>
+      </c>
+      <c r="AY353">
+        <v>4.5</v>
+      </c>
+      <c r="AZ353">
+        <v>6.5</v>
+      </c>
+      <c r="BA353">
+        <v>41</v>
+      </c>
+      <c r="BB353">
+        <v>1.5</v>
+      </c>
+      <c r="BC353">
+        <v>1.45</v>
+      </c>
+      <c r="BD353">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="BE353">
+        <v>4.37</v>
+      </c>
+      <c r="BF353">
+        <v>8.1</v>
+      </c>
+      <c r="BG353">
+        <v>7.22</v>
+      </c>
+      <c r="BH353">
+        <v>38</v>
+      </c>
+      <c r="BI353">
+        <v>1.75</v>
+      </c>
+      <c r="BJ353">
+        <v>1.67</v>
+      </c>
+      <c r="BK353">
+        <v>2.35</v>
+      </c>
+      <c r="BL353">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BM353">
+        <v>26</v>
+      </c>
+      <c r="BN353">
+        <v>-1.25</v>
+      </c>
+      <c r="BO353">
+        <v>2.1</v>
+      </c>
+      <c r="BP353">
+        <v>2.04</v>
+      </c>
+      <c r="BQ353">
+        <v>1.91</v>
+      </c>
+      <c r="BR353">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="354" spans="1:70">
+      <c r="A354" t="s">
+        <v>70</v>
+      </c>
+      <c r="B354" s="1">
+        <v>41369</v>
+      </c>
+      <c r="C354" t="s">
+        <v>85</v>
+      </c>
+      <c r="D354" t="s">
+        <v>92</v>
+      </c>
+      <c r="E354">
+        <v>2</v>
+      </c>
+      <c r="F354">
+        <v>3</v>
+      </c>
+      <c r="G354" t="s">
+        <v>82</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
+        <v>74</v>
+      </c>
+      <c r="K354">
+        <v>17</v>
+      </c>
+      <c r="L354">
+        <v>13</v>
+      </c>
+      <c r="M354">
+        <v>11</v>
+      </c>
+      <c r="N354">
+        <v>8</v>
+      </c>
+      <c r="O354">
+        <v>9</v>
+      </c>
+      <c r="P354">
+        <v>7</v>
+      </c>
+      <c r="Q354">
+        <v>7</v>
+      </c>
+      <c r="R354">
+        <v>5</v>
+      </c>
+      <c r="S354">
+        <v>4</v>
+      </c>
+      <c r="T354">
+        <v>3</v>
+      </c>
+      <c r="U354">
+        <v>0</v>
+      </c>
+      <c r="V354">
+        <v>0</v>
+      </c>
+      <c r="W354">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="X354">
+        <v>3.5</v>
+      </c>
+      <c r="Y354">
+        <v>3</v>
+      </c>
+      <c r="Z354">
+        <v>2.35</v>
+      </c>
+      <c r="AA354">
+        <v>3.25</v>
+      </c>
+      <c r="AB354">
+        <v>3</v>
+      </c>
+      <c r="AC354">
+        <v>2.35</v>
+      </c>
+      <c r="AD354">
+        <v>3.25</v>
+      </c>
+      <c r="AE354">
+        <v>3</v>
+      </c>
+      <c r="AF354">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG354">
+        <v>3.3</v>
+      </c>
+      <c r="AH354">
+        <v>2.9</v>
+      </c>
+      <c r="AI354">
+        <v>2.25</v>
+      </c>
+      <c r="AJ354">
+        <v>3.4</v>
+      </c>
+      <c r="AK354">
+        <v>3.1</v>
+      </c>
+      <c r="AL354">
+        <v>2.39</v>
+      </c>
+      <c r="AM354">
+        <v>3.56</v>
+      </c>
+      <c r="AN354">
+        <v>3.11</v>
+      </c>
+      <c r="AO354">
+        <v>2.4</v>
+      </c>
+      <c r="AP354">
+        <v>3.2</v>
+      </c>
+      <c r="AQ354">
+        <v>3</v>
+      </c>
+      <c r="AR354">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS354">
+        <v>3.4</v>
+      </c>
+      <c r="AT354">
+        <v>3.2</v>
+      </c>
+      <c r="AU354">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AV354">
+        <v>3.5</v>
+      </c>
+      <c r="AW354">
+        <v>3</v>
+      </c>
+      <c r="AX354">
+        <v>2.25</v>
+      </c>
+      <c r="AY354">
+        <v>3.4</v>
+      </c>
+      <c r="AZ354">
+        <v>3.1</v>
+      </c>
+      <c r="BA354">
+        <v>41</v>
+      </c>
+      <c r="BB354">
+        <v>2.46</v>
+      </c>
+      <c r="BC354">
+        <v>2.37</v>
+      </c>
+      <c r="BD354">
+        <v>3.52</v>
+      </c>
+      <c r="BE354">
+        <v>3.36</v>
+      </c>
+      <c r="BF354">
+        <v>3.2</v>
+      </c>
+      <c r="BG354">
+        <v>2.97</v>
+      </c>
+      <c r="BH354">
+        <v>39</v>
+      </c>
+      <c r="BI354">
+        <v>1.83</v>
+      </c>
+      <c r="BJ354">
+        <v>1.77</v>
+      </c>
+      <c r="BK354">
+        <v>2.15</v>
+      </c>
+      <c r="BL354">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BM354">
+        <v>25</v>
+      </c>
+      <c r="BN354">
+        <v>-0.25</v>
+      </c>
+      <c r="BO354">
+        <v>2.13</v>
+      </c>
+      <c r="BP354">
+        <v>2.06</v>
+      </c>
+      <c r="BQ354">
+        <v>1.86</v>
+      </c>
+      <c r="BR354">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="355" spans="1:70">
+      <c r="A355" t="s">
+        <v>70</v>
+      </c>
+      <c r="B355" s="1">
+        <v>41369</v>
+      </c>
+      <c r="C355" t="s">
+        <v>87</v>
+      </c>
+      <c r="D355" t="s">
+        <v>78</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355" t="s">
+        <v>74</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355" t="s">
+        <v>74</v>
+      </c>
+      <c r="K355">
+        <v>9</v>
+      </c>
+      <c r="L355">
+        <v>11</v>
+      </c>
+      <c r="M355">
+        <v>3</v>
+      </c>
+      <c r="N355">
+        <v>6</v>
+      </c>
+      <c r="O355">
+        <v>12</v>
+      </c>
+      <c r="P355">
+        <v>12</v>
+      </c>
+      <c r="Q355">
+        <v>7</v>
+      </c>
+      <c r="R355">
+        <v>3</v>
+      </c>
+      <c r="S355">
+        <v>1</v>
+      </c>
+      <c r="T355">
+        <v>1</v>
+      </c>
+      <c r="U355">
+        <v>0</v>
+      </c>
+      <c r="V355">
+        <v>0</v>
+      </c>
+      <c r="W355">
+        <v>2.38</v>
+      </c>
+      <c r="X355">
+        <v>3.4</v>
+      </c>
+      <c r="Y355">
+        <v>3.25</v>
+      </c>
+      <c r="Z355">
+        <v>2.35</v>
+      </c>
+      <c r="AA355">
+        <v>3.2</v>
+      </c>
+      <c r="AB355">
+        <v>3.1</v>
+      </c>
+      <c r="AC355">
+        <v>2.35</v>
+      </c>
+      <c r="AD355">
+        <v>3.2</v>
+      </c>
+      <c r="AE355">
+        <v>3.1</v>
+      </c>
+      <c r="AF355">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG355">
+        <v>3.3</v>
+      </c>
+      <c r="AH355">
+        <v>2.9</v>
+      </c>
+      <c r="AI355">
+        <v>2.25</v>
+      </c>
+      <c r="AJ355">
+        <v>3.4</v>
+      </c>
+      <c r="AK355">
+        <v>3.1</v>
+      </c>
+      <c r="AL355">
+        <v>2.37</v>
+      </c>
+      <c r="AM355">
+        <v>3.53</v>
+      </c>
+      <c r="AN355">
+        <v>3.17</v>
+      </c>
+      <c r="AO355">
+        <v>2.4</v>
+      </c>
+      <c r="AP355">
+        <v>3.1</v>
+      </c>
+      <c r="AQ355">
+        <v>3.1</v>
+      </c>
+      <c r="AR355">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS355">
+        <v>3.4</v>
+      </c>
+      <c r="AT355">
+        <v>3.13</v>
+      </c>
+      <c r="AU355">
+        <v>2.4</v>
+      </c>
+      <c r="AV355">
+        <v>3.5</v>
+      </c>
+      <c r="AW355">
+        <v>3.1</v>
+      </c>
+      <c r="AX355">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AY355">
+        <v>3.4</v>
+      </c>
+      <c r="AZ355">
+        <v>3</v>
+      </c>
+      <c r="BA355">
+        <v>41</v>
+      </c>
+      <c r="BB355">
+        <v>2.4</v>
+      </c>
+      <c r="BC355">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BD355">
+        <v>3.53</v>
+      </c>
+      <c r="BE355">
+        <v>3.35</v>
+      </c>
+      <c r="BF355">
+        <v>3.3</v>
+      </c>
+      <c r="BG355">
+        <v>3.06</v>
+      </c>
+      <c r="BH355">
+        <v>39</v>
+      </c>
+      <c r="BI355">
+        <v>1.87</v>
+      </c>
+      <c r="BJ355">
+        <v>1.82</v>
+      </c>
+      <c r="BK355">
+        <v>2.1</v>
+      </c>
+      <c r="BL355">
+        <v>1.99</v>
+      </c>
+      <c r="BM355">
+        <v>26</v>
+      </c>
+      <c r="BN355">
+        <v>-0.25</v>
+      </c>
+      <c r="BO355">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BP355">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BQ355">
+        <v>1.9</v>
+      </c>
+      <c r="BR355">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="356" spans="1:70">
+      <c r="A356" t="s">
+        <v>70</v>
+      </c>
+      <c r="B356" s="1">
+        <v>41399</v>
+      </c>
+      <c r="C356" t="s">
+        <v>86</v>
+      </c>
+      <c r="D356" t="s">
+        <v>95</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356" t="s">
+        <v>74</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356" t="s">
+        <v>74</v>
+      </c>
+      <c r="K356">
+        <v>16</v>
+      </c>
+      <c r="L356">
+        <v>11</v>
+      </c>
+      <c r="M356">
+        <v>8</v>
+      </c>
+      <c r="N356">
+        <v>4</v>
+      </c>
+      <c r="O356">
+        <v>10</v>
+      </c>
+      <c r="P356">
+        <v>10</v>
+      </c>
+      <c r="Q356">
+        <v>3</v>
+      </c>
+      <c r="R356">
+        <v>5</v>
+      </c>
+      <c r="S356">
+        <v>1</v>
+      </c>
+      <c r="T356">
+        <v>2</v>
+      </c>
+      <c r="U356">
+        <v>0</v>
+      </c>
+      <c r="V356">
+        <v>0</v>
+      </c>
+      <c r="W356">
+        <v>1.95</v>
+      </c>
+      <c r="X356">
+        <v>3.6</v>
+      </c>
+      <c r="Y356">
+        <v>4.2</v>
+      </c>
+      <c r="Z356">
+        <v>1.95</v>
+      </c>
+      <c r="AA356">
+        <v>3.4</v>
+      </c>
+      <c r="AB356">
+        <v>3.9</v>
+      </c>
+      <c r="AC356">
+        <v>1.95</v>
+      </c>
+      <c r="AD356">
+        <v>3.4</v>
+      </c>
+      <c r="AE356">
+        <v>3.9</v>
+      </c>
+      <c r="AF356">
+        <v>2</v>
+      </c>
+      <c r="AG356">
+        <v>3.3</v>
+      </c>
+      <c r="AH356">
+        <v>3.6</v>
+      </c>
+      <c r="AI356">
+        <v>1.95</v>
+      </c>
+      <c r="AJ356">
+        <v>3.5</v>
+      </c>
+      <c r="AK356">
+        <v>3.75</v>
+      </c>
+      <c r="AL356">
+        <v>1.92</v>
+      </c>
+      <c r="AM356">
+        <v>3.77</v>
+      </c>
+      <c r="AN356">
+        <v>4.28</v>
+      </c>
+      <c r="AO356">
+        <v>1.95</v>
+      </c>
+      <c r="AP356">
+        <v>3.2</v>
+      </c>
+      <c r="AQ356">
+        <v>4.2</v>
+      </c>
+      <c r="AR356">
+        <v>2</v>
+      </c>
+      <c r="AS356">
+        <v>3.6</v>
+      </c>
+      <c r="AT356">
+        <v>3.75</v>
+      </c>
+      <c r="AU356">
+        <v>1.95</v>
+      </c>
+      <c r="AV356">
+        <v>3.6</v>
+      </c>
+      <c r="AW356">
+        <v>4.33</v>
+      </c>
+      <c r="AX356">
+        <v>1.95</v>
+      </c>
+      <c r="AY356">
+        <v>3.5</v>
+      </c>
+      <c r="AZ356">
+        <v>4</v>
+      </c>
+      <c r="BA356">
+        <v>41</v>
+      </c>
+      <c r="BB356">
+        <v>2</v>
+      </c>
+      <c r="BC356">
+        <v>1.92</v>
+      </c>
+      <c r="BD356">
+        <v>3.77</v>
+      </c>
+      <c r="BE356">
+        <v>3.47</v>
+      </c>
+      <c r="BF356">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BG356">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="BH356">
+        <v>39</v>
+      </c>
+      <c r="BI356">
+        <v>1.87</v>
+      </c>
+      <c r="BJ356">
+        <v>1.78</v>
+      </c>
+      <c r="BK356">
+        <v>2.14</v>
+      </c>
+      <c r="BL356">
+        <v>2.04</v>
+      </c>
+      <c r="BM356">
+        <v>26</v>
+      </c>
+      <c r="BN356">
+        <v>-0.25</v>
+      </c>
+      <c r="BO356">
+        <v>1.7</v>
+      </c>
+      <c r="BP356">
+        <v>1.66</v>
+      </c>
+      <c r="BQ356">
+        <v>2.39</v>
+      </c>
+      <c r="BR356">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="357" spans="1:70">
+      <c r="A357" t="s">
+        <v>70</v>
+      </c>
+      <c r="B357" s="1">
+        <v>41399</v>
+      </c>
+      <c r="C357" t="s">
+        <v>96</v>
+      </c>
+      <c r="D357" t="s">
+        <v>93</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357" t="s">
+        <v>82</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357" t="s">
+        <v>74</v>
+      </c>
+      <c r="K357">
+        <v>10</v>
+      </c>
+      <c r="L357">
+        <v>15</v>
+      </c>
+      <c r="M357">
+        <v>4</v>
+      </c>
+      <c r="N357">
+        <v>6</v>
+      </c>
+      <c r="O357">
+        <v>14</v>
+      </c>
+      <c r="P357">
+        <v>9</v>
+      </c>
+      <c r="Q357">
+        <v>2</v>
+      </c>
+      <c r="R357">
+        <v>7</v>
+      </c>
+      <c r="S357">
+        <v>2</v>
+      </c>
+      <c r="T357">
+        <v>1</v>
+      </c>
+      <c r="U357">
+        <v>1</v>
+      </c>
+      <c r="V357">
+        <v>0</v>
+      </c>
+      <c r="W357">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X357">
+        <v>3.5</v>
+      </c>
+      <c r="Y357">
+        <v>3.5</v>
+      </c>
+      <c r="Z357">
+        <v>2.15</v>
+      </c>
+      <c r="AA357">
+        <v>3.5</v>
+      </c>
+      <c r="AB357">
+        <v>3.2</v>
+      </c>
+      <c r="AC357">
+        <v>2.15</v>
+      </c>
+      <c r="AD357">
+        <v>3.5</v>
+      </c>
+      <c r="AE357">
+        <v>3.2</v>
+      </c>
+      <c r="AF357">
+        <v>2.1</v>
+      </c>
+      <c r="AG357">
+        <v>3.3</v>
+      </c>
+      <c r="AH357">
+        <v>3.3</v>
+      </c>
+      <c r="AI357">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ357">
+        <v>3.4</v>
+      </c>
+      <c r="AK357">
+        <v>3.2</v>
+      </c>
+      <c r="AL357">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AM357">
+        <v>3.63</v>
+      </c>
+      <c r="AN357">
+        <v>3.5</v>
+      </c>
+      <c r="AO357">
+        <v>2.25</v>
+      </c>
+      <c r="AP357">
+        <v>3</v>
+      </c>
+      <c r="AQ357">
+        <v>3.5</v>
+      </c>
+      <c r="AR357">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS357">
+        <v>3.5</v>
+      </c>
+      <c r="AT357">
+        <v>3.25</v>
+      </c>
+      <c r="AU357">
+        <v>2.25</v>
+      </c>
+      <c r="AV357">
+        <v>3.6</v>
+      </c>
+      <c r="AW357">
+        <v>3.3</v>
+      </c>
+      <c r="AX357">
+        <v>2.25</v>
+      </c>
+      <c r="AY357">
+        <v>3.4</v>
+      </c>
+      <c r="AZ357">
+        <v>3.1</v>
+      </c>
+      <c r="BA357">
+        <v>39</v>
+      </c>
+      <c r="BB357">
+        <v>2.25</v>
+      </c>
+      <c r="BC357">
+        <v>2.16</v>
+      </c>
+      <c r="BD357">
+        <v>3.63</v>
+      </c>
+      <c r="BE357">
+        <v>3.4</v>
+      </c>
+      <c r="BF357">
+        <v>3.5</v>
+      </c>
+      <c r="BG357">
+        <v>3.31</v>
+      </c>
+      <c r="BH357">
+        <v>37</v>
+      </c>
+      <c r="BI357">
+        <v>1.77</v>
+      </c>
+      <c r="BJ357">
+        <v>1.72</v>
+      </c>
+      <c r="BK357">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="BL357">
+        <v>2.1</v>
+      </c>
+      <c r="BM357">
+        <v>24</v>
+      </c>
+      <c r="BN357">
+        <v>-0.25</v>
+      </c>
+      <c r="BO357">
+        <v>1.91</v>
+      </c>
+      <c r="BP357">
+        <v>1.87</v>
+      </c>
+      <c r="BQ357">
+        <v>2.06</v>
+      </c>
+      <c r="BR357">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:70">
+      <c r="A358" t="s">
+        <v>70</v>
+      </c>
+      <c r="B358" s="1">
+        <v>41430</v>
+      </c>
+      <c r="C358" t="s">
+        <v>73</v>
+      </c>
+      <c r="D358" t="s">
+        <v>84</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358" t="s">
+        <v>74</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358" t="s">
+        <v>82</v>
+      </c>
+      <c r="K358">
+        <v>14</v>
+      </c>
+      <c r="L358">
+        <v>11</v>
+      </c>
+      <c r="M358">
+        <v>7</v>
+      </c>
+      <c r="N358">
+        <v>7</v>
+      </c>
+      <c r="O358">
+        <v>6</v>
+      </c>
+      <c r="P358">
+        <v>12</v>
+      </c>
+      <c r="Q358">
+        <v>5</v>
+      </c>
+      <c r="R358">
+        <v>6</v>
+      </c>
+      <c r="S358">
+        <v>2</v>
+      </c>
+      <c r="T358">
+        <v>2</v>
+      </c>
+      <c r="U358">
+        <v>1</v>
+      </c>
+      <c r="V358">
+        <v>0</v>
+      </c>
+      <c r="W358">
+        <v>2.1</v>
+      </c>
+      <c r="X358">
+        <v>3.3</v>
+      </c>
+      <c r="Y358">
+        <v>4</v>
+      </c>
+      <c r="Z358">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA358">
+        <v>3.2</v>
+      </c>
+      <c r="AB358">
+        <v>3.8</v>
+      </c>
+      <c r="AC358">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AD358">
+        <v>3.2</v>
+      </c>
+      <c r="AE358">
+        <v>3.8</v>
+      </c>
+      <c r="AF358">
+        <v>1.85</v>
+      </c>
+      <c r="AG358">
+        <v>3.45</v>
+      </c>
+      <c r="AH358">
+        <v>4</v>
+      </c>
+      <c r="AI358">
+        <v>2.1</v>
+      </c>
+      <c r="AJ358">
+        <v>3.2</v>
+      </c>
+      <c r="AK358">
+        <v>3.75</v>
+      </c>
+      <c r="AL358">
+        <v>2.12</v>
+      </c>
+      <c r="AM358">
+        <v>3.33</v>
+      </c>
+      <c r="AN358">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AO358">
+        <v>2.15</v>
+      </c>
+      <c r="AP358">
+        <v>3</v>
+      </c>
+      <c r="AQ358">
+        <v>3.75</v>
+      </c>
+      <c r="AR358">
+        <v>2</v>
+      </c>
+      <c r="AS358">
+        <v>3.4</v>
+      </c>
+      <c r="AT358">
+        <v>4</v>
+      </c>
+      <c r="AU358">
+        <v>2.15</v>
+      </c>
+      <c r="AV358">
+        <v>3.25</v>
+      </c>
+      <c r="AW358">
+        <v>4</v>
+      </c>
+      <c r="AX358">
+        <v>2</v>
+      </c>
+      <c r="AY358">
+        <v>3.3</v>
+      </c>
+      <c r="AZ358">
+        <v>3.8</v>
+      </c>
+      <c r="BA358">
+        <v>41</v>
+      </c>
+      <c r="BB358">
+        <v>2.15</v>
+      </c>
+      <c r="BC358">
+        <v>2.06</v>
+      </c>
+      <c r="BD358">
+        <v>3.45</v>
+      </c>
+      <c r="BE358">
+        <v>3.21</v>
+      </c>
+      <c r="BF358">
+        <v>4.25</v>
+      </c>
+      <c r="BG358">
+        <v>3.79</v>
+      </c>
+      <c r="BH358">
+        <v>37</v>
+      </c>
+      <c r="BI358">
+        <v>2.6</v>
+      </c>
+      <c r="BJ358">
+        <v>2.34</v>
+      </c>
+      <c r="BK358">
+        <v>1.67</v>
+      </c>
+      <c r="BL358">
+        <v>1.58</v>
+      </c>
+      <c r="BM358">
+        <v>23</v>
+      </c>
+      <c r="BN358">
+        <v>-0.25</v>
+      </c>
+      <c r="BO358">
+        <v>1.81</v>
+      </c>
+      <c r="BP358">
+        <v>1.78</v>
+      </c>
+      <c r="BQ358">
+        <v>2.15</v>
+      </c>
+      <c r="BR358">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:70">
+      <c r="A359" t="s">
+        <v>70</v>
+      </c>
+      <c r="B359" s="1">
+        <v>41460</v>
+      </c>
+      <c r="C359" t="s">
+        <v>90</v>
+      </c>
+      <c r="D359" t="s">
+        <v>85</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359" t="s">
+        <v>77</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359" t="s">
+        <v>77</v>
+      </c>
+      <c r="K359">
+        <v>21</v>
+      </c>
+      <c r="L359">
+        <v>20</v>
+      </c>
+      <c r="M359">
+        <v>9</v>
+      </c>
+      <c r="N359">
+        <v>11</v>
+      </c>
+      <c r="O359">
+        <v>10</v>
+      </c>
+      <c r="P359">
+        <v>9</v>
+      </c>
+      <c r="Q359">
+        <v>6</v>
+      </c>
+      <c r="R359">
+        <v>8</v>
+      </c>
+      <c r="S359">
+        <v>2</v>
+      </c>
+      <c r="T359">
+        <v>1</v>
+      </c>
+      <c r="U359">
+        <v>0</v>
+      </c>
+      <c r="V359">
+        <v>0</v>
+      </c>
+      <c r="W359">
+        <v>1.4</v>
+      </c>
+      <c r="X359">
+        <v>5</v>
+      </c>
+      <c r="Y359">
+        <v>9</v>
+      </c>
+      <c r="Z359">
+        <v>1.34</v>
+      </c>
+      <c r="AA359">
+        <v>5</v>
+      </c>
+      <c r="AB359">
+        <v>8</v>
+      </c>
+      <c r="AC359">
+        <v>1.34</v>
+      </c>
+      <c r="AD359">
+        <v>5</v>
+      </c>
+      <c r="AE359">
+        <v>8</v>
+      </c>
+      <c r="AF359">
+        <v>1.35</v>
+      </c>
+      <c r="AG359">
+        <v>4.8</v>
+      </c>
+      <c r="AH359">
+        <v>7.6</v>
+      </c>
+      <c r="AI359">
+        <v>1.33</v>
+      </c>
+      <c r="AJ359">
+        <v>5</v>
+      </c>
+      <c r="AK359">
+        <v>9</v>
+      </c>
+      <c r="AL359">
+        <v>1.39</v>
+      </c>
+      <c r="AM359">
+        <v>5.26</v>
+      </c>
+      <c r="AN359">
+        <v>8.84</v>
+      </c>
+      <c r="AO359">
+        <v>1.36</v>
+      </c>
+      <c r="AP359">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AQ359">
+        <v>9</v>
+      </c>
+      <c r="AR359">
+        <v>1.33</v>
+      </c>
+      <c r="AS359">
+        <v>5.25</v>
+      </c>
+      <c r="AT359">
+        <v>10</v>
+      </c>
+      <c r="AU359">
+        <v>1.4</v>
+      </c>
+      <c r="AV359">
+        <v>4.75</v>
+      </c>
+      <c r="AW359">
+        <v>9.5</v>
+      </c>
+      <c r="AX359">
+        <v>1.33</v>
+      </c>
+      <c r="AY359">
+        <v>5</v>
+      </c>
+      <c r="AZ359">
+        <v>9</v>
+      </c>
+      <c r="BA359">
+        <v>40</v>
+      </c>
+      <c r="BB359">
+        <v>1.42</v>
+      </c>
+      <c r="BC359">
+        <v>1.37</v>
+      </c>
+      <c r="BD359">
+        <v>5.26</v>
+      </c>
+      <c r="BE359">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="BF359">
+        <v>10</v>
+      </c>
+      <c r="BG359">
+        <v>8.68</v>
+      </c>
+      <c r="BH359">
+        <v>28</v>
+      </c>
+      <c r="BI359">
+        <v>1.62</v>
+      </c>
+      <c r="BJ359">
+        <v>1.53</v>
+      </c>
+      <c r="BK359">
+        <v>2.65</v>
+      </c>
+      <c r="BL359">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="BM359">
+        <v>27</v>
+      </c>
+      <c r="BN359">
+        <v>-1.5</v>
+      </c>
+      <c r="BO359">
+        <v>2.15</v>
+      </c>
+      <c r="BP359">
+        <v>2.08</v>
+      </c>
+      <c r="BQ359">
+        <v>1.86</v>
+      </c>
+      <c r="BR359">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:70">
+      <c r="A360" t="s">
+        <v>70</v>
+      </c>
+      <c r="B360" s="1">
+        <v>41460</v>
+      </c>
+      <c r="C360" t="s">
+        <v>92</v>
+      </c>
+      <c r="D360" t="s">
+        <v>81</v>
+      </c>
+      <c r="E360">
+        <v>2</v>
+      </c>
+      <c r="F360">
+        <v>3</v>
+      </c>
+      <c r="G360" t="s">
+        <v>82</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360" t="s">
+        <v>77</v>
+      </c>
+      <c r="K360">
+        <v>14</v>
+      </c>
+      <c r="L360">
+        <v>10</v>
+      </c>
+      <c r="M360">
+        <v>11</v>
+      </c>
+      <c r="N360">
+        <v>6</v>
+      </c>
+      <c r="O360">
+        <v>14</v>
+      </c>
+      <c r="P360">
+        <v>13</v>
+      </c>
+      <c r="Q360">
+        <v>4</v>
+      </c>
+      <c r="R360">
+        <v>4</v>
+      </c>
+      <c r="S360">
+        <v>2</v>
+      </c>
+      <c r="T360">
+        <v>2</v>
+      </c>
+      <c r="U360">
+        <v>0</v>
+      </c>
+      <c r="V360">
+        <v>0</v>
+      </c>
+      <c r="W360">
+        <v>1.83</v>
+      </c>
+      <c r="X360">
+        <v>3.75</v>
+      </c>
+      <c r="Y360">
+        <v>4.75</v>
+      </c>
+      <c r="Z360">
+        <v>1.72</v>
+      </c>
+      <c r="AA360">
+        <v>3.6</v>
+      </c>
+      <c r="AB360">
+        <v>4.75</v>
+      </c>
+      <c r="AC360">
+        <v>1.72</v>
+      </c>
+      <c r="AD360">
+        <v>3.6</v>
+      </c>
+      <c r="AE360">
+        <v>4.75</v>
+      </c>
+      <c r="AF360">
+        <v>1.8</v>
+      </c>
+      <c r="AG360">
+        <v>3.5</v>
+      </c>
+      <c r="AH360">
+        <v>4.2</v>
+      </c>
+      <c r="AI360">
+        <v>1.8</v>
+      </c>
+      <c r="AJ360">
+        <v>3.6</v>
+      </c>
+      <c r="AK360">
+        <v>4.33</v>
+      </c>
+      <c r="AL360">
+        <v>1.83</v>
+      </c>
+      <c r="AM360">
+        <v>3.83</v>
+      </c>
+      <c r="AN360">
+        <v>4.68</v>
+      </c>
+      <c r="AO360">
+        <v>1.8</v>
+      </c>
+      <c r="AP360">
+        <v>3.5</v>
+      </c>
+      <c r="AQ360">
+        <v>4.5</v>
+      </c>
+      <c r="AR360">
+        <v>1.8</v>
+      </c>
+      <c r="AS360">
+        <v>3.6</v>
+      </c>
+      <c r="AT360">
+        <v>4.8</v>
+      </c>
+      <c r="AU360">
+        <v>1.85</v>
+      </c>
+      <c r="AV360">
+        <v>3.5</v>
+      </c>
+      <c r="AW360">
+        <v>5</v>
+      </c>
+      <c r="AX360">
+        <v>1.8</v>
+      </c>
+      <c r="AY360">
+        <v>3.5</v>
+      </c>
+      <c r="AZ360">
+        <v>4.2</v>
+      </c>
+      <c r="BA360">
+        <v>40</v>
+      </c>
+      <c r="BB360">
+        <v>1.85</v>
+      </c>
+      <c r="BC360">
+        <v>1.79</v>
+      </c>
+      <c r="BD360">
+        <v>3.85</v>
+      </c>
+      <c r="BE360">
+        <v>3.63</v>
+      </c>
+      <c r="BF360">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BG360">
+        <v>4.51</v>
+      </c>
+      <c r="BH360">
+        <v>37</v>
+      </c>
+      <c r="BI360">
+        <v>1.96</v>
+      </c>
+      <c r="BJ360">
+        <v>1.89</v>
+      </c>
+      <c r="BK360">
+        <v>2</v>
+      </c>
+      <c r="BL360">
+        <v>1.91</v>
+      </c>
+      <c r="BM360">
+        <v>24</v>
+      </c>
+      <c r="BN360">
+        <v>-0.75</v>
+      </c>
+      <c r="BO360">
+        <v>2.1</v>
+      </c>
+      <c r="BP360">
+        <v>2.04</v>
+      </c>
+      <c r="BQ360">
+        <v>1.87</v>
+      </c>
+      <c r="BR360">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="361" spans="1:70">
+      <c r="A361" t="s">
+        <v>70</v>
+      </c>
+      <c r="B361" s="1">
+        <v>41491</v>
+      </c>
+      <c r="C361" t="s">
+        <v>93</v>
+      </c>
+      <c r="D361" t="s">
+        <v>79</v>
+      </c>
+      <c r="E361">
+        <v>2</v>
+      </c>
+      <c r="F361">
+        <v>2</v>
+      </c>
+      <c r="G361" t="s">
+        <v>74</v>
+      </c>
+      <c r="H361">
+        <v>2</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361" t="s">
+        <v>77</v>
+      </c>
+      <c r="K361">
+        <v>15</v>
+      </c>
+      <c r="L361">
+        <v>13</v>
+      </c>
+      <c r="M361">
+        <v>8</v>
+      </c>
+      <c r="N361">
+        <v>6</v>
+      </c>
+      <c r="O361">
+        <v>6</v>
+      </c>
+      <c r="P361">
+        <v>16</v>
+      </c>
+      <c r="Q361">
+        <v>6</v>
+      </c>
+      <c r="R361">
+        <v>5</v>
+      </c>
+      <c r="S361">
+        <v>1</v>
+      </c>
+      <c r="T361">
+        <v>2</v>
+      </c>
+      <c r="U361">
+        <v>0</v>
+      </c>
+      <c r="V361">
+        <v>0</v>
+      </c>
+      <c r="W361">
+        <v>1.95</v>
+      </c>
+      <c r="X361">
+        <v>3.75</v>
+      </c>
+      <c r="Y361">
+        <v>4</v>
+      </c>
+      <c r="Z361">
+        <v>1.87</v>
+      </c>
+      <c r="AA361">
+        <v>3.6</v>
+      </c>
+      <c r="AB361">
+        <v>3.9</v>
+      </c>
+      <c r="AC361">
+        <v>1.87</v>
+      </c>
+      <c r="AD361">
+        <v>3.6</v>
+      </c>
+      <c r="AE361">
+        <v>3.9</v>
+      </c>
+      <c r="AF361">
+        <v>1.8</v>
+      </c>
+      <c r="AG361">
+        <v>3.5</v>
+      </c>
+      <c r="AH361">
+        <v>4.2</v>
+      </c>
+      <c r="AI361">
+        <v>1.95</v>
+      </c>
+      <c r="AJ361">
+        <v>3.6</v>
+      </c>
+      <c r="AK361">
+        <v>3.6</v>
+      </c>
+      <c r="AL361">
+        <v>1.99</v>
+      </c>
+      <c r="AM361">
+        <v>3.66</v>
+      </c>
+      <c r="AN361">
+        <v>4.07</v>
+      </c>
+      <c r="AO361">
+        <v>1.95</v>
+      </c>
+      <c r="AP361">
+        <v>3.3</v>
+      </c>
+      <c r="AQ361">
+        <v>4</v>
+      </c>
+      <c r="AR361">
+        <v>1.95</v>
+      </c>
+      <c r="AS361">
+        <v>3.75</v>
+      </c>
+      <c r="AT361">
+        <v>3.8</v>
+      </c>
+      <c r="AU361">
+        <v>2</v>
+      </c>
+      <c r="AV361">
+        <v>3.75</v>
+      </c>
+      <c r="AW361">
+        <v>3.8</v>
+      </c>
+      <c r="AX361">
+        <v>1.91</v>
+      </c>
+      <c r="AY361">
+        <v>3.6</v>
+      </c>
+      <c r="AZ361">
+        <v>3.75</v>
+      </c>
+      <c r="BA361">
+        <v>40</v>
+      </c>
+      <c r="BB361">
+        <v>2</v>
+      </c>
+      <c r="BC361">
+        <v>1.94</v>
+      </c>
+      <c r="BD361">
+        <v>3.75</v>
+      </c>
+      <c r="BE361">
+        <v>3.52</v>
+      </c>
+      <c r="BF361">
+        <v>4.2</v>
+      </c>
+      <c r="BG361">
+        <v>3.88</v>
+      </c>
+      <c r="BH361">
+        <v>37</v>
+      </c>
+      <c r="BI361">
+        <v>1.77</v>
+      </c>
+      <c r="BJ361">
+        <v>1.71</v>
+      </c>
+      <c r="BK361">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="BL361">
+        <v>2.12</v>
+      </c>
+      <c r="BM361">
+        <v>23</v>
+      </c>
+      <c r="BN361">
+        <v>-0.5</v>
+      </c>
+      <c r="BO361">
+        <v>2</v>
+      </c>
+      <c r="BP361">
+        <v>1.96</v>
+      </c>
+      <c r="BQ361">
+        <v>1.95</v>
+      </c>
+      <c r="BR361">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="362" spans="1:70">
+      <c r="A362" t="s">
+        <v>70</v>
+      </c>
+      <c r="B362" s="1">
+        <v>41583</v>
+      </c>
+      <c r="C362" t="s">
+        <v>88</v>
+      </c>
+      <c r="D362" t="s">
+        <v>93</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>2</v>
+      </c>
+      <c r="G362" t="s">
+        <v>82</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362" t="s">
+        <v>77</v>
+      </c>
+      <c r="K362">
+        <v>12</v>
+      </c>
+      <c r="L362">
+        <v>11</v>
+      </c>
+      <c r="M362">
+        <v>7</v>
+      </c>
+      <c r="N362">
+        <v>8</v>
+      </c>
+      <c r="O362">
+        <v>13</v>
+      </c>
+      <c r="P362">
+        <v>8</v>
+      </c>
+      <c r="Q362">
+        <v>6</v>
+      </c>
+      <c r="R362">
+        <v>7</v>
+      </c>
+      <c r="S362">
+        <v>2</v>
+      </c>
+      <c r="T362">
+        <v>3</v>
+      </c>
+      <c r="U362">
+        <v>1</v>
+      </c>
+      <c r="V362">
+        <v>1</v>
+      </c>
+      <c r="W362">
+        <v>4.5</v>
+      </c>
+      <c r="X362">
+        <v>3.8</v>
+      </c>
+      <c r="Y362">
+        <v>1.85</v>
+      </c>
+      <c r="Z362">
+        <v>4.33</v>
+      </c>
+      <c r="AA362">
+        <v>3.75</v>
+      </c>
+      <c r="AB362">
+        <v>1.75</v>
+      </c>
+      <c r="AC362">
+        <v>4.33</v>
+      </c>
+      <c r="AD362">
+        <v>3.75</v>
+      </c>
+      <c r="AE362">
+        <v>1.75</v>
+      </c>
+      <c r="AF362">
+        <v>4.3</v>
+      </c>
+      <c r="AG362">
+        <v>3.8</v>
+      </c>
+      <c r="AH362">
+        <v>1.7</v>
+      </c>
+      <c r="AI362">
+        <v>4.33</v>
+      </c>
+      <c r="AJ362">
+        <v>3.6</v>
+      </c>
+      <c r="AK362">
+        <v>1.8</v>
+      </c>
+      <c r="AL362">
+        <v>4.68</v>
+      </c>
+      <c r="AM362">
+        <v>3.77</v>
+      </c>
+      <c r="AN362">
+        <v>1.85</v>
+      </c>
+      <c r="AO362">
+        <v>4.5</v>
+      </c>
+      <c r="AP362">
+        <v>3.3</v>
+      </c>
+      <c r="AQ362">
+        <v>1.85</v>
+      </c>
+      <c r="AR362">
+        <v>4.33</v>
+      </c>
+      <c r="AS362">
+        <v>3.75</v>
+      </c>
+      <c r="AT362">
+        <v>1.83</v>
+      </c>
+      <c r="AU362">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AV362">
+        <v>3.8</v>
+      </c>
+      <c r="AW362">
+        <v>1.85</v>
+      </c>
+      <c r="AX362">
+        <v>4</v>
+      </c>
+      <c r="AY362">
+        <v>3.75</v>
+      </c>
+      <c r="AZ362">
+        <v>1.83</v>
+      </c>
+      <c r="BA362">
+        <v>41</v>
+      </c>
+      <c r="BB362">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="BC362">
+        <v>4.33</v>
+      </c>
+      <c r="BD362">
+        <v>3.84</v>
+      </c>
+      <c r="BE362">
+        <v>3.6</v>
+      </c>
+      <c r="BF362">
+        <v>1.86</v>
+      </c>
+      <c r="BG362">
+        <v>1.82</v>
+      </c>
+      <c r="BH362">
+        <v>37</v>
+      </c>
+      <c r="BI362">
+        <v>1.76</v>
+      </c>
+      <c r="BJ362">
+        <v>1.69</v>
+      </c>
+      <c r="BK362">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="BL362">
+        <v>2.14</v>
+      </c>
+      <c r="BM362">
+        <v>25</v>
+      </c>
+      <c r="BN362">
+        <v>0.75</v>
+      </c>
+      <c r="BO362">
+        <v>1.85</v>
+      </c>
+      <c r="BP362">
+        <v>1.81</v>
+      </c>
+      <c r="BQ362">
+        <v>2.11</v>
+      </c>
+      <c r="BR362">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="363" spans="1:70">
+      <c r="A363" t="s">
+        <v>70</v>
+      </c>
+      <c r="B363" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C363" t="s">
+        <v>95</v>
+      </c>
+      <c r="D363" t="s">
+        <v>87</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363" t="s">
+        <v>77</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363" t="s">
+        <v>77</v>
+      </c>
+      <c r="K363">
+        <v>23</v>
+      </c>
+      <c r="L363">
+        <v>7</v>
+      </c>
+      <c r="M363">
+        <v>13</v>
+      </c>
+      <c r="N363">
+        <v>2</v>
+      </c>
+      <c r="O363">
+        <v>8</v>
+      </c>
+      <c r="P363">
+        <v>11</v>
+      </c>
+      <c r="Q363">
+        <v>7</v>
+      </c>
+      <c r="R363">
+        <v>1</v>
+      </c>
+      <c r="S363">
+        <v>1</v>
+      </c>
+      <c r="T363">
+        <v>2</v>
+      </c>
+      <c r="U363">
+        <v>0</v>
+      </c>
+      <c r="V363">
+        <v>0</v>
+      </c>
+      <c r="W363">
+        <v>1.5</v>
+      </c>
+      <c r="X363">
+        <v>4.5</v>
+      </c>
+      <c r="Y363">
+        <v>7.5</v>
+      </c>
+      <c r="Z363">
+        <v>1.45</v>
+      </c>
+      <c r="AA363">
+        <v>4.25</v>
+      </c>
+      <c r="AB363">
+        <v>6.75</v>
+      </c>
+      <c r="AC363">
+        <v>1.45</v>
+      </c>
+      <c r="AD363">
+        <v>4.25</v>
+      </c>
+      <c r="AE363">
+        <v>6.75</v>
+      </c>
+      <c r="AF363">
+        <v>1.45</v>
+      </c>
+      <c r="AG363">
+        <v>4</v>
+      </c>
+      <c r="AH363">
+        <v>7</v>
+      </c>
+      <c r="AI363">
+        <v>1.53</v>
+      </c>
+      <c r="AJ363">
+        <v>4.2</v>
+      </c>
+      <c r="AK363">
+        <v>6</v>
+      </c>
+      <c r="AL363">
+        <v>1.5</v>
+      </c>
+      <c r="AM363">
+        <v>4.57</v>
+      </c>
+      <c r="AN363">
+        <v>7.5</v>
+      </c>
+      <c r="AO363">
+        <v>1.53</v>
+      </c>
+      <c r="AP363">
+        <v>4</v>
+      </c>
+      <c r="AQ363">
+        <v>6</v>
+      </c>
+      <c r="AR363">
+        <v>1.5</v>
+      </c>
+      <c r="AS363">
+        <v>4.33</v>
+      </c>
+      <c r="AT363">
+        <v>7</v>
+      </c>
+      <c r="AU363">
+        <v>1.53</v>
+      </c>
+      <c r="AV363">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AW363">
+        <v>7</v>
+      </c>
+      <c r="AX363">
+        <v>1.5</v>
+      </c>
+      <c r="AY363">
+        <v>4</v>
+      </c>
+      <c r="AZ363">
+        <v>7</v>
+      </c>
+      <c r="BA363">
+        <v>40</v>
+      </c>
+      <c r="BB363">
+        <v>1.53</v>
+      </c>
+      <c r="BC363">
+        <v>1.48</v>
+      </c>
+      <c r="BD363">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BE363">
+        <v>4.16</v>
+      </c>
+      <c r="BF363">
+        <v>7.9</v>
+      </c>
+      <c r="BG363">
+        <v>7.02</v>
+      </c>
+      <c r="BH363">
+        <v>36</v>
+      </c>
+      <c r="BI363">
+        <v>1.81</v>
+      </c>
+      <c r="BJ363">
+        <v>1.75</v>
+      </c>
+      <c r="BK363">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL363">
+        <v>2.06</v>
+      </c>
+      <c r="BM363">
+        <v>26</v>
+      </c>
+      <c r="BN363">
+        <v>-1</v>
+      </c>
+      <c r="BO363">
+        <v>1.84</v>
+      </c>
+      <c r="BP363">
+        <v>1.78</v>
+      </c>
+      <c r="BQ363">
+        <v>2.16</v>
+      </c>
+      <c r="BR363">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:70">
+      <c r="A364" t="s">
+        <v>70</v>
+      </c>
+      <c r="B364" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C364" t="s">
+        <v>75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>86</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>3</v>
+      </c>
+      <c r="G364" t="s">
+        <v>82</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364" t="s">
+        <v>74</v>
+      </c>
+      <c r="K364">
+        <v>10</v>
+      </c>
+      <c r="L364">
+        <v>20</v>
+      </c>
+      <c r="M364">
+        <v>8</v>
+      </c>
+      <c r="N364">
+        <v>14</v>
+      </c>
+      <c r="O364">
+        <v>2</v>
+      </c>
+      <c r="P364">
+        <v>10</v>
+      </c>
+      <c r="Q364">
+        <v>7</v>
+      </c>
+      <c r="R364">
+        <v>8</v>
+      </c>
+      <c r="S364">
+        <v>0</v>
+      </c>
+      <c r="T364">
+        <v>1</v>
+      </c>
+      <c r="U364">
+        <v>0</v>
+      </c>
+      <c r="V364">
+        <v>0</v>
+      </c>
+      <c r="W364">
+        <v>3.9</v>
+      </c>
+      <c r="X364">
+        <v>3.6</v>
+      </c>
+      <c r="Y364">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Z364">
+        <v>3.7</v>
+      </c>
+      <c r="AA364">
+        <v>3.5</v>
+      </c>
+      <c r="AB364">
+        <v>1.95</v>
+      </c>
+      <c r="AC364">
+        <v>3.7</v>
+      </c>
+      <c r="AD364">
+        <v>3.5</v>
+      </c>
+      <c r="AE364">
+        <v>1.95</v>
+      </c>
+      <c r="AF364">
+        <v>3.2</v>
+      </c>
+      <c r="AG364">
+        <v>3.3</v>
+      </c>
+      <c r="AH364">
+        <v>2.15</v>
+      </c>
+      <c r="AI364">
+        <v>3.75</v>
+      </c>
+      <c r="AJ364">
+        <v>3.6</v>
+      </c>
+      <c r="AK364">
+        <v>1.91</v>
+      </c>
+      <c r="AL364">
+        <v>4</v>
+      </c>
+      <c r="AM364">
+        <v>3.61</v>
+      </c>
+      <c r="AN364">
+        <v>2.02</v>
+      </c>
+      <c r="AO364">
+        <v>3.5</v>
+      </c>
+      <c r="AP364">
+        <v>3.3</v>
+      </c>
+      <c r="AQ364">
+        <v>2.1</v>
+      </c>
+      <c r="AR364">
+        <v>4</v>
+      </c>
+      <c r="AS364">
+        <v>3.6</v>
+      </c>
+      <c r="AT364">
+        <v>1.91</v>
+      </c>
+      <c r="AU364">
+        <v>3.7</v>
+      </c>
+      <c r="AV364">
+        <v>3.6</v>
+      </c>
+      <c r="AW364">
+        <v>2.1</v>
+      </c>
+      <c r="AX364">
+        <v>3.6</v>
+      </c>
+      <c r="AY364">
+        <v>3.4</v>
+      </c>
+      <c r="AZ364">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BA364">
+        <v>40</v>
+      </c>
+      <c r="BB364">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="BC364">
+        <v>3.73</v>
+      </c>
+      <c r="BD364">
+        <v>3.65</v>
+      </c>
+      <c r="BE364">
+        <v>3.43</v>
+      </c>
+      <c r="BF364">
+        <v>2.15</v>
+      </c>
+      <c r="BG364">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BH364">
+        <v>36</v>
+      </c>
+      <c r="BI364">
+        <v>1.75</v>
+      </c>
+      <c r="BJ364">
+        <v>1.67</v>
+      </c>
+      <c r="BK364">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="BL364">
+        <v>2.17</v>
+      </c>
+      <c r="BM364">
+        <v>23</v>
+      </c>
+      <c r="BN364">
+        <v>0.25</v>
+      </c>
+      <c r="BO364">
+        <v>2.23</v>
+      </c>
+      <c r="BP364">
+        <v>2.15</v>
+      </c>
+      <c r="BQ364">
+        <v>1.79</v>
+      </c>
+      <c r="BR364">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="365" spans="1:70">
+      <c r="A365" t="s">
+        <v>70</v>
+      </c>
+      <c r="B365" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C365" t="s">
+        <v>96</v>
+      </c>
+      <c r="D365" t="s">
+        <v>81</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365" t="s">
+        <v>77</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365" t="s">
+        <v>77</v>
+      </c>
+      <c r="K365">
+        <v>16</v>
+      </c>
+      <c r="L365">
+        <v>5</v>
+      </c>
+      <c r="M365">
+        <v>9</v>
+      </c>
+      <c r="N365">
+        <v>2</v>
+      </c>
+      <c r="O365">
+        <v>5</v>
+      </c>
+      <c r="P365">
+        <v>6</v>
+      </c>
+      <c r="Q365">
+        <v>7</v>
+      </c>
+      <c r="R365">
+        <v>5</v>
+      </c>
+      <c r="S365">
+        <v>0</v>
+      </c>
+      <c r="T365">
+        <v>0</v>
+      </c>
+      <c r="U365">
+        <v>0</v>
+      </c>
+      <c r="V365">
+        <v>0</v>
+      </c>
+      <c r="W365">
+        <v>1.3</v>
+      </c>
+      <c r="X365">
+        <v>5.75</v>
+      </c>
+      <c r="Y365">
+        <v>12</v>
+      </c>
+      <c r="Z365">
+        <v>1.25</v>
+      </c>
+      <c r="AA365">
+        <v>5.75</v>
+      </c>
+      <c r="AB365">
+        <v>10.5</v>
+      </c>
+      <c r="AC365">
+        <v>1.25</v>
+      </c>
+      <c r="AD365">
+        <v>5.75</v>
+      </c>
+      <c r="AE365">
+        <v>10.5</v>
+      </c>
+      <c r="AF365">
+        <v>1.27</v>
+      </c>
+      <c r="AG365">
+        <v>5.2</v>
+      </c>
+      <c r="AH365">
+        <v>10</v>
+      </c>
+      <c r="AI365">
+        <v>1.3</v>
+      </c>
+      <c r="AJ365">
+        <v>5.5</v>
+      </c>
+      <c r="AK365">
+        <v>9.5</v>
+      </c>
+      <c r="AL365">
+        <v>1.31</v>
+      </c>
+      <c r="AM365">
+        <v>5.9</v>
+      </c>
+      <c r="AN365">
+        <v>11.5</v>
+      </c>
+      <c r="AO365">
+        <v>1.33</v>
+      </c>
+      <c r="AP365">
+        <v>4.8</v>
+      </c>
+      <c r="AQ365">
+        <v>10</v>
+      </c>
+      <c r="AR365">
+        <v>1.29</v>
+      </c>
+      <c r="AS365">
+        <v>5.5</v>
+      </c>
+      <c r="AT365">
+        <v>12</v>
+      </c>
+      <c r="AU365">
+        <v>1.33</v>
+      </c>
+      <c r="AV365">
+        <v>5.75</v>
+      </c>
+      <c r="AW365">
+        <v>10</v>
+      </c>
+      <c r="AX365">
+        <v>1.29</v>
+      </c>
+      <c r="AY365">
+        <v>5.5</v>
+      </c>
+      <c r="AZ365">
+        <v>9</v>
+      </c>
+      <c r="BA365">
+        <v>40</v>
+      </c>
+      <c r="BB365">
+        <v>1.33</v>
+      </c>
+      <c r="BC365">
+        <v>1.28</v>
+      </c>
+      <c r="BD365">
+        <v>6</v>
+      </c>
+      <c r="BE365">
+        <v>5.44</v>
+      </c>
+      <c r="BF365">
+        <v>12.14</v>
+      </c>
+      <c r="BG365">
+        <v>10.6</v>
+      </c>
+      <c r="BH365">
+        <v>28</v>
+      </c>
+      <c r="BI365">
+        <v>1.57</v>
+      </c>
+      <c r="BJ365">
+        <v>1.49</v>
+      </c>
+      <c r="BK365">
+        <v>2.72</v>
+      </c>
+      <c r="BL365">
+        <v>2.5</v>
+      </c>
+      <c r="BM365">
+        <v>27</v>
+      </c>
+      <c r="BN365">
+        <v>-1.5</v>
+      </c>
+      <c r="BO365">
+        <v>1.83</v>
+      </c>
+      <c r="BP365">
+        <v>1.79</v>
+      </c>
+      <c r="BQ365">
+        <v>2.15</v>
+      </c>
+      <c r="BR365">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:70">
+      <c r="A366" t="s">
+        <v>70</v>
+      </c>
+      <c r="B366" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C366" t="s">
+        <v>76</v>
+      </c>
+      <c r="D366" t="s">
+        <v>85</v>
+      </c>
+      <c r="E366">
+        <v>4</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366" t="s">
+        <v>77</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366" t="s">
+        <v>77</v>
+      </c>
+      <c r="K366">
+        <v>11</v>
+      </c>
+      <c r="L366">
+        <v>8</v>
+      </c>
+      <c r="M366">
+        <v>8</v>
+      </c>
+      <c r="N366">
+        <v>5</v>
+      </c>
+      <c r="O366">
+        <v>10</v>
+      </c>
+      <c r="P366">
+        <v>7</v>
+      </c>
+      <c r="Q366">
+        <v>8</v>
+      </c>
+      <c r="R366">
+        <v>2</v>
+      </c>
+      <c r="S366">
+        <v>2</v>
+      </c>
+      <c r="T366">
+        <v>1</v>
+      </c>
+      <c r="U366">
+        <v>0</v>
+      </c>
+      <c r="V366">
+        <v>0</v>
+      </c>
+      <c r="W366">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X366">
+        <v>3.4</v>
+      </c>
+      <c r="Y366">
+        <v>3.6</v>
+      </c>
+      <c r="Z366">
+        <v>2.1</v>
+      </c>
+      <c r="AA366">
+        <v>3.3</v>
+      </c>
+      <c r="AB366">
+        <v>3.4</v>
+      </c>
+      <c r="AC366">
+        <v>2.1</v>
+      </c>
+      <c r="AD366">
+        <v>3.3</v>
+      </c>
+      <c r="AE366">
+        <v>3.4</v>
+      </c>
+      <c r="AF366">
+        <v>1.9</v>
+      </c>
+      <c r="AG366">
+        <v>3.5</v>
+      </c>
+      <c r="AH366">
+        <v>3.7</v>
+      </c>
+      <c r="AI366">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ366">
+        <v>3.5</v>
+      </c>
+      <c r="AK366">
+        <v>3.2</v>
+      </c>
+      <c r="AL366">
+        <v>2.21</v>
+      </c>
+      <c r="AM366">
+        <v>3.44</v>
+      </c>
+      <c r="AN366">
+        <v>3.6</v>
+      </c>
+      <c r="AO366">
+        <v>2.25</v>
+      </c>
+      <c r="AP366">
+        <v>3.2</v>
+      </c>
+      <c r="AQ366">
+        <v>3.3</v>
+      </c>
+      <c r="AR366">
+        <v>2.1</v>
+      </c>
+      <c r="AS366">
+        <v>3.5</v>
+      </c>
+      <c r="AT366">
+        <v>3.5</v>
+      </c>
+      <c r="AU366">
+        <v>2.25</v>
+      </c>
+      <c r="AV366">
+        <v>3.5</v>
+      </c>
+      <c r="AW366">
+        <v>3.4</v>
+      </c>
+      <c r="AX366">
+        <v>2.1</v>
+      </c>
+      <c r="AY366">
+        <v>3.4</v>
+      </c>
+      <c r="AZ366">
+        <v>3.5</v>
+      </c>
+      <c r="BA366">
+        <v>40</v>
+      </c>
+      <c r="BB366">
+        <v>2.25</v>
+      </c>
+      <c r="BC366">
+        <v>2.13</v>
+      </c>
+      <c r="BD366">
+        <v>3.5</v>
+      </c>
+      <c r="BE366">
+        <v>3.37</v>
+      </c>
+      <c r="BF366">
+        <v>3.7</v>
+      </c>
+      <c r="BG366">
+        <v>3.44</v>
+      </c>
+      <c r="BH366">
+        <v>38</v>
+      </c>
+      <c r="BI366">
+        <v>1.97</v>
+      </c>
+      <c r="BJ366">
+        <v>1.89</v>
+      </c>
+      <c r="BK366">
+        <v>2</v>
+      </c>
+      <c r="BL366">
+        <v>1.91</v>
+      </c>
+      <c r="BM366">
+        <v>25</v>
+      </c>
+      <c r="BN366">
+        <v>-0.25</v>
+      </c>
+      <c r="BO366">
+        <v>1.9</v>
+      </c>
+      <c r="BP366">
+        <v>1.85</v>
+      </c>
+      <c r="BQ366">
+        <v>2.08</v>
+      </c>
+      <c r="BR366">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="367" spans="1:70">
+      <c r="A367" t="s">
+        <v>70</v>
+      </c>
+      <c r="B367" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C367" t="s">
+        <v>80</v>
+      </c>
+      <c r="D367" t="s">
+        <v>78</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>2</v>
+      </c>
+      <c r="G367" t="s">
+        <v>82</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>2</v>
+      </c>
+      <c r="J367" t="s">
+        <v>82</v>
+      </c>
+      <c r="K367">
+        <v>8</v>
+      </c>
+      <c r="L367">
+        <v>10</v>
+      </c>
+      <c r="M367">
+        <v>3</v>
+      </c>
+      <c r="N367">
+        <v>7</v>
+      </c>
+      <c r="O367">
+        <v>8</v>
+      </c>
+      <c r="P367">
+        <v>8</v>
+      </c>
+      <c r="Q367">
+        <v>2</v>
+      </c>
+      <c r="R367">
+        <v>2</v>
+      </c>
+      <c r="S367">
+        <v>1</v>
+      </c>
+      <c r="T367">
+        <v>3</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
+      </c>
+      <c r="V367">
+        <v>1</v>
+      </c>
+      <c r="W367">
+        <v>3.4</v>
+      </c>
+      <c r="X367">
+        <v>3.4</v>
+      </c>
+      <c r="Y367">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z367">
+        <v>3.1</v>
+      </c>
+      <c r="AA367">
+        <v>3.4</v>
+      </c>
+      <c r="AB367">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC367">
+        <v>3.1</v>
+      </c>
+      <c r="AD367">
+        <v>3.4</v>
+      </c>
+      <c r="AE367">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF367">
+        <v>3.3</v>
+      </c>
+      <c r="AG367">
+        <v>3.3</v>
+      </c>
+      <c r="AH367">
+        <v>2.1</v>
+      </c>
+      <c r="AI367">
+        <v>3</v>
+      </c>
+      <c r="AJ367">
+        <v>3.4</v>
+      </c>
+      <c r="AK367">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL367">
+        <v>3.31</v>
+      </c>
+      <c r="AM367">
+        <v>3.42</v>
+      </c>
+      <c r="AN367">
+        <v>2.35</v>
+      </c>
+      <c r="AO367">
+        <v>3</v>
+      </c>
+      <c r="AP367">
+        <v>3.2</v>
+      </c>
+      <c r="AQ367">
+        <v>2.38</v>
+      </c>
+      <c r="AR367">
+        <v>3.25</v>
+      </c>
+      <c r="AS367">
+        <v>3.4</v>
+      </c>
+      <c r="AT367">
+        <v>2.25</v>
+      </c>
+      <c r="AU367">
+        <v>3.4</v>
+      </c>
+      <c r="AV367">
+        <v>3.25</v>
+      </c>
+      <c r="AW367">
+        <v>2.38</v>
+      </c>
+      <c r="AX367">
+        <v>3.1</v>
+      </c>
+      <c r="AY367">
+        <v>3.4</v>
+      </c>
+      <c r="AZ367">
+        <v>2.25</v>
+      </c>
+      <c r="BA367">
+        <v>40</v>
+      </c>
+      <c r="BB367">
+        <v>3.4</v>
+      </c>
+      <c r="BC367">
+        <v>3.16</v>
+      </c>
+      <c r="BD367">
+        <v>3.45</v>
+      </c>
+      <c r="BE367">
+        <v>3.34</v>
+      </c>
+      <c r="BF367">
+        <v>2.38</v>
+      </c>
+      <c r="BG367">
+        <v>2.25</v>
+      </c>
+      <c r="BH367">
+        <v>38</v>
+      </c>
+      <c r="BI367">
+        <v>1.95</v>
+      </c>
+      <c r="BJ367">
+        <v>1.88</v>
+      </c>
+      <c r="BK367">
+        <v>1.99</v>
+      </c>
+      <c r="BL367">
+        <v>1.91</v>
+      </c>
+      <c r="BM367">
+        <v>25</v>
+      </c>
+      <c r="BN367">
+        <v>0.25</v>
+      </c>
+      <c r="BO367">
+        <v>1.97</v>
+      </c>
+      <c r="BP367">
+        <v>1.92</v>
+      </c>
+      <c r="BQ367">
+        <v>2.02</v>
+      </c>
+      <c r="BR367">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="368" spans="1:70">
+      <c r="A368" t="s">
+        <v>70</v>
+      </c>
+      <c r="B368" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C368" t="s">
+        <v>84</v>
+      </c>
+      <c r="D368" t="s">
+        <v>79</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>2</v>
+      </c>
+      <c r="G368" t="s">
+        <v>82</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="J368" t="s">
+        <v>74</v>
+      </c>
+      <c r="K368">
+        <v>6</v>
+      </c>
+      <c r="L368">
+        <v>23</v>
+      </c>
+      <c r="M368">
+        <v>3</v>
+      </c>
+      <c r="N368">
+        <v>15</v>
+      </c>
+      <c r="O368">
+        <v>11</v>
+      </c>
+      <c r="P368">
+        <v>5</v>
+      </c>
+      <c r="Q368">
+        <v>2</v>
+      </c>
+      <c r="R368">
+        <v>11</v>
+      </c>
+      <c r="S368">
+        <v>4</v>
+      </c>
+      <c r="T368">
+        <v>1</v>
+      </c>
+      <c r="U368">
+        <v>1</v>
+      </c>
+      <c r="V368">
+        <v>0</v>
+      </c>
+      <c r="W368">
+        <v>4.5</v>
+      </c>
+      <c r="X368">
+        <v>3.6</v>
+      </c>
+      <c r="Y368">
+        <v>1.91</v>
+      </c>
+      <c r="Z368">
+        <v>4.5</v>
+      </c>
+      <c r="AA368">
+        <v>3.5</v>
+      </c>
+      <c r="AB368">
+        <v>1.78</v>
+      </c>
+      <c r="AC368">
+        <v>4.5</v>
+      </c>
+      <c r="AD368">
+        <v>3.5</v>
+      </c>
+      <c r="AE368">
+        <v>1.78</v>
+      </c>
+      <c r="AF368">
+        <v>4</v>
+      </c>
+      <c r="AG368">
+        <v>3.45</v>
+      </c>
+      <c r="AH368">
+        <v>1.85</v>
+      </c>
+      <c r="AI368">
+        <v>4</v>
+      </c>
+      <c r="AJ368">
+        <v>3.5</v>
+      </c>
+      <c r="AK368">
+        <v>1.91</v>
+      </c>
+      <c r="AL368">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM368">
+        <v>3.53</v>
+      </c>
+      <c r="AN368">
+        <v>1.93</v>
+      </c>
+      <c r="AO368">
+        <v>4.2</v>
+      </c>
+      <c r="AP368">
+        <v>3.3</v>
+      </c>
+      <c r="AQ368">
+        <v>1.91</v>
+      </c>
+      <c r="AR368">
+        <v>4.33</v>
+      </c>
+      <c r="AS368">
+        <v>3.5</v>
+      </c>
+      <c r="AT368">
+        <v>1.91</v>
+      </c>
+      <c r="AU368">
+        <v>4.5</v>
+      </c>
+      <c r="AV368">
+        <v>3.6</v>
+      </c>
+      <c r="AW368">
+        <v>1.9</v>
+      </c>
+      <c r="AX368">
+        <v>4</v>
+      </c>
+      <c r="AY368">
+        <v>3.4</v>
+      </c>
+      <c r="AZ368">
+        <v>1.91</v>
+      </c>
+      <c r="BA368">
+        <v>40</v>
+      </c>
+      <c r="BB368">
+        <v>4.7</v>
+      </c>
+      <c r="BC368">
+        <v>4.22</v>
+      </c>
+      <c r="BD368">
+        <v>3.6</v>
+      </c>
+      <c r="BE368">
+        <v>3.43</v>
+      </c>
+      <c r="BF368">
+        <v>1.94</v>
+      </c>
+      <c r="BG368">
+        <v>1.89</v>
+      </c>
+      <c r="BH368">
+        <v>38</v>
+      </c>
+      <c r="BI368">
+        <v>2.16</v>
+      </c>
+      <c r="BJ368">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BK368">
+        <v>1.83</v>
+      </c>
+      <c r="BL368">
+        <v>1.76</v>
+      </c>
+      <c r="BM368">
+        <v>23</v>
+      </c>
+      <c r="BN368">
+        <v>0.75</v>
+      </c>
+      <c r="BO368">
+        <v>1.77</v>
+      </c>
+      <c r="BP368">
+        <v>1.73</v>
+      </c>
+      <c r="BQ368">
+        <v>2.23</v>
+      </c>
+      <c r="BR368">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:70">
+      <c r="A369" t="s">
+        <v>70</v>
+      </c>
+      <c r="B369" s="1">
+        <v>41613</v>
+      </c>
+      <c r="C369" t="s">
+        <v>73</v>
+      </c>
+      <c r="D369" t="s">
+        <v>91</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369" t="s">
+        <v>74</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369" t="s">
+        <v>74</v>
+      </c>
+      <c r="K369">
+        <v>5</v>
+      </c>
+      <c r="L369">
+        <v>15</v>
+      </c>
+      <c r="M369">
+        <v>5</v>
+      </c>
+      <c r="N369">
+        <v>10</v>
+      </c>
+      <c r="O369">
+        <v>9</v>
+      </c>
+      <c r="P369">
+        <v>10</v>
+      </c>
+      <c r="Q369">
+        <v>3</v>
+      </c>
+      <c r="R369">
+        <v>10</v>
+      </c>
+      <c r="S369">
+        <v>0</v>
+      </c>
+      <c r="T369">
+        <v>2</v>
+      </c>
+      <c r="U369">
+        <v>0</v>
+      </c>
+      <c r="V369">
+        <v>0</v>
+      </c>
+      <c r="W369">
+        <v>2.8</v>
+      </c>
+      <c r="X369">
+        <v>3.2</v>
+      </c>
+      <c r="Y369">
+        <v>2.8</v>
+      </c>
+      <c r="Z369">
+        <v>2.65</v>
+      </c>
+      <c r="AA369">
+        <v>3</v>
+      </c>
+      <c r="AB369">
+        <v>2.75</v>
+      </c>
+      <c r="AC369">
+        <v>2.65</v>
+      </c>
+      <c r="AD369">
+        <v>3</v>
+      </c>
+      <c r="AE369">
+        <v>2.75</v>
+      </c>
+      <c r="AF369">
+        <v>2.5</v>
+      </c>
+      <c r="AG369">
+        <v>3</v>
+      </c>
+      <c r="AH369">
+        <v>2.8</v>
+      </c>
+      <c r="AI369">
+        <v>2.62</v>
+      </c>
+      <c r="AJ369">
+        <v>3.2</v>
+      </c>
+      <c r="AK369">
+        <v>2.75</v>
+      </c>
+      <c r="AL369">
+        <v>2.86</v>
+      </c>
+      <c r="AM369">
+        <v>3.12</v>
+      </c>
+      <c r="AN369">
+        <v>2.87</v>
+      </c>
+      <c r="AO369">
+        <v>2.8</v>
+      </c>
+      <c r="AP369">
+        <v>2.8</v>
+      </c>
+      <c r="AQ369">
+        <v>2.9</v>
+      </c>
+      <c r="AR369">
+        <v>2.7</v>
+      </c>
+      <c r="AS369">
+        <v>3.2</v>
+      </c>
+      <c r="AT369">
+        <v>2.75</v>
+      </c>
+      <c r="AU369">
+        <v>2.8</v>
+      </c>
+      <c r="AV369">
+        <v>3.25</v>
+      </c>
+      <c r="AW369">
+        <v>2.75</v>
+      </c>
+      <c r="AX369">
+        <v>2.5</v>
+      </c>
+      <c r="AY369">
+        <v>3.3</v>
+      </c>
+      <c r="AZ369">
+        <v>2.75</v>
+      </c>
+      <c r="BA369">
+        <v>40</v>
+      </c>
+      <c r="BB369">
+        <v>2.88</v>
+      </c>
+      <c r="BC369">
+        <v>2.68</v>
+      </c>
+      <c r="BD369">
+        <v>3.25</v>
+      </c>
+      <c r="BE369">
+        <v>3.14</v>
+      </c>
+      <c r="BF369">
+        <v>2.9</v>
+      </c>
+      <c r="BG369">
+        <v>2.73</v>
+      </c>
+      <c r="BH369">
+        <v>38</v>
+      </c>
+      <c r="BI369">
+        <v>2.25</v>
+      </c>
+      <c r="BJ369">
+        <v>2.11</v>
+      </c>
+      <c r="BK369">
+        <v>1.77</v>
+      </c>
+      <c r="BL369">
+        <v>1.71</v>
+      </c>
+      <c r="BM369">
+        <v>23</v>
+      </c>
+      <c r="BN369">
+        <v>-0.25</v>
+      </c>
+      <c r="BO369">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="BP369">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BQ369">
+        <v>1.7</v>
+      </c>
+      <c r="BR369">
+        <v>1.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DatosIng1/EP1213.xlsx
+++ b/DatosIng1/EP1213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="345" windowWidth="8355" windowHeight="7965"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="9315" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="E0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="154">
   <si>
     <t>Div</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>29/04/13</t>
+  </si>
+  <si>
+    <t>14/05/13</t>
+  </si>
+  <si>
+    <t>19/05/13</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR369"/>
+  <dimension ref="A1:BR381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79508,6 +79514,2550 @@
         <v>1.65</v>
       </c>
     </row>
+    <row r="370" spans="1:70">
+      <c r="A370" t="s">
+        <v>70</v>
+      </c>
+      <c r="B370" t="s">
+        <v>152</v>
+      </c>
+      <c r="C370" t="s">
+        <v>72</v>
+      </c>
+      <c r="D370" t="s">
+        <v>92</v>
+      </c>
+      <c r="E370">
+        <v>4</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370" t="s">
+        <v>77</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370" t="s">
+        <v>74</v>
+      </c>
+      <c r="K370">
+        <v>19</v>
+      </c>
+      <c r="L370">
+        <v>10</v>
+      </c>
+      <c r="M370">
+        <v>12</v>
+      </c>
+      <c r="N370">
+        <v>5</v>
+      </c>
+      <c r="O370">
+        <v>11</v>
+      </c>
+      <c r="P370">
+        <v>11</v>
+      </c>
+      <c r="Q370">
+        <v>7</v>
+      </c>
+      <c r="R370">
+        <v>4</v>
+      </c>
+      <c r="S370">
+        <v>0</v>
+      </c>
+      <c r="T370">
+        <v>2</v>
+      </c>
+      <c r="U370">
+        <v>0</v>
+      </c>
+      <c r="V370">
+        <v>0</v>
+      </c>
+      <c r="W370">
+        <v>1.4</v>
+      </c>
+      <c r="X370">
+        <v>5.5</v>
+      </c>
+      <c r="Y370">
+        <v>8</v>
+      </c>
+      <c r="Z370">
+        <v>1.33</v>
+      </c>
+      <c r="AA370">
+        <v>5.25</v>
+      </c>
+      <c r="AB370">
+        <v>7.75</v>
+      </c>
+      <c r="AC370">
+        <v>1.33</v>
+      </c>
+      <c r="AD370">
+        <v>5.25</v>
+      </c>
+      <c r="AE370">
+        <v>7.75</v>
+      </c>
+      <c r="AF370">
+        <v>1.35</v>
+      </c>
+      <c r="AG370">
+        <v>5</v>
+      </c>
+      <c r="AH370">
+        <v>7.1</v>
+      </c>
+      <c r="AI370">
+        <v>1.36</v>
+      </c>
+      <c r="AJ370">
+        <v>5</v>
+      </c>
+      <c r="AK370">
+        <v>8</v>
+      </c>
+      <c r="AL370">
+        <v>1.37</v>
+      </c>
+      <c r="AM370">
+        <v>5.62</v>
+      </c>
+      <c r="AN370">
+        <v>8.56</v>
+      </c>
+      <c r="AO370">
+        <v>1.4</v>
+      </c>
+      <c r="AP370">
+        <v>4.33</v>
+      </c>
+      <c r="AQ370">
+        <v>8.5</v>
+      </c>
+      <c r="AR370">
+        <v>1.4</v>
+      </c>
+      <c r="AS370">
+        <v>5.5</v>
+      </c>
+      <c r="AT370">
+        <v>8</v>
+      </c>
+      <c r="AU370">
+        <v>1.4</v>
+      </c>
+      <c r="AV370">
+        <v>5.25</v>
+      </c>
+      <c r="AW370">
+        <v>8</v>
+      </c>
+      <c r="AX370">
+        <v>1.36</v>
+      </c>
+      <c r="AY370">
+        <v>5</v>
+      </c>
+      <c r="AZ370">
+        <v>7.5</v>
+      </c>
+      <c r="BA370">
+        <v>41</v>
+      </c>
+      <c r="BB370">
+        <v>1.4</v>
+      </c>
+      <c r="BC370">
+        <v>1.36</v>
+      </c>
+      <c r="BD370">
+        <v>5.7</v>
+      </c>
+      <c r="BE370">
+        <v>5.15</v>
+      </c>
+      <c r="BF370">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BG370">
+        <v>8.01</v>
+      </c>
+      <c r="BH370">
+        <v>27</v>
+      </c>
+      <c r="BI370">
+        <v>1.51</v>
+      </c>
+      <c r="BJ370">
+        <v>1.44</v>
+      </c>
+      <c r="BK370">
+        <v>2.88</v>
+      </c>
+      <c r="BL370">
+        <v>2.67</v>
+      </c>
+      <c r="BM370">
+        <v>26</v>
+      </c>
+      <c r="BN370">
+        <v>-1.5</v>
+      </c>
+      <c r="BO370">
+        <v>2.04</v>
+      </c>
+      <c r="BP370">
+        <v>1.99</v>
+      </c>
+      <c r="BQ370">
+        <v>1.91</v>
+      </c>
+      <c r="BR370">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="371" spans="1:70">
+      <c r="A371" t="s">
+        <v>70</v>
+      </c>
+      <c r="B371" t="s">
+        <v>152</v>
+      </c>
+      <c r="C371" t="s">
+        <v>83</v>
+      </c>
+      <c r="D371" t="s">
+        <v>90</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+      <c r="G371" t="s">
+        <v>82</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371" t="s">
+        <v>82</v>
+      </c>
+      <c r="K371">
+        <v>11</v>
+      </c>
+      <c r="L371">
+        <v>27</v>
+      </c>
+      <c r="M371">
+        <v>7</v>
+      </c>
+      <c r="N371">
+        <v>20</v>
+      </c>
+      <c r="O371">
+        <v>6</v>
+      </c>
+      <c r="P371">
+        <v>7</v>
+      </c>
+      <c r="Q371">
+        <v>4</v>
+      </c>
+      <c r="R371">
+        <v>10</v>
+      </c>
+      <c r="S371">
+        <v>0</v>
+      </c>
+      <c r="T371">
+        <v>1</v>
+      </c>
+      <c r="U371">
+        <v>0</v>
+      </c>
+      <c r="V371">
+        <v>0</v>
+      </c>
+      <c r="W371">
+        <v>6</v>
+      </c>
+      <c r="X371">
+        <v>4.33</v>
+      </c>
+      <c r="Y371">
+        <v>1.6</v>
+      </c>
+      <c r="Z371">
+        <v>5.75</v>
+      </c>
+      <c r="AA371">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB371">
+        <v>1.53</v>
+      </c>
+      <c r="AC371">
+        <v>5.75</v>
+      </c>
+      <c r="AD371">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE371">
+        <v>1.53</v>
+      </c>
+      <c r="AF371">
+        <v>5.3</v>
+      </c>
+      <c r="AG371">
+        <v>3.9</v>
+      </c>
+      <c r="AH371">
+        <v>1.57</v>
+      </c>
+      <c r="AI371">
+        <v>6</v>
+      </c>
+      <c r="AJ371">
+        <v>4.33</v>
+      </c>
+      <c r="AK371">
+        <v>1.53</v>
+      </c>
+      <c r="AL371">
+        <v>5.9</v>
+      </c>
+      <c r="AM371">
+        <v>4.51</v>
+      </c>
+      <c r="AN371">
+        <v>1.59</v>
+      </c>
+      <c r="AO371">
+        <v>5.5</v>
+      </c>
+      <c r="AP371">
+        <v>4</v>
+      </c>
+      <c r="AQ371">
+        <v>1.57</v>
+      </c>
+      <c r="AR371">
+        <v>6.5</v>
+      </c>
+      <c r="AS371">
+        <v>4.5</v>
+      </c>
+      <c r="AT371">
+        <v>1.5</v>
+      </c>
+      <c r="AU371">
+        <v>5.5</v>
+      </c>
+      <c r="AV371">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AW371">
+        <v>1.6</v>
+      </c>
+      <c r="AX371">
+        <v>5.5</v>
+      </c>
+      <c r="AY371">
+        <v>4.2</v>
+      </c>
+      <c r="AZ371">
+        <v>1.53</v>
+      </c>
+      <c r="BA371">
+        <v>41</v>
+      </c>
+      <c r="BB371">
+        <v>6.5</v>
+      </c>
+      <c r="BC371">
+        <v>5.78</v>
+      </c>
+      <c r="BD371">
+        <v>4.5</v>
+      </c>
+      <c r="BE371">
+        <v>4.21</v>
+      </c>
+      <c r="BF371">
+        <v>1.62</v>
+      </c>
+      <c r="BG371">
+        <v>1.55</v>
+      </c>
+      <c r="BH371">
+        <v>28</v>
+      </c>
+      <c r="BI371">
+        <v>1.65</v>
+      </c>
+      <c r="BJ371">
+        <v>1.55</v>
+      </c>
+      <c r="BK371">
+        <v>2.5</v>
+      </c>
+      <c r="BL371">
+        <v>2.38</v>
+      </c>
+      <c r="BM371">
+        <v>26</v>
+      </c>
+      <c r="BN371">
+        <v>1</v>
+      </c>
+      <c r="BO371">
+        <v>2</v>
+      </c>
+      <c r="BP371">
+        <v>1.93</v>
+      </c>
+      <c r="BQ371">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BR371">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="372" spans="1:70">
+      <c r="A372" t="s">
+        <v>70</v>
+      </c>
+      <c r="B372" t="s">
+        <v>153</v>
+      </c>
+      <c r="C372" t="s">
+        <v>93</v>
+      </c>
+      <c r="D372" t="s">
+        <v>95</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372" t="s">
+        <v>77</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372" t="s">
+        <v>74</v>
+      </c>
+      <c r="K372">
+        <v>20</v>
+      </c>
+      <c r="L372">
+        <v>16</v>
+      </c>
+      <c r="M372">
+        <v>10</v>
+      </c>
+      <c r="N372">
+        <v>9</v>
+      </c>
+      <c r="O372">
+        <v>7</v>
+      </c>
+      <c r="P372">
+        <v>8</v>
+      </c>
+      <c r="Q372">
+        <v>7</v>
+      </c>
+      <c r="R372">
+        <v>4</v>
+      </c>
+      <c r="S372">
+        <v>2</v>
+      </c>
+      <c r="T372">
+        <v>2</v>
+      </c>
+      <c r="U372">
+        <v>0</v>
+      </c>
+      <c r="V372">
+        <v>0</v>
+      </c>
+      <c r="W372">
+        <v>1.7</v>
+      </c>
+      <c r="X372">
+        <v>4</v>
+      </c>
+      <c r="Y372">
+        <v>5.5</v>
+      </c>
+      <c r="Z372">
+        <v>1.65</v>
+      </c>
+      <c r="AA372">
+        <v>3.75</v>
+      </c>
+      <c r="AB372">
+        <v>5</v>
+      </c>
+      <c r="AC372">
+        <v>1.65</v>
+      </c>
+      <c r="AD372">
+        <v>3.75</v>
+      </c>
+      <c r="AE372">
+        <v>5</v>
+      </c>
+      <c r="AF372">
+        <v>1.5</v>
+      </c>
+      <c r="AG372">
+        <v>4</v>
+      </c>
+      <c r="AH372">
+        <v>6.1</v>
+      </c>
+      <c r="AI372">
+        <v>1.67</v>
+      </c>
+      <c r="AJ372">
+        <v>3.75</v>
+      </c>
+      <c r="AK372">
+        <v>5</v>
+      </c>
+      <c r="AL372">
+        <v>1.68</v>
+      </c>
+      <c r="AM372">
+        <v>4.05</v>
+      </c>
+      <c r="AN372">
+        <v>5.61</v>
+      </c>
+      <c r="AO372">
+        <v>1.73</v>
+      </c>
+      <c r="AP372">
+        <v>3.6</v>
+      </c>
+      <c r="AQ372">
+        <v>4.8</v>
+      </c>
+      <c r="AR372">
+        <v>1.67</v>
+      </c>
+      <c r="AS372">
+        <v>3.8</v>
+      </c>
+      <c r="AT372">
+        <v>5</v>
+      </c>
+      <c r="AU372">
+        <v>1.73</v>
+      </c>
+      <c r="AV372">
+        <v>4</v>
+      </c>
+      <c r="AW372">
+        <v>5</v>
+      </c>
+      <c r="AX372">
+        <v>1.62</v>
+      </c>
+      <c r="AY372">
+        <v>3.6</v>
+      </c>
+      <c r="AZ372">
+        <v>5.5</v>
+      </c>
+      <c r="BA372">
+        <v>41</v>
+      </c>
+      <c r="BB372">
+        <v>1.73</v>
+      </c>
+      <c r="BC372">
+        <v>1.66</v>
+      </c>
+      <c r="BD372">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE372">
+        <v>3.8</v>
+      </c>
+      <c r="BF372">
+        <v>6.1</v>
+      </c>
+      <c r="BG372">
+        <v>5.12</v>
+      </c>
+      <c r="BH372">
+        <v>37</v>
+      </c>
+      <c r="BI372">
+        <v>1.74</v>
+      </c>
+      <c r="BJ372">
+        <v>1.66</v>
+      </c>
+      <c r="BK372">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BL372">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BM372">
+        <v>26</v>
+      </c>
+      <c r="BN372">
+        <v>-1</v>
+      </c>
+      <c r="BO372">
+        <v>2.27</v>
+      </c>
+      <c r="BP372">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BQ372">
+        <v>1.77</v>
+      </c>
+      <c r="BR372">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="373" spans="1:70">
+      <c r="A373" t="s">
+        <v>70</v>
+      </c>
+      <c r="B373" t="s">
+        <v>153</v>
+      </c>
+      <c r="C373" t="s">
+        <v>86</v>
+      </c>
+      <c r="D373" t="s">
+        <v>80</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373" t="s">
+        <v>77</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373" t="s">
+        <v>77</v>
+      </c>
+      <c r="K373">
+        <v>27</v>
+      </c>
+      <c r="L373">
+        <v>10</v>
+      </c>
+      <c r="M373">
+        <v>20</v>
+      </c>
+      <c r="N373">
+        <v>3</v>
+      </c>
+      <c r="O373">
+        <v>7</v>
+      </c>
+      <c r="P373">
+        <v>3</v>
+      </c>
+      <c r="Q373">
+        <v>14</v>
+      </c>
+      <c r="R373">
+        <v>0</v>
+      </c>
+      <c r="S373">
+        <v>1</v>
+      </c>
+      <c r="T373">
+        <v>3</v>
+      </c>
+      <c r="U373">
+        <v>0</v>
+      </c>
+      <c r="V373">
+        <v>0</v>
+      </c>
+      <c r="W373">
+        <v>1.25</v>
+      </c>
+      <c r="X373">
+        <v>7</v>
+      </c>
+      <c r="Y373">
+        <v>12</v>
+      </c>
+      <c r="Z373">
+        <v>1.2</v>
+      </c>
+      <c r="AA373">
+        <v>6.5</v>
+      </c>
+      <c r="AB373">
+        <v>12</v>
+      </c>
+      <c r="AC373">
+        <v>1.2</v>
+      </c>
+      <c r="AD373">
+        <v>6.5</v>
+      </c>
+      <c r="AE373">
+        <v>12</v>
+      </c>
+      <c r="AF373">
+        <v>1.22</v>
+      </c>
+      <c r="AG373">
+        <v>5.5</v>
+      </c>
+      <c r="AH373">
+        <v>12</v>
+      </c>
+      <c r="AI373">
+        <v>1.25</v>
+      </c>
+      <c r="AJ373">
+        <v>6</v>
+      </c>
+      <c r="AK373">
+        <v>11</v>
+      </c>
+      <c r="AL373">
+        <v>1.24</v>
+      </c>
+      <c r="AM373">
+        <v>6.77</v>
+      </c>
+      <c r="AN373">
+        <v>15.09</v>
+      </c>
+      <c r="AO373">
+        <v>1.25</v>
+      </c>
+      <c r="AP373">
+        <v>5.5</v>
+      </c>
+      <c r="AQ373">
+        <v>12</v>
+      </c>
+      <c r="AR373">
+        <v>1.22</v>
+      </c>
+      <c r="AS373">
+        <v>6</v>
+      </c>
+      <c r="AT373">
+        <v>13</v>
+      </c>
+      <c r="AU373">
+        <v>1.25</v>
+      </c>
+      <c r="AV373">
+        <v>7</v>
+      </c>
+      <c r="AW373">
+        <v>12</v>
+      </c>
+      <c r="AX373">
+        <v>1.22</v>
+      </c>
+      <c r="AY373">
+        <v>6</v>
+      </c>
+      <c r="AZ373">
+        <v>12</v>
+      </c>
+      <c r="BA373">
+        <v>41</v>
+      </c>
+      <c r="BB373">
+        <v>1.26</v>
+      </c>
+      <c r="BC373">
+        <v>1.23</v>
+      </c>
+      <c r="BD373">
+        <v>7</v>
+      </c>
+      <c r="BE373">
+        <v>6.1</v>
+      </c>
+      <c r="BF373">
+        <v>15.09</v>
+      </c>
+      <c r="BG373">
+        <v>11.86</v>
+      </c>
+      <c r="BH373">
+        <v>26</v>
+      </c>
+      <c r="BI373">
+        <v>1.47</v>
+      </c>
+      <c r="BJ373">
+        <v>1.41</v>
+      </c>
+      <c r="BK373">
+        <v>3</v>
+      </c>
+      <c r="BL373">
+        <v>2.79</v>
+      </c>
+      <c r="BM373">
+        <v>26</v>
+      </c>
+      <c r="BN373">
+        <v>-1.75</v>
+      </c>
+      <c r="BO373">
+        <v>1.91</v>
+      </c>
+      <c r="BP373">
+        <v>1.87</v>
+      </c>
+      <c r="BQ373">
+        <v>2.06</v>
+      </c>
+      <c r="BR373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:70">
+      <c r="A374" t="s">
+        <v>70</v>
+      </c>
+      <c r="B374" t="s">
+        <v>153</v>
+      </c>
+      <c r="C374" t="s">
+        <v>90</v>
+      </c>
+      <c r="D374" t="s">
+        <v>76</v>
+      </c>
+      <c r="E374">
+        <v>2</v>
+      </c>
+      <c r="F374">
+        <v>3</v>
+      </c>
+      <c r="G374" t="s">
+        <v>82</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374" t="s">
+        <v>74</v>
+      </c>
+      <c r="K374">
+        <v>12</v>
+      </c>
+      <c r="L374">
+        <v>12</v>
+      </c>
+      <c r="M374">
+        <v>5</v>
+      </c>
+      <c r="N374">
+        <v>7</v>
+      </c>
+      <c r="O374">
+        <v>10</v>
+      </c>
+      <c r="P374">
+        <v>8</v>
+      </c>
+      <c r="Q374">
+        <v>7</v>
+      </c>
+      <c r="R374">
+        <v>7</v>
+      </c>
+      <c r="S374">
+        <v>1</v>
+      </c>
+      <c r="T374">
+        <v>0</v>
+      </c>
+      <c r="U374">
+        <v>0</v>
+      </c>
+      <c r="V374">
+        <v>0</v>
+      </c>
+      <c r="W374">
+        <v>1.33</v>
+      </c>
+      <c r="X374">
+        <v>5.5</v>
+      </c>
+      <c r="Y374">
+        <v>11</v>
+      </c>
+      <c r="Z374">
+        <v>1.25</v>
+      </c>
+      <c r="AA374">
+        <v>5.5</v>
+      </c>
+      <c r="AB374">
+        <v>11</v>
+      </c>
+      <c r="AC374">
+        <v>1.25</v>
+      </c>
+      <c r="AD374">
+        <v>5.5</v>
+      </c>
+      <c r="AE374">
+        <v>11</v>
+      </c>
+      <c r="AF374">
+        <v>1.3</v>
+      </c>
+      <c r="AG374">
+        <v>5</v>
+      </c>
+      <c r="AH374">
+        <v>9</v>
+      </c>
+      <c r="AI374">
+        <v>1.33</v>
+      </c>
+      <c r="AJ374">
+        <v>5</v>
+      </c>
+      <c r="AK374">
+        <v>8.5</v>
+      </c>
+      <c r="AL374">
+        <v>1.31</v>
+      </c>
+      <c r="AM374">
+        <v>5.69</v>
+      </c>
+      <c r="AN374">
+        <v>11.89</v>
+      </c>
+      <c r="AO374">
+        <v>1.33</v>
+      </c>
+      <c r="AP374">
+        <v>5</v>
+      </c>
+      <c r="AQ374">
+        <v>9</v>
+      </c>
+      <c r="AR374">
+        <v>1.3</v>
+      </c>
+      <c r="AS374">
+        <v>5.25</v>
+      </c>
+      <c r="AT374">
+        <v>10</v>
+      </c>
+      <c r="AU374">
+        <v>1.33</v>
+      </c>
+      <c r="AV374">
+        <v>5.5</v>
+      </c>
+      <c r="AW374">
+        <v>10</v>
+      </c>
+      <c r="AX374">
+        <v>1.29</v>
+      </c>
+      <c r="AY374">
+        <v>5</v>
+      </c>
+      <c r="AZ374">
+        <v>10</v>
+      </c>
+      <c r="BA374">
+        <v>41</v>
+      </c>
+      <c r="BB374">
+        <v>1.33</v>
+      </c>
+      <c r="BC374">
+        <v>1.3</v>
+      </c>
+      <c r="BD374">
+        <v>5.7</v>
+      </c>
+      <c r="BE374">
+        <v>5.29</v>
+      </c>
+      <c r="BF374">
+        <v>12</v>
+      </c>
+      <c r="BG374">
+        <v>9.86</v>
+      </c>
+      <c r="BH374">
+        <v>27</v>
+      </c>
+      <c r="BI374">
+        <v>1.56</v>
+      </c>
+      <c r="BJ374">
+        <v>1.48</v>
+      </c>
+      <c r="BK374">
+        <v>2.73</v>
+      </c>
+      <c r="BL374">
+        <v>2.56</v>
+      </c>
+      <c r="BM374">
+        <v>28</v>
+      </c>
+      <c r="BN374">
+        <v>-1.5</v>
+      </c>
+      <c r="BO374">
+        <v>1.85</v>
+      </c>
+      <c r="BP374">
+        <v>1.81</v>
+      </c>
+      <c r="BQ374">
+        <v>2.12</v>
+      </c>
+      <c r="BR374">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="375" spans="1:70">
+      <c r="A375" t="s">
+        <v>70</v>
+      </c>
+      <c r="B375" t="s">
+        <v>153</v>
+      </c>
+      <c r="C375" t="s">
+        <v>78</v>
+      </c>
+      <c r="D375" t="s">
+        <v>72</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375" t="s">
+        <v>82</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375" t="s">
+        <v>74</v>
+      </c>
+      <c r="K375">
+        <v>7</v>
+      </c>
+      <c r="L375">
+        <v>9</v>
+      </c>
+      <c r="M375">
+        <v>2</v>
+      </c>
+      <c r="N375">
+        <v>3</v>
+      </c>
+      <c r="O375">
+        <v>17</v>
+      </c>
+      <c r="P375">
+        <v>10</v>
+      </c>
+      <c r="Q375">
+        <v>4</v>
+      </c>
+      <c r="R375">
+        <v>4</v>
+      </c>
+      <c r="S375">
+        <v>1</v>
+      </c>
+      <c r="T375">
+        <v>2</v>
+      </c>
+      <c r="U375">
+        <v>0</v>
+      </c>
+      <c r="V375">
+        <v>0</v>
+      </c>
+      <c r="W375">
+        <v>6</v>
+      </c>
+      <c r="X375">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y375">
+        <v>1.55</v>
+      </c>
+      <c r="Z375">
+        <v>6</v>
+      </c>
+      <c r="AA375">
+        <v>4.33</v>
+      </c>
+      <c r="AB375">
+        <v>1.48</v>
+      </c>
+      <c r="AC375">
+        <v>6</v>
+      </c>
+      <c r="AD375">
+        <v>4.33</v>
+      </c>
+      <c r="AE375">
+        <v>1.48</v>
+      </c>
+      <c r="AF375">
+        <v>6.5</v>
+      </c>
+      <c r="AG375">
+        <v>4.2</v>
+      </c>
+      <c r="AH375">
+        <v>1.45</v>
+      </c>
+      <c r="AI375">
+        <v>5.5</v>
+      </c>
+      <c r="AJ375">
+        <v>4</v>
+      </c>
+      <c r="AK375">
+        <v>1.57</v>
+      </c>
+      <c r="AL375">
+        <v>6.4</v>
+      </c>
+      <c r="AM375">
+        <v>4.59</v>
+      </c>
+      <c r="AN375">
+        <v>1.55</v>
+      </c>
+      <c r="AO375">
+        <v>5.5</v>
+      </c>
+      <c r="AP375">
+        <v>4.33</v>
+      </c>
+      <c r="AQ375">
+        <v>1.53</v>
+      </c>
+      <c r="AR375">
+        <v>6</v>
+      </c>
+      <c r="AS375">
+        <v>4.33</v>
+      </c>
+      <c r="AT375">
+        <v>1.5</v>
+      </c>
+      <c r="AU375">
+        <v>6</v>
+      </c>
+      <c r="AV375">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AW375">
+        <v>1.55</v>
+      </c>
+      <c r="AX375">
+        <v>5.5</v>
+      </c>
+      <c r="AY375">
+        <v>4</v>
+      </c>
+      <c r="AZ375">
+        <v>1.57</v>
+      </c>
+      <c r="BA375">
+        <v>41</v>
+      </c>
+      <c r="BB375">
+        <v>6.5</v>
+      </c>
+      <c r="BC375">
+        <v>5.9</v>
+      </c>
+      <c r="BD375">
+        <v>4.7</v>
+      </c>
+      <c r="BE375">
+        <v>4.3</v>
+      </c>
+      <c r="BF375">
+        <v>1.57</v>
+      </c>
+      <c r="BG375">
+        <v>1.52</v>
+      </c>
+      <c r="BH375">
+        <v>27</v>
+      </c>
+      <c r="BI375">
+        <v>1.6</v>
+      </c>
+      <c r="BJ375">
+        <v>1.53</v>
+      </c>
+      <c r="BK375">
+        <v>2.62</v>
+      </c>
+      <c r="BL375">
+        <v>2.41</v>
+      </c>
+      <c r="BM375">
+        <v>28</v>
+      </c>
+      <c r="BN375">
+        <v>1</v>
+      </c>
+      <c r="BO375">
+        <v>2.06</v>
+      </c>
+      <c r="BP375">
+        <v>2</v>
+      </c>
+      <c r="BQ375">
+        <v>1.95</v>
+      </c>
+      <c r="BR375">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="376" spans="1:70">
+      <c r="A376" t="s">
+        <v>70</v>
+      </c>
+      <c r="B376" t="s">
+        <v>153</v>
+      </c>
+      <c r="C376" t="s">
+        <v>91</v>
+      </c>
+      <c r="D376" t="s">
+        <v>84</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376" t="s">
+        <v>74</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376" t="s">
+        <v>74</v>
+      </c>
+      <c r="K376">
+        <v>11</v>
+      </c>
+      <c r="L376">
+        <v>7</v>
+      </c>
+      <c r="M376">
+        <v>7</v>
+      </c>
+      <c r="N376">
+        <v>3</v>
+      </c>
+      <c r="O376">
+        <v>9</v>
+      </c>
+      <c r="P376">
+        <v>7</v>
+      </c>
+      <c r="Q376">
+        <v>3</v>
+      </c>
+      <c r="R376">
+        <v>4</v>
+      </c>
+      <c r="S376">
+        <v>0</v>
+      </c>
+      <c r="T376">
+        <v>2</v>
+      </c>
+      <c r="U376">
+        <v>0</v>
+      </c>
+      <c r="V376">
+        <v>0</v>
+      </c>
+      <c r="W376">
+        <v>1.75</v>
+      </c>
+      <c r="X376">
+        <v>3.8</v>
+      </c>
+      <c r="Y376">
+        <v>5.25</v>
+      </c>
+      <c r="Z376">
+        <v>1.75</v>
+      </c>
+      <c r="AA376">
+        <v>3.5</v>
+      </c>
+      <c r="AB376">
+        <v>4.75</v>
+      </c>
+      <c r="AC376">
+        <v>1.75</v>
+      </c>
+      <c r="AD376">
+        <v>3.5</v>
+      </c>
+      <c r="AE376">
+        <v>4.75</v>
+      </c>
+      <c r="AF376">
+        <v>1.8</v>
+      </c>
+      <c r="AG376">
+        <v>3.4</v>
+      </c>
+      <c r="AH376">
+        <v>4.3</v>
+      </c>
+      <c r="AI376">
+        <v>1.8</v>
+      </c>
+      <c r="AJ376">
+        <v>3.5</v>
+      </c>
+      <c r="AK376">
+        <v>4.5</v>
+      </c>
+      <c r="AL376">
+        <v>1.77</v>
+      </c>
+      <c r="AM376">
+        <v>3.72</v>
+      </c>
+      <c r="AN376">
+        <v>5.36</v>
+      </c>
+      <c r="AO376">
+        <v>1.8</v>
+      </c>
+      <c r="AP376">
+        <v>3.25</v>
+      </c>
+      <c r="AQ376">
+        <v>5</v>
+      </c>
+      <c r="AR376">
+        <v>1.73</v>
+      </c>
+      <c r="AS376">
+        <v>3.6</v>
+      </c>
+      <c r="AT376">
+        <v>5</v>
+      </c>
+      <c r="AU376">
+        <v>1.8</v>
+      </c>
+      <c r="AV376">
+        <v>3.6</v>
+      </c>
+      <c r="AW376">
+        <v>5</v>
+      </c>
+      <c r="AX376">
+        <v>1.73</v>
+      </c>
+      <c r="AY376">
+        <v>3.5</v>
+      </c>
+      <c r="AZ376">
+        <v>5</v>
+      </c>
+      <c r="BA376">
+        <v>41</v>
+      </c>
+      <c r="BB376">
+        <v>1.81</v>
+      </c>
+      <c r="BC376">
+        <v>1.76</v>
+      </c>
+      <c r="BD376">
+        <v>3.8</v>
+      </c>
+      <c r="BE376">
+        <v>3.53</v>
+      </c>
+      <c r="BF376">
+        <v>5.36</v>
+      </c>
+      <c r="BG376">
+        <v>4.8</v>
+      </c>
+      <c r="BH376">
+        <v>39</v>
+      </c>
+      <c r="BI376">
+        <v>2.23</v>
+      </c>
+      <c r="BJ376">
+        <v>2.11</v>
+      </c>
+      <c r="BK376">
+        <v>1.78</v>
+      </c>
+      <c r="BL376">
+        <v>1.71</v>
+      </c>
+      <c r="BM376">
+        <v>26</v>
+      </c>
+      <c r="BN376">
+        <v>-0.75</v>
+      </c>
+      <c r="BO376">
+        <v>2.04</v>
+      </c>
+      <c r="BP376">
+        <v>2</v>
+      </c>
+      <c r="BQ376">
+        <v>1.92</v>
+      </c>
+      <c r="BR376">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="377" spans="1:70">
+      <c r="A377" t="s">
+        <v>70</v>
+      </c>
+      <c r="B377" t="s">
+        <v>153</v>
+      </c>
+      <c r="C377" t="s">
+        <v>81</v>
+      </c>
+      <c r="D377" t="s">
+        <v>75</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>3</v>
+      </c>
+      <c r="G377" t="s">
+        <v>82</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>82</v>
+      </c>
+      <c r="K377">
+        <v>19</v>
+      </c>
+      <c r="L377">
+        <v>8</v>
+      </c>
+      <c r="M377">
+        <v>11</v>
+      </c>
+      <c r="N377">
+        <v>6</v>
+      </c>
+      <c r="O377">
+        <v>12</v>
+      </c>
+      <c r="P377">
+        <v>9</v>
+      </c>
+      <c r="Q377">
+        <v>8</v>
+      </c>
+      <c r="R377">
+        <v>0</v>
+      </c>
+      <c r="S377">
+        <v>2</v>
+      </c>
+      <c r="T377">
+        <v>1</v>
+      </c>
+      <c r="U377">
+        <v>0</v>
+      </c>
+      <c r="V377">
+        <v>0</v>
+      </c>
+      <c r="W377">
+        <v>1.8</v>
+      </c>
+      <c r="X377">
+        <v>3.8</v>
+      </c>
+      <c r="Y377">
+        <v>4.75</v>
+      </c>
+      <c r="Z377">
+        <v>1.72</v>
+      </c>
+      <c r="AA377">
+        <v>3.75</v>
+      </c>
+      <c r="AB377">
+        <v>4.5</v>
+      </c>
+      <c r="AC377">
+        <v>1.72</v>
+      </c>
+      <c r="AD377">
+        <v>3.75</v>
+      </c>
+      <c r="AE377">
+        <v>4.5</v>
+      </c>
+      <c r="AF377">
+        <v>1.8</v>
+      </c>
+      <c r="AG377">
+        <v>3.5</v>
+      </c>
+      <c r="AH377">
+        <v>4.2</v>
+      </c>
+      <c r="AI377">
+        <v>1.73</v>
+      </c>
+      <c r="AJ377">
+        <v>3.75</v>
+      </c>
+      <c r="AK377">
+        <v>4.5</v>
+      </c>
+      <c r="AL377">
+        <v>1.78</v>
+      </c>
+      <c r="AM377">
+        <v>3.77</v>
+      </c>
+      <c r="AN377">
+        <v>5.15</v>
+      </c>
+      <c r="AO377">
+        <v>1.8</v>
+      </c>
+      <c r="AP377">
+        <v>3.6</v>
+      </c>
+      <c r="AQ377">
+        <v>4.33</v>
+      </c>
+      <c r="AR377">
+        <v>1.73</v>
+      </c>
+      <c r="AS377">
+        <v>3.6</v>
+      </c>
+      <c r="AT377">
+        <v>4.75</v>
+      </c>
+      <c r="AU377">
+        <v>1.83</v>
+      </c>
+      <c r="AV377">
+        <v>3.8</v>
+      </c>
+      <c r="AW377">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AX377">
+        <v>1.83</v>
+      </c>
+      <c r="AY377">
+        <v>3.6</v>
+      </c>
+      <c r="AZ377">
+        <v>4</v>
+      </c>
+      <c r="BA377">
+        <v>41</v>
+      </c>
+      <c r="BB377">
+        <v>1.83</v>
+      </c>
+      <c r="BC377">
+        <v>1.77</v>
+      </c>
+      <c r="BD377">
+        <v>3.85</v>
+      </c>
+      <c r="BE377">
+        <v>3.68</v>
+      </c>
+      <c r="BF377">
+        <v>5.15</v>
+      </c>
+      <c r="BG377">
+        <v>4.5</v>
+      </c>
+      <c r="BH377">
+        <v>39</v>
+      </c>
+      <c r="BI377">
+        <v>1.85</v>
+      </c>
+      <c r="BJ377">
+        <v>1.79</v>
+      </c>
+      <c r="BK377">
+        <v>2.14</v>
+      </c>
+      <c r="BL377">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BM377">
+        <v>25</v>
+      </c>
+      <c r="BN377">
+        <v>-0.75</v>
+      </c>
+      <c r="BO377">
+        <v>1.98</v>
+      </c>
+      <c r="BP377">
+        <v>1.95</v>
+      </c>
+      <c r="BQ377">
+        <v>1.96</v>
+      </c>
+      <c r="BR377">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="378" spans="1:70">
+      <c r="A378" t="s">
+        <v>70</v>
+      </c>
+      <c r="B378" t="s">
+        <v>153</v>
+      </c>
+      <c r="C378" t="s">
+        <v>79</v>
+      </c>
+      <c r="D378" t="s">
+        <v>73</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378" t="s">
+        <v>77</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378" t="s">
+        <v>74</v>
+      </c>
+      <c r="K378">
+        <v>23</v>
+      </c>
+      <c r="L378">
+        <v>6</v>
+      </c>
+      <c r="M378">
+        <v>19</v>
+      </c>
+      <c r="N378">
+        <v>4</v>
+      </c>
+      <c r="O378">
+        <v>6</v>
+      </c>
+      <c r="P378">
+        <v>12</v>
+      </c>
+      <c r="Q378">
+        <v>14</v>
+      </c>
+      <c r="R378">
+        <v>1</v>
+      </c>
+      <c r="S378">
+        <v>1</v>
+      </c>
+      <c r="T378">
+        <v>3</v>
+      </c>
+      <c r="U378">
+        <v>0</v>
+      </c>
+      <c r="V378">
+        <v>1</v>
+      </c>
+      <c r="W378">
+        <v>1.29</v>
+      </c>
+      <c r="X378">
+        <v>6</v>
+      </c>
+      <c r="Y378">
+        <v>12</v>
+      </c>
+      <c r="Z378">
+        <v>1.22</v>
+      </c>
+      <c r="AA378">
+        <v>6</v>
+      </c>
+      <c r="AB378">
+        <v>12</v>
+      </c>
+      <c r="AC378">
+        <v>1.22</v>
+      </c>
+      <c r="AD378">
+        <v>6</v>
+      </c>
+      <c r="AE378">
+        <v>12</v>
+      </c>
+      <c r="AF378">
+        <v>1.27</v>
+      </c>
+      <c r="AG378">
+        <v>5.2</v>
+      </c>
+      <c r="AH378">
+        <v>10</v>
+      </c>
+      <c r="AI378">
+        <v>1.3</v>
+      </c>
+      <c r="AJ378">
+        <v>5</v>
+      </c>
+      <c r="AK378">
+        <v>10</v>
+      </c>
+      <c r="AL378">
+        <v>1.29</v>
+      </c>
+      <c r="AM378">
+        <v>6.05</v>
+      </c>
+      <c r="AN378">
+        <v>12.4</v>
+      </c>
+      <c r="AO378">
+        <v>1.3</v>
+      </c>
+      <c r="AP378">
+        <v>5</v>
+      </c>
+      <c r="AQ378">
+        <v>11</v>
+      </c>
+      <c r="AR378">
+        <v>1.29</v>
+      </c>
+      <c r="AS378">
+        <v>5.5</v>
+      </c>
+      <c r="AT378">
+        <v>11</v>
+      </c>
+      <c r="AU378">
+        <v>1.3</v>
+      </c>
+      <c r="AV378">
+        <v>6</v>
+      </c>
+      <c r="AW378">
+        <v>11.5</v>
+      </c>
+      <c r="AX378">
+        <v>1.3</v>
+      </c>
+      <c r="AY378">
+        <v>5</v>
+      </c>
+      <c r="AZ378">
+        <v>10</v>
+      </c>
+      <c r="BA378">
+        <v>41</v>
+      </c>
+      <c r="BB378">
+        <v>1.3</v>
+      </c>
+      <c r="BC378">
+        <v>1.27</v>
+      </c>
+      <c r="BD378">
+        <v>6.2</v>
+      </c>
+      <c r="BE378">
+        <v>5.49</v>
+      </c>
+      <c r="BF378">
+        <v>13</v>
+      </c>
+      <c r="BG378">
+        <v>10.9</v>
+      </c>
+      <c r="BH378">
+        <v>27</v>
+      </c>
+      <c r="BI378">
+        <v>1.59</v>
+      </c>
+      <c r="BJ378">
+        <v>1.53</v>
+      </c>
+      <c r="BK378">
+        <v>2.58</v>
+      </c>
+      <c r="BL378">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="BM378">
+        <v>28</v>
+      </c>
+      <c r="BN378">
+        <v>-1.5</v>
+      </c>
+      <c r="BO378">
+        <v>1.83</v>
+      </c>
+      <c r="BP378">
+        <v>1.77</v>
+      </c>
+      <c r="BQ378">
+        <v>2.17</v>
+      </c>
+      <c r="BR378">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="379" spans="1:70">
+      <c r="A379" t="s">
+        <v>70</v>
+      </c>
+      <c r="B379" t="s">
+        <v>153</v>
+      </c>
+      <c r="C379" t="s">
+        <v>85</v>
+      </c>
+      <c r="D379" t="s">
+        <v>96</v>
+      </c>
+      <c r="E379">
+        <v>5</v>
+      </c>
+      <c r="F379">
+        <v>5</v>
+      </c>
+      <c r="G379" t="s">
+        <v>74</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>3</v>
+      </c>
+      <c r="J379" t="s">
+        <v>82</v>
+      </c>
+      <c r="K379">
+        <v>15</v>
+      </c>
+      <c r="L379">
+        <v>12</v>
+      </c>
+      <c r="M379">
+        <v>8</v>
+      </c>
+      <c r="N379">
+        <v>8</v>
+      </c>
+      <c r="O379">
+        <v>10</v>
+      </c>
+      <c r="P379">
+        <v>6</v>
+      </c>
+      <c r="Q379">
+        <v>3</v>
+      </c>
+      <c r="R379">
+        <v>5</v>
+      </c>
+      <c r="S379">
+        <v>0</v>
+      </c>
+      <c r="T379">
+        <v>1</v>
+      </c>
+      <c r="U379">
+        <v>0</v>
+      </c>
+      <c r="V379">
+        <v>0</v>
+      </c>
+      <c r="W379">
+        <v>4.5</v>
+      </c>
+      <c r="X379">
+        <v>3.9</v>
+      </c>
+      <c r="Y379">
+        <v>1.83</v>
+      </c>
+      <c r="Z379">
+        <v>4.5</v>
+      </c>
+      <c r="AA379">
+        <v>3.6</v>
+      </c>
+      <c r="AB379">
+        <v>1.75</v>
+      </c>
+      <c r="AC379">
+        <v>4.5</v>
+      </c>
+      <c r="AD379">
+        <v>3.6</v>
+      </c>
+      <c r="AE379">
+        <v>1.75</v>
+      </c>
+      <c r="AF379">
+        <v>4.2</v>
+      </c>
+      <c r="AG379">
+        <v>3.5</v>
+      </c>
+      <c r="AH379">
+        <v>1.8</v>
+      </c>
+      <c r="AI379">
+        <v>4.33</v>
+      </c>
+      <c r="AJ379">
+        <v>3.75</v>
+      </c>
+      <c r="AK379">
+        <v>1.75</v>
+      </c>
+      <c r="AL379">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AM379">
+        <v>3.88</v>
+      </c>
+      <c r="AN379">
+        <v>1.85</v>
+      </c>
+      <c r="AO379">
+        <v>4.33</v>
+      </c>
+      <c r="AP379">
+        <v>3.5</v>
+      </c>
+      <c r="AQ379">
+        <v>1.83</v>
+      </c>
+      <c r="AR379">
+        <v>4.33</v>
+      </c>
+      <c r="AS379">
+        <v>3.8</v>
+      </c>
+      <c r="AT379">
+        <v>1.73</v>
+      </c>
+      <c r="AU379">
+        <v>4.2</v>
+      </c>
+      <c r="AV379">
+        <v>3.9</v>
+      </c>
+      <c r="AW379">
+        <v>1.85</v>
+      </c>
+      <c r="AX379">
+        <v>4.33</v>
+      </c>
+      <c r="AY379">
+        <v>3.6</v>
+      </c>
+      <c r="AZ379">
+        <v>1.8</v>
+      </c>
+      <c r="BA379">
+        <v>41</v>
+      </c>
+      <c r="BB379">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BC379">
+        <v>4.29</v>
+      </c>
+      <c r="BD379">
+        <v>3.95</v>
+      </c>
+      <c r="BE379">
+        <v>3.62</v>
+      </c>
+      <c r="BF379">
+        <v>1.86</v>
+      </c>
+      <c r="BG379">
+        <v>1.81</v>
+      </c>
+      <c r="BH379">
+        <v>29</v>
+      </c>
+      <c r="BI379">
+        <v>1.67</v>
+      </c>
+      <c r="BJ379">
+        <v>1.6</v>
+      </c>
+      <c r="BK379">
+        <v>2.4</v>
+      </c>
+      <c r="BL379">
+        <v>2.27</v>
+      </c>
+      <c r="BM379">
+        <v>26</v>
+      </c>
+      <c r="BN379">
+        <v>0.75</v>
+      </c>
+      <c r="BO379">
+        <v>1.85</v>
+      </c>
+      <c r="BP379">
+        <v>1.8</v>
+      </c>
+      <c r="BQ379">
+        <v>2.14</v>
+      </c>
+      <c r="BR379">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="380" spans="1:70">
+      <c r="A380" t="s">
+        <v>70</v>
+      </c>
+      <c r="B380" t="s">
+        <v>153</v>
+      </c>
+      <c r="C380" t="s">
+        <v>87</v>
+      </c>
+      <c r="D380" t="s">
+        <v>83</v>
+      </c>
+      <c r="E380">
+        <v>4</v>
+      </c>
+      <c r="F380">
+        <v>2</v>
+      </c>
+      <c r="G380" t="s">
+        <v>77</v>
+      </c>
+      <c r="H380">
+        <v>2</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380" t="s">
+        <v>77</v>
+      </c>
+      <c r="K380">
+        <v>21</v>
+      </c>
+      <c r="L380">
+        <v>17</v>
+      </c>
+      <c r="M380">
+        <v>12</v>
+      </c>
+      <c r="N380">
+        <v>7</v>
+      </c>
+      <c r="O380">
+        <v>14</v>
+      </c>
+      <c r="P380">
+        <v>8</v>
+      </c>
+      <c r="Q380">
+        <v>6</v>
+      </c>
+      <c r="R380">
+        <v>4</v>
+      </c>
+      <c r="S380">
+        <v>2</v>
+      </c>
+      <c r="T380">
+        <v>1</v>
+      </c>
+      <c r="U380">
+        <v>0</v>
+      </c>
+      <c r="V380">
+        <v>0</v>
+      </c>
+      <c r="W380">
+        <v>1.67</v>
+      </c>
+      <c r="X380">
+        <v>4</v>
+      </c>
+      <c r="Y380">
+        <v>5.75</v>
+      </c>
+      <c r="Z380">
+        <v>1.6</v>
+      </c>
+      <c r="AA380">
+        <v>3.8</v>
+      </c>
+      <c r="AB380">
+        <v>5.5</v>
+      </c>
+      <c r="AC380">
+        <v>1.6</v>
+      </c>
+      <c r="AD380">
+        <v>3.8</v>
+      </c>
+      <c r="AE380">
+        <v>5.5</v>
+      </c>
+      <c r="AF380">
+        <v>1.7</v>
+      </c>
+      <c r="AG380">
+        <v>3.6</v>
+      </c>
+      <c r="AH380">
+        <v>4.7</v>
+      </c>
+      <c r="AI380">
+        <v>1.7</v>
+      </c>
+      <c r="AJ380">
+        <v>3.75</v>
+      </c>
+      <c r="AK380">
+        <v>4.8</v>
+      </c>
+      <c r="AL380">
+        <v>1.65</v>
+      </c>
+      <c r="AM380">
+        <v>4.09</v>
+      </c>
+      <c r="AN380">
+        <v>5.88</v>
+      </c>
+      <c r="AO380">
+        <v>1.7</v>
+      </c>
+      <c r="AP380">
+        <v>3.4</v>
+      </c>
+      <c r="AQ380">
+        <v>5.5</v>
+      </c>
+      <c r="AR380">
+        <v>1.67</v>
+      </c>
+      <c r="AS380">
+        <v>3.8</v>
+      </c>
+      <c r="AT380">
+        <v>5</v>
+      </c>
+      <c r="AU380">
+        <v>1.7</v>
+      </c>
+      <c r="AV380">
+        <v>4</v>
+      </c>
+      <c r="AW380">
+        <v>5</v>
+      </c>
+      <c r="AX380">
+        <v>1.67</v>
+      </c>
+      <c r="AY380">
+        <v>3.75</v>
+      </c>
+      <c r="AZ380">
+        <v>5</v>
+      </c>
+      <c r="BA380">
+        <v>41</v>
+      </c>
+      <c r="BB380">
+        <v>1.7</v>
+      </c>
+      <c r="BC380">
+        <v>1.64</v>
+      </c>
+      <c r="BD380">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE380">
+        <v>3.77</v>
+      </c>
+      <c r="BF380">
+        <v>5.88</v>
+      </c>
+      <c r="BG380">
+        <v>5.4</v>
+      </c>
+      <c r="BH380">
+        <v>37</v>
+      </c>
+      <c r="BI380">
+        <v>1.71</v>
+      </c>
+      <c r="BJ380">
+        <v>1.64</v>
+      </c>
+      <c r="BK380">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BL380">
+        <v>2.21</v>
+      </c>
+      <c r="BM380">
+        <v>26</v>
+      </c>
+      <c r="BN380">
+        <v>-1</v>
+      </c>
+      <c r="BO380">
+        <v>2.17</v>
+      </c>
+      <c r="BP380">
+        <v>2.11</v>
+      </c>
+      <c r="BQ380">
+        <v>1.82</v>
+      </c>
+      <c r="BR380">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="381" spans="1:70">
+      <c r="A381" t="s">
+        <v>70</v>
+      </c>
+      <c r="B381" t="s">
+        <v>153</v>
+      </c>
+      <c r="C381" t="s">
+        <v>92</v>
+      </c>
+      <c r="D381" t="s">
+        <v>88</v>
+      </c>
+      <c r="E381">
+        <v>2</v>
+      </c>
+      <c r="F381">
+        <v>2</v>
+      </c>
+      <c r="G381" t="s">
+        <v>74</v>
+      </c>
+      <c r="H381">
+        <v>2</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+      <c r="J381" t="s">
+        <v>77</v>
+      </c>
+      <c r="K381">
+        <v>12</v>
+      </c>
+      <c r="L381">
+        <v>5</v>
+      </c>
+      <c r="M381">
+        <v>6</v>
+      </c>
+      <c r="N381">
+        <v>2</v>
+      </c>
+      <c r="O381">
+        <v>8</v>
+      </c>
+      <c r="P381">
+        <v>12</v>
+      </c>
+      <c r="Q381">
+        <v>4</v>
+      </c>
+      <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381">
+        <v>2</v>
+      </c>
+      <c r="T381">
+        <v>1</v>
+      </c>
+      <c r="U381">
+        <v>0</v>
+      </c>
+      <c r="V381">
+        <v>0</v>
+      </c>
+      <c r="W381">
+        <v>2.15</v>
+      </c>
+      <c r="X381">
+        <v>3.6</v>
+      </c>
+      <c r="Y381">
+        <v>3.6</v>
+      </c>
+      <c r="Z381">
+        <v>2</v>
+      </c>
+      <c r="AA381">
+        <v>3.5</v>
+      </c>
+      <c r="AB381">
+        <v>3.5</v>
+      </c>
+      <c r="AC381">
+        <v>2</v>
+      </c>
+      <c r="AD381">
+        <v>3.5</v>
+      </c>
+      <c r="AE381">
+        <v>3.5</v>
+      </c>
+      <c r="AF381">
+        <v>2.1</v>
+      </c>
+      <c r="AG381">
+        <v>3.3</v>
+      </c>
+      <c r="AH381">
+        <v>3.3</v>
+      </c>
+      <c r="AI381">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AJ381">
+        <v>3.5</v>
+      </c>
+      <c r="AK381">
+        <v>3.4</v>
+      </c>
+      <c r="AL381">
+        <v>2.1</v>
+      </c>
+      <c r="AM381">
+        <v>3.66</v>
+      </c>
+      <c r="AN381">
+        <v>3.7</v>
+      </c>
+      <c r="AO381">
+        <v>2.15</v>
+      </c>
+      <c r="AP381">
+        <v>3.3</v>
+      </c>
+      <c r="AQ381">
+        <v>3.4</v>
+      </c>
+      <c r="AR381">
+        <v>2.1</v>
+      </c>
+      <c r="AS381">
+        <v>3.6</v>
+      </c>
+      <c r="AT381">
+        <v>3.3</v>
+      </c>
+      <c r="AU381">
+        <v>2.15</v>
+      </c>
+      <c r="AV381">
+        <v>3.6</v>
+      </c>
+      <c r="AW381">
+        <v>3.5</v>
+      </c>
+      <c r="AX381">
+        <v>2.1</v>
+      </c>
+      <c r="AY381">
+        <v>3.4</v>
+      </c>
+      <c r="AZ381">
+        <v>3.4</v>
+      </c>
+      <c r="BA381">
+        <v>41</v>
+      </c>
+      <c r="BB381">
+        <v>2.15</v>
+      </c>
+      <c r="BC381">
+        <v>2.08</v>
+      </c>
+      <c r="BD381">
+        <v>3.66</v>
+      </c>
+      <c r="BE381">
+        <v>3.42</v>
+      </c>
+      <c r="BF381">
+        <v>3.7</v>
+      </c>
+      <c r="BG381">
+        <v>3.48</v>
+      </c>
+      <c r="BH381">
+        <v>39</v>
+      </c>
+      <c r="BI381">
+        <v>1.78</v>
+      </c>
+      <c r="BJ381">
+        <v>1.71</v>
+      </c>
+      <c r="BK381">
+        <v>2.25</v>
+      </c>
+      <c r="BL381">
+        <v>2.11</v>
+      </c>
+      <c r="BM381">
+        <v>26</v>
+      </c>
+      <c r="BN381">
+        <v>-0.25</v>
+      </c>
+      <c r="BO381">
+        <v>1.86</v>
+      </c>
+      <c r="BP381">
+        <v>1.79</v>
+      </c>
+      <c r="BQ381">
+        <v>2.15</v>
+      </c>
+      <c r="BR381">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
